--- a/PS4/data/bm010_parcel.xlsx
+++ b/PS4/data/bm010_parcel.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <x:si>
     <x:t>Ejendomspriser på boligmarkedet efter priser på realiserede handler, ejendomskategori, område og tid</x:t>
   </x:si>
   <x:si>
-    <x:t>Enhed: kr. pr. m2</x:t>
+    <x:t>Enhed: Kr. pr. m2</x:t>
   </x:si>
   <x:si>
     <x:t>1992K1</x:t>
@@ -341,6 +341,45 @@
   </x:si>
   <x:si>
     <x:t>2018K3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018K4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019K1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019K2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019K3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019K4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020K1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020K2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020K3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020K4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021K1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021K2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021K3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021K4</x:t>
   </x:si>
   <x:si>
     <x:t>Realiseret handelspris</x:t>
@@ -696,9 +735,6 @@
   <x:si>
     <x:t>Aalborg</x:t>
   </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Den elektroniske tinglysning har været ramt af driftsforstyrrelse, som har betydning for antallet af registrerede handler for primært 3. kvartal 2018. Det betyder, at der er færre handler bag opgørelserne for 3. kvartal 2018 og medfører, at der ved næste offentliggørelse i marts 2019 kan være større justeringer i tallene end normalt, særligt for opgørelser opdelt på kommuner og/eller postnumre. Antallet af handler for 3. kvartal kan ikke sammenlignes med handelsomfanget i øvrige perioder. </x:t>
-  </x:si>
 </x:sst>
 </file>
 
@@ -773,7 +809,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="7">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -792,11 +828,8 @@
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="7">
+  <x:cellXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -819,10 +852,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -1120,29 +1149,29 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:DF120"/>
+  <x:dimension ref="A1:DS118"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="22.700625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="18.700625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="28.700625" style="0" customWidth="1"/>
-    <x:col min="4" max="110" width="9.130625" style="0" customWidth="1"/>
+    <x:col min="4" max="123" width="9.130625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:110">
+    <x:row r="1" spans="1:123">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:110">
+    <x:row r="2" spans="1:123">
       <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:110">
+    <x:row r="3" spans="1:123">
       <x:c r="D3" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
@@ -1464,16 +1493,55 @@
       <x:c r="DF3" s="3" t="s">
         <x:v>108</x:v>
       </x:c>
+      <x:c r="DG3" s="3" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="DH3" s="3" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="DI3" s="3" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="DJ3" s="3" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="DK3" s="3" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="DL3" s="3" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="DM3" s="3" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="DN3" s="3" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="DO3" s="3" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="DP3" s="3" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="DQ3" s="3" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="DR3" s="3" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="DS3" s="3" t="s">
+        <x:v>121</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:110">
+    <x:row r="4" spans="1:123">
       <x:c r="A4" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D4" s="4" t="n">
         <x:v>4021</x:v>
@@ -1788,18 +1856,57 @@
         <x:v>13179</x:v>
       </x:c>
       <x:c r="DD4" s="4" t="n">
-        <x:v>13416</x:v>
+        <x:v>13407</x:v>
       </x:c>
       <x:c r="DE4" s="4" t="n">
-        <x:v>13627</x:v>
+        <x:v>13628</x:v>
       </x:c>
       <x:c r="DF4" s="4" t="n">
-        <x:v>13640</x:v>
+        <x:v>13697</x:v>
+      </x:c>
+      <x:c r="DG4" s="4" t="n">
+        <x:v>13638</x:v>
+      </x:c>
+      <x:c r="DH4" s="4" t="n">
+        <x:v>13618</x:v>
+      </x:c>
+      <x:c r="DI4" s="4" t="n">
+        <x:v>14002</x:v>
+      </x:c>
+      <x:c r="DJ4" s="4" t="n">
+        <x:v>14145</x:v>
+      </x:c>
+      <x:c r="DK4" s="4" t="n">
+        <x:v>14176</x:v>
+      </x:c>
+      <x:c r="DL4" s="4" t="n">
+        <x:v>14124</x:v>
+      </x:c>
+      <x:c r="DM4" s="4" t="n">
+        <x:v>14346</x:v>
+      </x:c>
+      <x:c r="DN4" s="4" t="n">
+        <x:v>14752</x:v>
+      </x:c>
+      <x:c r="DO4" s="4" t="n">
+        <x:v>15076</x:v>
+      </x:c>
+      <x:c r="DP4" s="4" t="n">
+        <x:v>15736</x:v>
+      </x:c>
+      <x:c r="DQ4" s="4" t="n">
+        <x:v>16350</x:v>
+      </x:c>
+      <x:c r="DR4" s="4" t="n">
+        <x:v>16570</x:v>
+      </x:c>
+      <x:c r="DS4" s="4" t="n">
+        <x:v>16507</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:110">
+    <x:row r="5" spans="1:123">
       <x:c r="C5" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D5" s="4" t="n">
         <x:v>5836</x:v>
@@ -2114,18 +2221,57 @@
         <x:v>24364</x:v>
       </x:c>
       <x:c r="DD5" s="4" t="n">
-        <x:v>24827</x:v>
+        <x:v>24810</x:v>
       </x:c>
       <x:c r="DE5" s="4" t="n">
-        <x:v>25119</x:v>
+        <x:v>25073</x:v>
       </x:c>
       <x:c r="DF5" s="4" t="n">
-        <x:v>25119</x:v>
+        <x:v>25278</x:v>
+      </x:c>
+      <x:c r="DG5" s="4" t="n">
+        <x:v>25452</x:v>
+      </x:c>
+      <x:c r="DH5" s="4" t="n">
+        <x:v>25370</x:v>
+      </x:c>
+      <x:c r="DI5" s="4" t="n">
+        <x:v>25891</x:v>
+      </x:c>
+      <x:c r="DJ5" s="4" t="n">
+        <x:v>26100</x:v>
+      </x:c>
+      <x:c r="DK5" s="4" t="n">
+        <x:v>26429</x:v>
+      </x:c>
+      <x:c r="DL5" s="4" t="n">
+        <x:v>26252</x:v>
+      </x:c>
+      <x:c r="DM5" s="4" t="n">
+        <x:v>26902</x:v>
+      </x:c>
+      <x:c r="DN5" s="4" t="n">
+        <x:v>27961</x:v>
+      </x:c>
+      <x:c r="DO5" s="4" t="n">
+        <x:v>28864</x:v>
+      </x:c>
+      <x:c r="DP5" s="4" t="n">
+        <x:v>30493</x:v>
+      </x:c>
+      <x:c r="DQ5" s="4" t="n">
+        <x:v>32445</x:v>
+      </x:c>
+      <x:c r="DR5" s="4" t="n">
+        <x:v>33573</x:v>
+      </x:c>
+      <x:c r="DS5" s="4" t="n">
+        <x:v>33359</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:110">
+    <x:row r="6" spans="1:123">
       <x:c r="C6" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D6" s="4" t="n">
         <x:v>5658</x:v>
@@ -2440,18 +2586,57 @@
         <x:v>33494</x:v>
       </x:c>
       <x:c r="DD6" s="4" t="n">
-        <x:v>35001</x:v>
+        <x:v>35007</x:v>
       </x:c>
       <x:c r="DE6" s="4" t="n">
-        <x:v>34298</x:v>
+        <x:v>34216</x:v>
       </x:c>
       <x:c r="DF6" s="4" t="n">
-        <x:v>33695</x:v>
+        <x:v>34305</x:v>
+      </x:c>
+      <x:c r="DG6" s="4" t="n">
+        <x:v>35554</x:v>
+      </x:c>
+      <x:c r="DH6" s="4" t="n">
+        <x:v>34731</x:v>
+      </x:c>
+      <x:c r="DI6" s="4" t="n">
+        <x:v>34989</x:v>
+      </x:c>
+      <x:c r="DJ6" s="4" t="n">
+        <x:v>35197</x:v>
+      </x:c>
+      <x:c r="DK6" s="4" t="n">
+        <x:v>37224</x:v>
+      </x:c>
+      <x:c r="DL6" s="4" t="n">
+        <x:v>35634</x:v>
+      </x:c>
+      <x:c r="DM6" s="4" t="n">
+        <x:v>37014</x:v>
+      </x:c>
+      <x:c r="DN6" s="4" t="n">
+        <x:v>38440</x:v>
+      </x:c>
+      <x:c r="DO6" s="4" t="n">
+        <x:v>40094</x:v>
+      </x:c>
+      <x:c r="DP6" s="4" t="n">
+        <x:v>43110</x:v>
+      </x:c>
+      <x:c r="DQ6" s="4" t="n">
+        <x:v>46171</x:v>
+      </x:c>
+      <x:c r="DR6" s="4" t="n">
+        <x:v>47292</x:v>
+      </x:c>
+      <x:c r="DS6" s="4" t="n">
+        <x:v>45998</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:110">
+    <x:row r="7" spans="1:123">
       <x:c r="C7" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D7" s="4" t="n">
         <x:v>5355</x:v>
@@ -2766,18 +2951,57 @@
         <x:v>34013</x:v>
       </x:c>
       <x:c r="DD7" s="4" t="n">
-        <x:v>36700</x:v>
+        <x:v>36761</x:v>
       </x:c>
       <x:c r="DE7" s="4" t="n">
-        <x:v>35442</x:v>
+        <x:v>35334</x:v>
       </x:c>
       <x:c r="DF7" s="4" t="n">
-        <x:v>34897</x:v>
+        <x:v>35701</x:v>
+      </x:c>
+      <x:c r="DG7" s="4" t="n">
+        <x:v>37494</x:v>
+      </x:c>
+      <x:c r="DH7" s="4" t="n">
+        <x:v>36347</x:v>
+      </x:c>
+      <x:c r="DI7" s="4" t="n">
+        <x:v>36170</x:v>
+      </x:c>
+      <x:c r="DJ7" s="4" t="n">
+        <x:v>37003</x:v>
+      </x:c>
+      <x:c r="DK7" s="4" t="n">
+        <x:v>38894</x:v>
+      </x:c>
+      <x:c r="DL7" s="4" t="n">
+        <x:v>37680</x:v>
+      </x:c>
+      <x:c r="DM7" s="4" t="n">
+        <x:v>38803</x:v>
+      </x:c>
+      <x:c r="DN7" s="4" t="n">
+        <x:v>40458</x:v>
+      </x:c>
+      <x:c r="DO7" s="4" t="n">
+        <x:v>42173</x:v>
+      </x:c>
+      <x:c r="DP7" s="4" t="n">
+        <x:v>45636</x:v>
+      </x:c>
+      <x:c r="DQ7" s="4" t="n">
+        <x:v>47188</x:v>
+      </x:c>
+      <x:c r="DR7" s="4" t="n">
+        <x:v>49606</x:v>
+      </x:c>
+      <x:c r="DS7" s="4" t="n">
+        <x:v>48100</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:110">
+    <x:row r="8" spans="1:123">
       <x:c r="C8" s="3" t="s">
-        <x:v>115</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D8" s="4" t="n">
         <x:v>5183</x:v>
@@ -2969,7 +3193,7 @@
         <x:v>30994</x:v>
       </x:c>
       <x:c r="BO8" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BP8" s="4" t="n">
         <x:v>39382</x:v>
@@ -3092,18 +3316,57 @@
         <x:v>53700</x:v>
       </x:c>
       <x:c r="DD8" s="4" t="n">
-        <x:v>49189</x:v>
+        <x:v>49203</x:v>
       </x:c>
       <x:c r="DE8" s="4" t="n">
-        <x:v>50747</x:v>
+        <x:v>50998</x:v>
       </x:c>
       <x:c r="DF8" s="4" t="n">
-        <x:v>47793</x:v>
+        <x:v>49540</x:v>
+      </x:c>
+      <x:c r="DG8" s="4" t="n">
+        <x:v>49267</x:v>
+      </x:c>
+      <x:c r="DH8" s="4" t="n">
+        <x:v>48487</x:v>
+      </x:c>
+      <x:c r="DI8" s="4" t="n">
+        <x:v>50732</x:v>
+      </x:c>
+      <x:c r="DJ8" s="4" t="n">
+        <x:v>48625</x:v>
+      </x:c>
+      <x:c r="DK8" s="4" t="n">
+        <x:v>53979</x:v>
+      </x:c>
+      <x:c r="DL8" s="4" t="n">
+        <x:v>47843</x:v>
+      </x:c>
+      <x:c r="DM8" s="4" t="n">
+        <x:v>52770</x:v>
+      </x:c>
+      <x:c r="DN8" s="4" t="n">
+        <x:v>54290</x:v>
+      </x:c>
+      <x:c r="DO8" s="4" t="n">
+        <x:v>64237</x:v>
+      </x:c>
+      <x:c r="DP8" s="4" t="n">
+        <x:v>63713</x:v>
+      </x:c>
+      <x:c r="DQ8" s="4" t="n">
+        <x:v>74226</x:v>
+      </x:c>
+      <x:c r="DR8" s="4" t="n">
+        <x:v>72633</x:v>
+      </x:c>
+      <x:c r="DS8" s="4" t="n">
+        <x:v>73143</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:110">
+    <x:row r="9" spans="1:123">
       <x:c r="C9" s="3" t="s">
-        <x:v>117</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D9" s="4" t="n">
         <x:v>6251</x:v>
@@ -3418,18 +3681,57 @@
         <x:v>28602</x:v>
       </x:c>
       <x:c r="DD9" s="4" t="n">
-        <x:v>30804</x:v>
+        <x:v>30477</x:v>
       </x:c>
       <x:c r="DE9" s="4" t="n">
-        <x:v>28917</x:v>
+        <x:v>28407</x:v>
       </x:c>
       <x:c r="DF9" s="4" t="n">
-        <x:v>28688</x:v>
+        <x:v>28044</x:v>
+      </x:c>
+      <x:c r="DG9" s="4" t="n">
+        <x:v>29931</x:v>
+      </x:c>
+      <x:c r="DH9" s="4" t="n">
+        <x:v>28374</x:v>
+      </x:c>
+      <x:c r="DI9" s="4" t="n">
+        <x:v>29640</x:v>
+      </x:c>
+      <x:c r="DJ9" s="4" t="n">
+        <x:v>29270</x:v>
+      </x:c>
+      <x:c r="DK9" s="4" t="n">
+        <x:v>31196</x:v>
+      </x:c>
+      <x:c r="DL9" s="4" t="n">
+        <x:v>29128</x:v>
+      </x:c>
+      <x:c r="DM9" s="4" t="n">
+        <x:v>32128</x:v>
+      </x:c>
+      <x:c r="DN9" s="4" t="n">
+        <x:v>33646</x:v>
+      </x:c>
+      <x:c r="DO9" s="4" t="n">
+        <x:v>31565</x:v>
+      </x:c>
+      <x:c r="DP9" s="4" t="n">
+        <x:v>35614</x:v>
+      </x:c>
+      <x:c r="DQ9" s="4" t="n">
+        <x:v>39852</x:v>
+      </x:c>
+      <x:c r="DR9" s="4" t="n">
+        <x:v>37145</x:v>
+      </x:c>
+      <x:c r="DS9" s="4" t="n">
+        <x:v>38890</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:110">
+    <x:row r="10" spans="1:123">
       <x:c r="C10" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D10" s="4" t="n">
         <x:v>5747</x:v>
@@ -3744,18 +4046,57 @@
         <x:v>27322</x:v>
       </x:c>
       <x:c r="DD10" s="4" t="n">
-        <x:v>27131</x:v>
+        <x:v>27121</x:v>
       </x:c>
       <x:c r="DE10" s="4" t="n">
-        <x:v>27923</x:v>
+        <x:v>27916</x:v>
       </x:c>
       <x:c r="DF10" s="4" t="n">
-        <x:v>27786</x:v>
+        <x:v>27943</x:v>
+      </x:c>
+      <x:c r="DG10" s="4" t="n">
+        <x:v>27824</x:v>
+      </x:c>
+      <x:c r="DH10" s="4" t="n">
+        <x:v>28288</x:v>
+      </x:c>
+      <x:c r="DI10" s="4" t="n">
+        <x:v>28657</x:v>
+      </x:c>
+      <x:c r="DJ10" s="4" t="n">
+        <x:v>28114</x:v>
+      </x:c>
+      <x:c r="DK10" s="4" t="n">
+        <x:v>29438</x:v>
+      </x:c>
+      <x:c r="DL10" s="4" t="n">
+        <x:v>28553</x:v>
+      </x:c>
+      <x:c r="DM10" s="4" t="n">
+        <x:v>28693</x:v>
+      </x:c>
+      <x:c r="DN10" s="4" t="n">
+        <x:v>29363</x:v>
+      </x:c>
+      <x:c r="DO10" s="4" t="n">
+        <x:v>29819</x:v>
+      </x:c>
+      <x:c r="DP10" s="4" t="n">
+        <x:v>32239</x:v>
+      </x:c>
+      <x:c r="DQ10" s="4" t="n">
+        <x:v>36591</x:v>
+      </x:c>
+      <x:c r="DR10" s="4" t="n">
+        <x:v>36849</x:v>
+      </x:c>
+      <x:c r="DS10" s="4" t="n">
+        <x:v>33883</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:110">
+    <x:row r="11" spans="1:123">
       <x:c r="C11" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D11" s="4" t="n">
         <x:v>6067</x:v>
@@ -4070,18 +4411,57 @@
         <x:v>27767</x:v>
       </x:c>
       <x:c r="DD11" s="4" t="n">
-        <x:v>28045</x:v>
+        <x:v>28039</x:v>
       </x:c>
       <x:c r="DE11" s="4" t="n">
-        <x:v>28350</x:v>
+        <x:v>28347</x:v>
       </x:c>
       <x:c r="DF11" s="4" t="n">
-        <x:v>29072</x:v>
+        <x:v>29071</x:v>
+      </x:c>
+      <x:c r="DG11" s="4" t="n">
+        <x:v>28803</x:v>
+      </x:c>
+      <x:c r="DH11" s="4" t="n">
+        <x:v>28873</x:v>
+      </x:c>
+      <x:c r="DI11" s="4" t="n">
+        <x:v>29719</x:v>
+      </x:c>
+      <x:c r="DJ11" s="4" t="n">
+        <x:v>29759</x:v>
+      </x:c>
+      <x:c r="DK11" s="4" t="n">
+        <x:v>29668</x:v>
+      </x:c>
+      <x:c r="DL11" s="4" t="n">
+        <x:v>30228</x:v>
+      </x:c>
+      <x:c r="DM11" s="4" t="n">
+        <x:v>30560</x:v>
+      </x:c>
+      <x:c r="DN11" s="4" t="n">
+        <x:v>31791</x:v>
+      </x:c>
+      <x:c r="DO11" s="4" t="n">
+        <x:v>33133</x:v>
+      </x:c>
+      <x:c r="DP11" s="4" t="n">
+        <x:v>34413</x:v>
+      </x:c>
+      <x:c r="DQ11" s="4" t="n">
+        <x:v>36787</x:v>
+      </x:c>
+      <x:c r="DR11" s="4" t="n">
+        <x:v>37373</x:v>
+      </x:c>
+      <x:c r="DS11" s="4" t="n">
+        <x:v>38198</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:110">
+    <x:row r="12" spans="1:123">
       <x:c r="C12" s="3" t="s">
-        <x:v>120</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D12" s="4" t="n">
         <x:v>5240</x:v>
@@ -4396,18 +4776,57 @@
         <x:v>19643</x:v>
       </x:c>
       <x:c r="DD12" s="4" t="n">
-        <x:v>20232</x:v>
+        <x:v>20223</x:v>
       </x:c>
       <x:c r="DE12" s="4" t="n">
-        <x:v>20664</x:v>
+        <x:v>20710</x:v>
       </x:c>
       <x:c r="DF12" s="4" t="n">
-        <x:v>20429</x:v>
+        <x:v>20666</x:v>
+      </x:c>
+      <x:c r="DG12" s="4" t="n">
+        <x:v>21841</x:v>
+      </x:c>
+      <x:c r="DH12" s="4" t="n">
+        <x:v>20454</x:v>
+      </x:c>
+      <x:c r="DI12" s="4" t="n">
+        <x:v>21093</x:v>
+      </x:c>
+      <x:c r="DJ12" s="4" t="n">
+        <x:v>20043</x:v>
+      </x:c>
+      <x:c r="DK12" s="4" t="n">
+        <x:v>21112</x:v>
+      </x:c>
+      <x:c r="DL12" s="4" t="n">
+        <x:v>21970</x:v>
+      </x:c>
+      <x:c r="DM12" s="4" t="n">
+        <x:v>21426</x:v>
+      </x:c>
+      <x:c r="DN12" s="4" t="n">
+        <x:v>22015</x:v>
+      </x:c>
+      <x:c r="DO12" s="4" t="n">
+        <x:v>22304</x:v>
+      </x:c>
+      <x:c r="DP12" s="4" t="n">
+        <x:v>24771</x:v>
+      </x:c>
+      <x:c r="DQ12" s="4" t="n">
+        <x:v>23978</x:v>
+      </x:c>
+      <x:c r="DR12" s="4" t="n">
+        <x:v>23582</x:v>
+      </x:c>
+      <x:c r="DS12" s="4" t="n">
+        <x:v>24821</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:110">
+    <x:row r="13" spans="1:123">
       <x:c r="C13" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D13" s="4" t="n">
         <x:v>5696</x:v>
@@ -4722,18 +5141,57 @@
         <x:v>23272</x:v>
       </x:c>
       <x:c r="DD13" s="4" t="n">
-        <x:v>23039</x:v>
+        <x:v>23045</x:v>
       </x:c>
       <x:c r="DE13" s="4" t="n">
-        <x:v>23807</x:v>
+        <x:v>23848</x:v>
       </x:c>
       <x:c r="DF13" s="4" t="n">
-        <x:v>23900</x:v>
+        <x:v>23531</x:v>
+      </x:c>
+      <x:c r="DG13" s="4" t="n">
+        <x:v>23291</x:v>
+      </x:c>
+      <x:c r="DH13" s="4" t="n">
+        <x:v>24341</x:v>
+      </x:c>
+      <x:c r="DI13" s="4" t="n">
+        <x:v>24302</x:v>
+      </x:c>
+      <x:c r="DJ13" s="4" t="n">
+        <x:v>24665</x:v>
+      </x:c>
+      <x:c r="DK13" s="4" t="n">
+        <x:v>24458</x:v>
+      </x:c>
+      <x:c r="DL13" s="4" t="n">
+        <x:v>23892</x:v>
+      </x:c>
+      <x:c r="DM13" s="4" t="n">
+        <x:v>25538</x:v>
+      </x:c>
+      <x:c r="DN13" s="4" t="n">
+        <x:v>25359</x:v>
+      </x:c>
+      <x:c r="DO13" s="4" t="n">
+        <x:v>28231</x:v>
+      </x:c>
+      <x:c r="DP13" s="4" t="n">
+        <x:v>27534</x:v>
+      </x:c>
+      <x:c r="DQ13" s="4" t="n">
+        <x:v>30508</x:v>
+      </x:c>
+      <x:c r="DR13" s="4" t="n">
+        <x:v>29985</x:v>
+      </x:c>
+      <x:c r="DS13" s="4" t="n">
+        <x:v>30866</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:110">
+    <x:row r="14" spans="1:123">
       <x:c r="C14" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D14" s="4" t="n">
         <x:v>5663</x:v>
@@ -5051,15 +5509,54 @@
         <x:v>22929</x:v>
       </x:c>
       <x:c r="DE14" s="4" t="n">
-        <x:v>23352</x:v>
+        <x:v>23537</x:v>
       </x:c>
       <x:c r="DF14" s="4" t="n">
-        <x:v>22061</x:v>
+        <x:v>22268</x:v>
+      </x:c>
+      <x:c r="DG14" s="4" t="n">
+        <x:v>23873</x:v>
+      </x:c>
+      <x:c r="DH14" s="4" t="n">
+        <x:v>24036</x:v>
+      </x:c>
+      <x:c r="DI14" s="4" t="n">
+        <x:v>24433</x:v>
+      </x:c>
+      <x:c r="DJ14" s="4" t="n">
+        <x:v>24765</x:v>
+      </x:c>
+      <x:c r="DK14" s="4" t="n">
+        <x:v>23950</x:v>
+      </x:c>
+      <x:c r="DL14" s="4" t="n">
+        <x:v>24475</x:v>
+      </x:c>
+      <x:c r="DM14" s="4" t="n">
+        <x:v>24144</x:v>
+      </x:c>
+      <x:c r="DN14" s="4" t="n">
+        <x:v>25751</x:v>
+      </x:c>
+      <x:c r="DO14" s="4" t="n">
+        <x:v>25912</x:v>
+      </x:c>
+      <x:c r="DP14" s="4" t="n">
+        <x:v>27702</x:v>
+      </x:c>
+      <x:c r="DQ14" s="4" t="n">
+        <x:v>28173</x:v>
+      </x:c>
+      <x:c r="DR14" s="4" t="n">
+        <x:v>29974</x:v>
+      </x:c>
+      <x:c r="DS14" s="4" t="n">
+        <x:v>28533</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:110">
+    <x:row r="15" spans="1:123">
       <x:c r="C15" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D15" s="4" t="n">
         <x:v>6783</x:v>
@@ -5374,18 +5871,57 @@
         <x:v>40977</x:v>
       </x:c>
       <x:c r="DD15" s="4" t="n">
-        <x:v>41469</x:v>
+        <x:v>41285</x:v>
       </x:c>
       <x:c r="DE15" s="4" t="n">
-        <x:v>42452</x:v>
+        <x:v>41921</x:v>
       </x:c>
       <x:c r="DF15" s="4" t="n">
-        <x:v>42042</x:v>
+        <x:v>42675</x:v>
+      </x:c>
+      <x:c r="DG15" s="4" t="n">
+        <x:v>42353</x:v>
+      </x:c>
+      <x:c r="DH15" s="4" t="n">
+        <x:v>43232</x:v>
+      </x:c>
+      <x:c r="DI15" s="4" t="n">
+        <x:v>44028</x:v>
+      </x:c>
+      <x:c r="DJ15" s="4" t="n">
+        <x:v>45592</x:v>
+      </x:c>
+      <x:c r="DK15" s="4" t="n">
+        <x:v>45414</x:v>
+      </x:c>
+      <x:c r="DL15" s="4" t="n">
+        <x:v>45853</x:v>
+      </x:c>
+      <x:c r="DM15" s="4" t="n">
+        <x:v>46541</x:v>
+      </x:c>
+      <x:c r="DN15" s="4" t="n">
+        <x:v>48728</x:v>
+      </x:c>
+      <x:c r="DO15" s="4" t="n">
+        <x:v>52652</x:v>
+      </x:c>
+      <x:c r="DP15" s="4" t="n">
+        <x:v>55083</x:v>
+      </x:c>
+      <x:c r="DQ15" s="4" t="n">
+        <x:v>58223</x:v>
+      </x:c>
+      <x:c r="DR15" s="4" t="n">
+        <x:v>59435</x:v>
+      </x:c>
+      <x:c r="DS15" s="4" t="n">
+        <x:v>62409</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:110">
+    <x:row r="16" spans="1:123">
       <x:c r="C16" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D16" s="4" t="n">
         <x:v>6157</x:v>
@@ -5700,18 +6236,57 @@
         <x:v>28611</x:v>
       </x:c>
       <x:c r="DD16" s="4" t="n">
-        <x:v>29383</x:v>
+        <x:v>29440</x:v>
       </x:c>
       <x:c r="DE16" s="4" t="n">
-        <x:v>30185</x:v>
+        <x:v>30479</x:v>
       </x:c>
       <x:c r="DF16" s="4" t="n">
-        <x:v>32617</x:v>
+        <x:v>32299</x:v>
+      </x:c>
+      <x:c r="DG16" s="4" t="n">
+        <x:v>30902</x:v>
+      </x:c>
+      <x:c r="DH16" s="4" t="n">
+        <x:v>29975</x:v>
+      </x:c>
+      <x:c r="DI16" s="4" t="n">
+        <x:v>32333</x:v>
+      </x:c>
+      <x:c r="DJ16" s="4" t="n">
+        <x:v>31526</x:v>
+      </x:c>
+      <x:c r="DK16" s="4" t="n">
+        <x:v>31117</x:v>
+      </x:c>
+      <x:c r="DL16" s="4" t="n">
+        <x:v>32293</x:v>
+      </x:c>
+      <x:c r="DM16" s="4" t="n">
+        <x:v>32707</x:v>
+      </x:c>
+      <x:c r="DN16" s="4" t="n">
+        <x:v>33215</x:v>
+      </x:c>
+      <x:c r="DO16" s="4" t="n">
+        <x:v>33042</x:v>
+      </x:c>
+      <x:c r="DP16" s="4" t="n">
+        <x:v>34217</x:v>
+      </x:c>
+      <x:c r="DQ16" s="4" t="n">
+        <x:v>37365</x:v>
+      </x:c>
+      <x:c r="DR16" s="4" t="n">
+        <x:v>39144</x:v>
+      </x:c>
+      <x:c r="DS16" s="4" t="n">
+        <x:v>39726</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:110">
+    <x:row r="17" spans="1:123">
       <x:c r="C17" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D17" s="4" t="n">
         <x:v>5401</x:v>
@@ -6026,18 +6601,57 @@
         <x:v>24176</x:v>
       </x:c>
       <x:c r="DD17" s="4" t="n">
-        <x:v>24079</x:v>
+        <x:v>24248</x:v>
       </x:c>
       <x:c r="DE17" s="4" t="n">
-        <x:v>24853</x:v>
+        <x:v>25219</x:v>
       </x:c>
       <x:c r="DF17" s="4" t="n">
-        <x:v>24587</x:v>
+        <x:v>24833</x:v>
+      </x:c>
+      <x:c r="DG17" s="4" t="n">
+        <x:v>25878</x:v>
+      </x:c>
+      <x:c r="DH17" s="4" t="n">
+        <x:v>24167</x:v>
+      </x:c>
+      <x:c r="DI17" s="4" t="n">
+        <x:v>23486</x:v>
+      </x:c>
+      <x:c r="DJ17" s="4" t="n">
+        <x:v>26628</x:v>
+      </x:c>
+      <x:c r="DK17" s="4" t="n">
+        <x:v>24371</x:v>
+      </x:c>
+      <x:c r="DL17" s="4" t="n">
+        <x:v>24525</x:v>
+      </x:c>
+      <x:c r="DM17" s="4" t="n">
+        <x:v>25110</x:v>
+      </x:c>
+      <x:c r="DN17" s="4" t="n">
+        <x:v>25492</x:v>
+      </x:c>
+      <x:c r="DO17" s="4" t="n">
+        <x:v>26732</x:v>
+      </x:c>
+      <x:c r="DP17" s="4" t="n">
+        <x:v>27708</x:v>
+      </x:c>
+      <x:c r="DQ17" s="4" t="n">
+        <x:v>29315</x:v>
+      </x:c>
+      <x:c r="DR17" s="4" t="n">
+        <x:v>30202</x:v>
+      </x:c>
+      <x:c r="DS17" s="4" t="n">
+        <x:v>31698</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:110">
+    <x:row r="18" spans="1:123">
       <x:c r="C18" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D18" s="4" t="n">
         <x:v>5949</x:v>
@@ -6352,18 +6966,57 @@
         <x:v>24930</x:v>
       </x:c>
       <x:c r="DD18" s="4" t="n">
-        <x:v>24232</x:v>
+        <x:v>24426</x:v>
       </x:c>
       <x:c r="DE18" s="4" t="n">
-        <x:v>24980</x:v>
+        <x:v>25171</x:v>
       </x:c>
       <x:c r="DF18" s="4" t="n">
-        <x:v>25728</x:v>
+        <x:v>25983</x:v>
+      </x:c>
+      <x:c r="DG18" s="4" t="n">
+        <x:v>25188</x:v>
+      </x:c>
+      <x:c r="DH18" s="4" t="n">
+        <x:v>25482</x:v>
+      </x:c>
+      <x:c r="DI18" s="4" t="n">
+        <x:v>26583</x:v>
+      </x:c>
+      <x:c r="DJ18" s="4" t="n">
+        <x:v>27129</x:v>
+      </x:c>
+      <x:c r="DK18" s="4" t="n">
+        <x:v>27625</x:v>
+      </x:c>
+      <x:c r="DL18" s="4" t="n">
+        <x:v>26511</x:v>
+      </x:c>
+      <x:c r="DM18" s="4" t="n">
+        <x:v>27730</x:v>
+      </x:c>
+      <x:c r="DN18" s="4" t="n">
+        <x:v>27377</x:v>
+      </x:c>
+      <x:c r="DO18" s="4" t="n">
+        <x:v>28229</x:v>
+      </x:c>
+      <x:c r="DP18" s="4" t="n">
+        <x:v>30070</x:v>
+      </x:c>
+      <x:c r="DQ18" s="4" t="n">
+        <x:v>31453</x:v>
+      </x:c>
+      <x:c r="DR18" s="4" t="n">
+        <x:v>32235</x:v>
+      </x:c>
+      <x:c r="DS18" s="4" t="n">
+        <x:v>32686</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:110">
+    <x:row r="19" spans="1:123">
       <x:c r="C19" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D19" s="4" t="n">
         <x:v>5399</x:v>
@@ -6678,18 +7331,57 @@
         <x:v>25131</x:v>
       </x:c>
       <x:c r="DD19" s="4" t="n">
-        <x:v>25608</x:v>
+        <x:v>25603</x:v>
       </x:c>
       <x:c r="DE19" s="4" t="n">
-        <x:v>25533</x:v>
+        <x:v>25511</x:v>
       </x:c>
       <x:c r="DF19" s="4" t="n">
-        <x:v>27845</x:v>
+        <x:v>27886</x:v>
+      </x:c>
+      <x:c r="DG19" s="4" t="n">
+        <x:v>27192</x:v>
+      </x:c>
+      <x:c r="DH19" s="4" t="n">
+        <x:v>25612</x:v>
+      </x:c>
+      <x:c r="DI19" s="4" t="n">
+        <x:v>28445</x:v>
+      </x:c>
+      <x:c r="DJ19" s="4" t="n">
+        <x:v>27993</x:v>
+      </x:c>
+      <x:c r="DK19" s="4" t="n">
+        <x:v>26485</x:v>
+      </x:c>
+      <x:c r="DL19" s="4" t="n">
+        <x:v>28272</x:v>
+      </x:c>
+      <x:c r="DM19" s="4" t="n">
+        <x:v>28827</x:v>
+      </x:c>
+      <x:c r="DN19" s="4" t="n">
+        <x:v>29924</x:v>
+      </x:c>
+      <x:c r="DO19" s="4" t="n">
+        <x:v>30189</x:v>
+      </x:c>
+      <x:c r="DP19" s="4" t="n">
+        <x:v>32869</x:v>
+      </x:c>
+      <x:c r="DQ19" s="4" t="n">
+        <x:v>35301</x:v>
+      </x:c>
+      <x:c r="DR19" s="4" t="n">
+        <x:v>35466</x:v>
+      </x:c>
+      <x:c r="DS19" s="4" t="n">
+        <x:v>36649</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:110">
+    <x:row r="20" spans="1:123">
       <x:c r="C20" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D20" s="4" t="n">
         <x:v>5156</x:v>
@@ -7004,18 +7696,57 @@
         <x:v>19659</x:v>
       </x:c>
       <x:c r="DD20" s="4" t="n">
-        <x:v>20288</x:v>
+        <x:v>20293</x:v>
       </x:c>
       <x:c r="DE20" s="4" t="n">
-        <x:v>19580</x:v>
+        <x:v>19536</x:v>
       </x:c>
       <x:c r="DF20" s="4" t="n">
-        <x:v>20367</x:v>
+        <x:v>20142</x:v>
+      </x:c>
+      <x:c r="DG20" s="4" t="n">
+        <x:v>20600</x:v>
+      </x:c>
+      <x:c r="DH20" s="4" t="n">
+        <x:v>21492</x:v>
+      </x:c>
+      <x:c r="DI20" s="4" t="n">
+        <x:v>21039</x:v>
+      </x:c>
+      <x:c r="DJ20" s="4" t="n">
+        <x:v>20577</x:v>
+      </x:c>
+      <x:c r="DK20" s="4" t="n">
+        <x:v>20350</x:v>
+      </x:c>
+      <x:c r="DL20" s="4" t="n">
+        <x:v>21357</x:v>
+      </x:c>
+      <x:c r="DM20" s="4" t="n">
+        <x:v>20841</x:v>
+      </x:c>
+      <x:c r="DN20" s="4" t="n">
+        <x:v>22055</x:v>
+      </x:c>
+      <x:c r="DO20" s="4" t="n">
+        <x:v>22947</x:v>
+      </x:c>
+      <x:c r="DP20" s="4" t="n">
+        <x:v>24112</x:v>
+      </x:c>
+      <x:c r="DQ20" s="4" t="n">
+        <x:v>25101</x:v>
+      </x:c>
+      <x:c r="DR20" s="4" t="n">
+        <x:v>25101</x:v>
+      </x:c>
+      <x:c r="DS20" s="4" t="n">
+        <x:v>24401</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:110">
+    <x:row r="21" spans="1:123">
       <x:c r="C21" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D21" s="4" t="n">
         <x:v>5119</x:v>
@@ -7330,18 +8061,57 @@
         <x:v>19476</x:v>
       </x:c>
       <x:c r="DD21" s="4" t="n">
-        <x:v>19476</x:v>
+        <x:v>19792</x:v>
       </x:c>
       <x:c r="DE21" s="4" t="n">
-        <x:v>20450</x:v>
+        <x:v>20279</x:v>
       </x:c>
       <x:c r="DF21" s="4" t="n">
-        <x:v>20138</x:v>
+        <x:v>20059</x:v>
+      </x:c>
+      <x:c r="DG21" s="4" t="n">
+        <x:v>19602</x:v>
+      </x:c>
+      <x:c r="DH21" s="4" t="n">
+        <x:v>20584</x:v>
+      </x:c>
+      <x:c r="DI21" s="4" t="n">
+        <x:v>20482</x:v>
+      </x:c>
+      <x:c r="DJ21" s="4" t="n">
+        <x:v>20195</x:v>
+      </x:c>
+      <x:c r="DK21" s="4" t="n">
+        <x:v>21471</x:v>
+      </x:c>
+      <x:c r="DL21" s="4" t="n">
+        <x:v>20341</x:v>
+      </x:c>
+      <x:c r="DM21" s="4" t="n">
+        <x:v>20745</x:v>
+      </x:c>
+      <x:c r="DN21" s="4" t="n">
+        <x:v>21624</x:v>
+      </x:c>
+      <x:c r="DO21" s="4" t="n">
+        <x:v>23626</x:v>
+      </x:c>
+      <x:c r="DP21" s="4" t="n">
+        <x:v>21917</x:v>
+      </x:c>
+      <x:c r="DQ21" s="4" t="n">
+        <x:v>23714</x:v>
+      </x:c>
+      <x:c r="DR21" s="4" t="n">
+        <x:v>24131</x:v>
+      </x:c>
+      <x:c r="DS21" s="4" t="n">
+        <x:v>26761</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:110">
+    <x:row r="22" spans="1:123">
       <x:c r="C22" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D22" s="4" t="n">
         <x:v>6937</x:v>
@@ -7656,18 +8426,57 @@
         <x:v>34626</x:v>
       </x:c>
       <x:c r="DD22" s="4" t="n">
-        <x:v>34384</x:v>
+        <x:v>34367</x:v>
       </x:c>
       <x:c r="DE22" s="4" t="n">
-        <x:v>34591</x:v>
+        <x:v>34759</x:v>
       </x:c>
       <x:c r="DF22" s="4" t="n">
-        <x:v>34938</x:v>
+        <x:v>34764</x:v>
+      </x:c>
+      <x:c r="DG22" s="4" t="n">
+        <x:v>34161</x:v>
+      </x:c>
+      <x:c r="DH22" s="4" t="n">
+        <x:v>35528</x:v>
+      </x:c>
+      <x:c r="DI22" s="4" t="n">
+        <x:v>35769</x:v>
+      </x:c>
+      <x:c r="DJ22" s="4" t="n">
+        <x:v>35044</x:v>
+      </x:c>
+      <x:c r="DK22" s="4" t="n">
+        <x:v>36211</x:v>
+      </x:c>
+      <x:c r="DL22" s="4" t="n">
+        <x:v>36992</x:v>
+      </x:c>
+      <x:c r="DM22" s="4" t="n">
+        <x:v>36436</x:v>
+      </x:c>
+      <x:c r="DN22" s="4" t="n">
+        <x:v>39249</x:v>
+      </x:c>
+      <x:c r="DO22" s="4" t="n">
+        <x:v>41274</x:v>
+      </x:c>
+      <x:c r="DP22" s="4" t="n">
+        <x:v>41949</x:v>
+      </x:c>
+      <x:c r="DQ22" s="4" t="n">
+        <x:v>46563</x:v>
+      </x:c>
+      <x:c r="DR22" s="4" t="n">
+        <x:v>46312</x:v>
+      </x:c>
+      <x:c r="DS22" s="4" t="n">
+        <x:v>46605</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:110">
+    <x:row r="23" spans="1:123">
       <x:c r="C23" s="3" t="s">
-        <x:v>131</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D23" s="4" t="n">
         <x:v>5684</x:v>
@@ -7982,18 +8791,57 @@
         <x:v>27174</x:v>
       </x:c>
       <x:c r="DD23" s="4" t="n">
-        <x:v>27283</x:v>
+        <x:v>27270</x:v>
       </x:c>
       <x:c r="DE23" s="4" t="n">
-        <x:v>26467</x:v>
+        <x:v>26454</x:v>
       </x:c>
       <x:c r="DF23" s="4" t="n">
-        <x:v>29864</x:v>
+        <x:v>28953</x:v>
+      </x:c>
+      <x:c r="DG23" s="4" t="n">
+        <x:v>28057</x:v>
+      </x:c>
+      <x:c r="DH23" s="4" t="n">
+        <x:v>27418</x:v>
+      </x:c>
+      <x:c r="DI23" s="4" t="n">
+        <x:v>28656</x:v>
+      </x:c>
+      <x:c r="DJ23" s="4" t="n">
+        <x:v>27157</x:v>
+      </x:c>
+      <x:c r="DK23" s="4" t="n">
+        <x:v>28013</x:v>
+      </x:c>
+      <x:c r="DL23" s="4" t="n">
+        <x:v>28603</x:v>
+      </x:c>
+      <x:c r="DM23" s="4" t="n">
+        <x:v>29920</x:v>
+      </x:c>
+      <x:c r="DN23" s="4" t="n">
+        <x:v>29647</x:v>
+      </x:c>
+      <x:c r="DO23" s="4" t="n">
+        <x:v>30241</x:v>
+      </x:c>
+      <x:c r="DP23" s="4" t="n">
+        <x:v>32339</x:v>
+      </x:c>
+      <x:c r="DQ23" s="4" t="n">
+        <x:v>33342</x:v>
+      </x:c>
+      <x:c r="DR23" s="4" t="n">
+        <x:v>36155</x:v>
+      </x:c>
+      <x:c r="DS23" s="4" t="n">
+        <x:v>35185</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:110">
+    <x:row r="24" spans="1:123">
       <x:c r="C24" s="3" t="s">
-        <x:v>132</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D24" s="4" t="n">
         <x:v>7820</x:v>
@@ -8308,18 +9156,57 @@
         <x:v>24279</x:v>
       </x:c>
       <x:c r="DD24" s="4" t="n">
-        <x:v>24740</x:v>
+        <x:v>24743</x:v>
       </x:c>
       <x:c r="DE24" s="4" t="n">
-        <x:v>24036</x:v>
+        <x:v>24104</x:v>
       </x:c>
       <x:c r="DF24" s="4" t="n">
-        <x:v>23963</x:v>
+        <x:v>24544</x:v>
+      </x:c>
+      <x:c r="DG24" s="4" t="n">
+        <x:v>24332</x:v>
+      </x:c>
+      <x:c r="DH24" s="4" t="n">
+        <x:v>23732</x:v>
+      </x:c>
+      <x:c r="DI24" s="4" t="n">
+        <x:v>24632</x:v>
+      </x:c>
+      <x:c r="DJ24" s="4" t="n">
+        <x:v>25277</x:v>
+      </x:c>
+      <x:c r="DK24" s="4" t="n">
+        <x:v>25279</x:v>
+      </x:c>
+      <x:c r="DL24" s="4" t="n">
+        <x:v>25962</x:v>
+      </x:c>
+      <x:c r="DM24" s="4" t="n">
+        <x:v>25001</x:v>
+      </x:c>
+      <x:c r="DN24" s="4" t="n">
+        <x:v>29126</x:v>
+      </x:c>
+      <x:c r="DO24" s="4" t="n">
+        <x:v>27882</x:v>
+      </x:c>
+      <x:c r="DP24" s="4" t="n">
+        <x:v>27185</x:v>
+      </x:c>
+      <x:c r="DQ24" s="4" t="n">
+        <x:v>30855</x:v>
+      </x:c>
+      <x:c r="DR24" s="4" t="n">
+        <x:v>28354</x:v>
+      </x:c>
+      <x:c r="DS24" s="4" t="n">
+        <x:v>30203</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:110">
+    <x:row r="25" spans="1:123">
       <x:c r="C25" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D25" s="4" t="n">
         <x:v>5605</x:v>
@@ -8634,18 +9521,57 @@
         <x:v>20833</x:v>
       </x:c>
       <x:c r="DD25" s="4" t="n">
-        <x:v>21062</x:v>
+        <x:v>21035</x:v>
       </x:c>
       <x:c r="DE25" s="4" t="n">
-        <x:v>21708</x:v>
+        <x:v>21661</x:v>
       </x:c>
       <x:c r="DF25" s="4" t="n">
-        <x:v>21312</x:v>
+        <x:v>21527</x:v>
+      </x:c>
+      <x:c r="DG25" s="4" t="n">
+        <x:v>21734</x:v>
+      </x:c>
+      <x:c r="DH25" s="4" t="n">
+        <x:v>21784</x:v>
+      </x:c>
+      <x:c r="DI25" s="4" t="n">
+        <x:v>22130</x:v>
+      </x:c>
+      <x:c r="DJ25" s="4" t="n">
+        <x:v>22507</x:v>
+      </x:c>
+      <x:c r="DK25" s="4" t="n">
+        <x:v>22661</x:v>
+      </x:c>
+      <x:c r="DL25" s="4" t="n">
+        <x:v>22363</x:v>
+      </x:c>
+      <x:c r="DM25" s="4" t="n">
+        <x:v>23060</x:v>
+      </x:c>
+      <x:c r="DN25" s="4" t="n">
+        <x:v>23932</x:v>
+      </x:c>
+      <x:c r="DO25" s="4" t="n">
+        <x:v>24288</x:v>
+      </x:c>
+      <x:c r="DP25" s="4" t="n">
+        <x:v>25791</x:v>
+      </x:c>
+      <x:c r="DQ25" s="4" t="n">
+        <x:v>27184</x:v>
+      </x:c>
+      <x:c r="DR25" s="4" t="n">
+        <x:v>28860</x:v>
+      </x:c>
+      <x:c r="DS25" s="4" t="n">
+        <x:v>28319</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:110">
+    <x:row r="26" spans="1:123">
       <x:c r="C26" s="3" t="s">
-        <x:v>134</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D26" s="4" t="n">
         <x:v>5939</x:v>
@@ -8960,18 +9886,57 @@
         <x:v>21315</x:v>
       </x:c>
       <x:c r="DD26" s="4" t="n">
-        <x:v>21933</x:v>
+        <x:v>21934</x:v>
       </x:c>
       <x:c r="DE26" s="4" t="n">
-        <x:v>22679</x:v>
+        <x:v>22770</x:v>
       </x:c>
       <x:c r="DF26" s="4" t="n">
-        <x:v>22125</x:v>
+        <x:v>22576</x:v>
+      </x:c>
+      <x:c r="DG26" s="4" t="n">
+        <x:v>22853</x:v>
+      </x:c>
+      <x:c r="DH26" s="4" t="n">
+        <x:v>23327</x:v>
+      </x:c>
+      <x:c r="DI26" s="4" t="n">
+        <x:v>23265</x:v>
+      </x:c>
+      <x:c r="DJ26" s="4" t="n">
+        <x:v>23535</x:v>
+      </x:c>
+      <x:c r="DK26" s="4" t="n">
+        <x:v>24455</x:v>
+      </x:c>
+      <x:c r="DL26" s="4" t="n">
+        <x:v>23490</x:v>
+      </x:c>
+      <x:c r="DM26" s="4" t="n">
+        <x:v>24417</x:v>
+      </x:c>
+      <x:c r="DN26" s="4" t="n">
+        <x:v>25387</x:v>
+      </x:c>
+      <x:c r="DO26" s="4" t="n">
+        <x:v>26115</x:v>
+      </x:c>
+      <x:c r="DP26" s="4" t="n">
+        <x:v>26687</x:v>
+      </x:c>
+      <x:c r="DQ26" s="4" t="n">
+        <x:v>29142</x:v>
+      </x:c>
+      <x:c r="DR26" s="4" t="n">
+        <x:v>30850</x:v>
+      </x:c>
+      <x:c r="DS26" s="4" t="n">
+        <x:v>29596</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:110">
+    <x:row r="27" spans="1:123">
       <x:c r="C27" s="3" t="s">
-        <x:v>135</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D27" s="4" t="n">
         <x:v>5241</x:v>
@@ -9286,18 +10251,57 @@
         <x:v>19686</x:v>
       </x:c>
       <x:c r="DD27" s="4" t="n">
-        <x:v>20158</x:v>
+        <x:v>20152</x:v>
       </x:c>
       <x:c r="DE27" s="4" t="n">
-        <x:v>20788</x:v>
+        <x:v>20820</x:v>
       </x:c>
       <x:c r="DF27" s="4" t="n">
-        <x:v>20099</x:v>
+        <x:v>20306</x:v>
+      </x:c>
+      <x:c r="DG27" s="4" t="n">
+        <x:v>20889</x:v>
+      </x:c>
+      <x:c r="DH27" s="4" t="n">
+        <x:v>21024</x:v>
+      </x:c>
+      <x:c r="DI27" s="4" t="n">
+        <x:v>20593</x:v>
+      </x:c>
+      <x:c r="DJ27" s="4" t="n">
+        <x:v>20726</x:v>
+      </x:c>
+      <x:c r="DK27" s="4" t="n">
+        <x:v>21284</x:v>
+      </x:c>
+      <x:c r="DL27" s="4" t="n">
+        <x:v>21068</x:v>
+      </x:c>
+      <x:c r="DM27" s="4" t="n">
+        <x:v>21784</x:v>
+      </x:c>
+      <x:c r="DN27" s="4" t="n">
+        <x:v>21702</x:v>
+      </x:c>
+      <x:c r="DO27" s="4" t="n">
+        <x:v>22955</x:v>
+      </x:c>
+      <x:c r="DP27" s="4" t="n">
+        <x:v>23467</x:v>
+      </x:c>
+      <x:c r="DQ27" s="4" t="n">
+        <x:v>24711</x:v>
+      </x:c>
+      <x:c r="DR27" s="4" t="n">
+        <x:v>25391</x:v>
+      </x:c>
+      <x:c r="DS27" s="4" t="n">
+        <x:v>24781</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:110">
+    <x:row r="28" spans="1:123">
       <x:c r="C28" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D28" s="4" t="n">
         <x:v>5788</x:v>
@@ -9612,18 +10616,57 @@
         <x:v>21263</x:v>
       </x:c>
       <x:c r="DD28" s="4" t="n">
-        <x:v>22560</x:v>
+        <x:v>22501</x:v>
       </x:c>
       <x:c r="DE28" s="4" t="n">
-        <x:v>22560</x:v>
+        <x:v>22134</x:v>
       </x:c>
       <x:c r="DF28" s="4" t="n">
-        <x:v>22539</x:v>
+        <x:v>22511</x:v>
+      </x:c>
+      <x:c r="DG28" s="4" t="n">
+        <x:v>22582</x:v>
+      </x:c>
+      <x:c r="DH28" s="4" t="n">
+        <x:v>21964</x:v>
+      </x:c>
+      <x:c r="DI28" s="4" t="n">
+        <x:v>23812</x:v>
+      </x:c>
+      <x:c r="DJ28" s="4" t="n">
+        <x:v>23087</x:v>
+      </x:c>
+      <x:c r="DK28" s="4" t="n">
+        <x:v>24092</x:v>
+      </x:c>
+      <x:c r="DL28" s="4" t="n">
+        <x:v>23262</x:v>
+      </x:c>
+      <x:c r="DM28" s="4" t="n">
+        <x:v>23873</x:v>
+      </x:c>
+      <x:c r="DN28" s="4" t="n">
+        <x:v>24678</x:v>
+      </x:c>
+      <x:c r="DO28" s="4" t="n">
+        <x:v>24561</x:v>
+      </x:c>
+      <x:c r="DP28" s="4" t="n">
+        <x:v>27413</x:v>
+      </x:c>
+      <x:c r="DQ28" s="4" t="n">
+        <x:v>27769</x:v>
+      </x:c>
+      <x:c r="DR28" s="4" t="n">
+        <x:v>31004</x:v>
+      </x:c>
+      <x:c r="DS28" s="4" t="n">
+        <x:v>29222</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:110">
+    <x:row r="29" spans="1:123">
       <x:c r="C29" s="3" t="s">
-        <x:v>137</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D29" s="4" t="n">
         <x:v>5020</x:v>
@@ -9938,18 +10981,57 @@
         <x:v>16740</x:v>
       </x:c>
       <x:c r="DD29" s="4" t="n">
-        <x:v>15920</x:v>
+        <x:v>15805</x:v>
       </x:c>
       <x:c r="DE29" s="4" t="n">
-        <x:v>16070</x:v>
+        <x:v>16056</x:v>
       </x:c>
       <x:c r="DF29" s="4" t="n">
-        <x:v>16070</x:v>
+        <x:v>16226</x:v>
+      </x:c>
+      <x:c r="DG29" s="4" t="n">
+        <x:v>16902</x:v>
+      </x:c>
+      <x:c r="DH29" s="4" t="n">
+        <x:v>16560</x:v>
+      </x:c>
+      <x:c r="DI29" s="4" t="n">
+        <x:v>16444</x:v>
+      </x:c>
+      <x:c r="DJ29" s="4" t="n">
+        <x:v>16436</x:v>
+      </x:c>
+      <x:c r="DK29" s="4" t="n">
+        <x:v>16765</x:v>
+      </x:c>
+      <x:c r="DL29" s="4" t="n">
+        <x:v>16674</x:v>
+      </x:c>
+      <x:c r="DM29" s="4" t="n">
+        <x:v>17147</x:v>
+      </x:c>
+      <x:c r="DN29" s="4" t="n">
+        <x:v>17261</x:v>
+      </x:c>
+      <x:c r="DO29" s="4" t="n">
+        <x:v>17504</x:v>
+      </x:c>
+      <x:c r="DP29" s="4" t="n">
+        <x:v>18046</x:v>
+      </x:c>
+      <x:c r="DQ29" s="4" t="n">
+        <x:v>18407</x:v>
+      </x:c>
+      <x:c r="DR29" s="4" t="n">
+        <x:v>19742</x:v>
+      </x:c>
+      <x:c r="DS29" s="4" t="n">
+        <x:v>20103</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:110">
+    <x:row r="30" spans="1:123">
       <x:c r="C30" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D30" s="4" t="n">
         <x:v>6256</x:v>
@@ -10264,18 +11346,57 @@
         <x:v>26126</x:v>
       </x:c>
       <x:c r="DD30" s="4" t="n">
-        <x:v>27458</x:v>
+        <x:v>27447</x:v>
       </x:c>
       <x:c r="DE30" s="4" t="n">
-        <x:v>27432</x:v>
+        <x:v>27692</x:v>
       </x:c>
       <x:c r="DF30" s="4" t="n">
-        <x:v>27014</x:v>
+        <x:v>27181</x:v>
+      </x:c>
+      <x:c r="DG30" s="4" t="n">
+        <x:v>27578</x:v>
+      </x:c>
+      <x:c r="DH30" s="4" t="n">
+        <x:v>27277</x:v>
+      </x:c>
+      <x:c r="DI30" s="4" t="n">
+        <x:v>27131</x:v>
+      </x:c>
+      <x:c r="DJ30" s="4" t="n">
+        <x:v>29078</x:v>
+      </x:c>
+      <x:c r="DK30" s="4" t="n">
+        <x:v>28911</x:v>
+      </x:c>
+      <x:c r="DL30" s="4" t="n">
+        <x:v>27504</x:v>
+      </x:c>
+      <x:c r="DM30" s="4" t="n">
+        <x:v>29032</x:v>
+      </x:c>
+      <x:c r="DN30" s="4" t="n">
+        <x:v>29197</x:v>
+      </x:c>
+      <x:c r="DO30" s="4" t="n">
+        <x:v>29813</x:v>
+      </x:c>
+      <x:c r="DP30" s="4" t="n">
+        <x:v>32554</x:v>
+      </x:c>
+      <x:c r="DQ30" s="4" t="n">
+        <x:v>35516</x:v>
+      </x:c>
+      <x:c r="DR30" s="4" t="n">
+        <x:v>37470</x:v>
+      </x:c>
+      <x:c r="DS30" s="4" t="n">
+        <x:v>36298</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:110">
+    <x:row r="31" spans="1:123">
       <x:c r="C31" s="3" t="s">
-        <x:v>139</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D31" s="4" t="n">
         <x:v>4506</x:v>
@@ -10593,15 +11714,54 @@
         <x:v>14210</x:v>
       </x:c>
       <x:c r="DE31" s="4" t="n">
-        <x:v>14237</x:v>
+        <x:v>14227</x:v>
       </x:c>
       <x:c r="DF31" s="4" t="n">
-        <x:v>14646</x:v>
+        <x:v>14687</x:v>
+      </x:c>
+      <x:c r="DG31" s="4" t="n">
+        <x:v>14889</x:v>
+      </x:c>
+      <x:c r="DH31" s="4" t="n">
+        <x:v>14586</x:v>
+      </x:c>
+      <x:c r="DI31" s="4" t="n">
+        <x:v>15382</x:v>
+      </x:c>
+      <x:c r="DJ31" s="4" t="n">
+        <x:v>15364</x:v>
+      </x:c>
+      <x:c r="DK31" s="4" t="n">
+        <x:v>15604</x:v>
+      </x:c>
+      <x:c r="DL31" s="4" t="n">
+        <x:v>15558</x:v>
+      </x:c>
+      <x:c r="DM31" s="4" t="n">
+        <x:v>16276</x:v>
+      </x:c>
+      <x:c r="DN31" s="4" t="n">
+        <x:v>16762</x:v>
+      </x:c>
+      <x:c r="DO31" s="4" t="n">
+        <x:v>16867</x:v>
+      </x:c>
+      <x:c r="DP31" s="4" t="n">
+        <x:v>17862</x:v>
+      </x:c>
+      <x:c r="DQ31" s="4" t="n">
+        <x:v>18612</x:v>
+      </x:c>
+      <x:c r="DR31" s="4" t="n">
+        <x:v>18505</x:v>
+      </x:c>
+      <x:c r="DS31" s="4" t="n">
+        <x:v>18023</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:110">
+    <x:row r="32" spans="1:123">
       <x:c r="C32" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D32" s="4" t="n">
         <x:v>4298</x:v>
@@ -10916,18 +12076,57 @@
         <x:v>11540</x:v>
       </x:c>
       <x:c r="DD32" s="4" t="n">
-        <x:v>12036</x:v>
+        <x:v>12040</x:v>
       </x:c>
       <x:c r="DE32" s="4" t="n">
-        <x:v>12775</x:v>
+        <x:v>12701</x:v>
       </x:c>
       <x:c r="DF32" s="4" t="n">
-        <x:v>12509</x:v>
+        <x:v>12474</x:v>
+      </x:c>
+      <x:c r="DG32" s="4" t="n">
+        <x:v>12922</x:v>
+      </x:c>
+      <x:c r="DH32" s="4" t="n">
+        <x:v>13108</x:v>
+      </x:c>
+      <x:c r="DI32" s="4" t="n">
+        <x:v>12883</x:v>
+      </x:c>
+      <x:c r="DJ32" s="4" t="n">
+        <x:v>12812</x:v>
+      </x:c>
+      <x:c r="DK32" s="4" t="n">
+        <x:v>13226</x:v>
+      </x:c>
+      <x:c r="DL32" s="4" t="n">
+        <x:v>13010</x:v>
+      </x:c>
+      <x:c r="DM32" s="4" t="n">
+        <x:v>13096</x:v>
+      </x:c>
+      <x:c r="DN32" s="4" t="n">
+        <x:v>13908</x:v>
+      </x:c>
+      <x:c r="DO32" s="4" t="n">
+        <x:v>14766</x:v>
+      </x:c>
+      <x:c r="DP32" s="4" t="n">
+        <x:v>14975</x:v>
+      </x:c>
+      <x:c r="DQ32" s="4" t="n">
+        <x:v>15619</x:v>
+      </x:c>
+      <x:c r="DR32" s="4" t="n">
+        <x:v>16637</x:v>
+      </x:c>
+      <x:c r="DS32" s="4" t="n">
+        <x:v>16353</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:110">
+    <x:row r="33" spans="1:123">
       <x:c r="C33" s="3" t="s">
-        <x:v>141</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D33" s="4" t="n">
         <x:v>5751</x:v>
@@ -11242,18 +12441,57 @@
         <x:v>21567</x:v>
       </x:c>
       <x:c r="DD33" s="4" t="n">
-        <x:v>20834</x:v>
+        <x:v>20698</x:v>
       </x:c>
       <x:c r="DE33" s="4" t="n">
-        <x:v>21783</x:v>
+        <x:v>21597</x:v>
       </x:c>
       <x:c r="DF33" s="4" t="n">
-        <x:v>20726</x:v>
+        <x:v>21518</x:v>
+      </x:c>
+      <x:c r="DG33" s="4" t="n">
+        <x:v>21730</x:v>
+      </x:c>
+      <x:c r="DH33" s="4" t="n">
+        <x:v>21790</x:v>
+      </x:c>
+      <x:c r="DI33" s="4" t="n">
+        <x:v>22065</x:v>
+      </x:c>
+      <x:c r="DJ33" s="4" t="n">
+        <x:v>22845</x:v>
+      </x:c>
+      <x:c r="DK33" s="4" t="n">
+        <x:v>22210</x:v>
+      </x:c>
+      <x:c r="DL33" s="4" t="n">
+        <x:v>22152</x:v>
+      </x:c>
+      <x:c r="DM33" s="4" t="n">
+        <x:v>22801</x:v>
+      </x:c>
+      <x:c r="DN33" s="4" t="n">
+        <x:v>24794</x:v>
+      </x:c>
+      <x:c r="DO33" s="4" t="n">
+        <x:v>24507</x:v>
+      </x:c>
+      <x:c r="DP33" s="4" t="n">
+        <x:v>26285</x:v>
+      </x:c>
+      <x:c r="DQ33" s="4" t="n">
+        <x:v>26706</x:v>
+      </x:c>
+      <x:c r="DR33" s="4" t="n">
+        <x:v>29833</x:v>
+      </x:c>
+      <x:c r="DS33" s="4" t="n">
+        <x:v>30359</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:110">
+    <x:row r="34" spans="1:123">
       <x:c r="C34" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D34" s="4" t="n">
         <x:v>4847</x:v>
@@ -11568,18 +12806,57 @@
         <x:v>19792</x:v>
       </x:c>
       <x:c r="DD34" s="4" t="n">
-        <x:v>20425</x:v>
+        <x:v>20410</x:v>
       </x:c>
       <x:c r="DE34" s="4" t="n">
-        <x:v>20247</x:v>
+        <x:v>20148</x:v>
       </x:c>
       <x:c r="DF34" s="4" t="n">
-        <x:v>19891</x:v>
+        <x:v>19878</x:v>
+      </x:c>
+      <x:c r="DG34" s="4" t="n">
+        <x:v>20353</x:v>
+      </x:c>
+      <x:c r="DH34" s="4" t="n">
+        <x:v>20189</x:v>
+      </x:c>
+      <x:c r="DI34" s="4" t="n">
+        <x:v>21312</x:v>
+      </x:c>
+      <x:c r="DJ34" s="4" t="n">
+        <x:v>21055</x:v>
+      </x:c>
+      <x:c r="DK34" s="4" t="n">
+        <x:v>21517</x:v>
+      </x:c>
+      <x:c r="DL34" s="4" t="n">
+        <x:v>21175</x:v>
+      </x:c>
+      <x:c r="DM34" s="4" t="n">
+        <x:v>21397</x:v>
+      </x:c>
+      <x:c r="DN34" s="4" t="n">
+        <x:v>22101</x:v>
+      </x:c>
+      <x:c r="DO34" s="4" t="n">
+        <x:v>22513</x:v>
+      </x:c>
+      <x:c r="DP34" s="4" t="n">
+        <x:v>23875</x:v>
+      </x:c>
+      <x:c r="DQ34" s="4" t="n">
+        <x:v>24711</x:v>
+      </x:c>
+      <x:c r="DR34" s="4" t="n">
+        <x:v>25379</x:v>
+      </x:c>
+      <x:c r="DS34" s="4" t="n">
+        <x:v>25236</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:110">
+    <x:row r="35" spans="1:123">
       <x:c r="C35" s="3" t="s">
-        <x:v>143</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D35" s="4" t="n">
         <x:v>7363</x:v>
@@ -11894,18 +13171,57 @@
         <x:v>27600</x:v>
       </x:c>
       <x:c r="DD35" s="4" t="n">
-        <x:v>28732</x:v>
+        <x:v>28724</x:v>
       </x:c>
       <x:c r="DE35" s="4" t="n">
-        <x:v>29946</x:v>
+        <x:v>29700</x:v>
       </x:c>
       <x:c r="DF35" s="4" t="n">
-        <x:v>28759</x:v>
+        <x:v>29526</x:v>
+      </x:c>
+      <x:c r="DG35" s="4" t="n">
+        <x:v>28829</x:v>
+      </x:c>
+      <x:c r="DH35" s="4" t="n">
+        <x:v>28988</x:v>
+      </x:c>
+      <x:c r="DI35" s="4" t="n">
+        <x:v>28801</x:v>
+      </x:c>
+      <x:c r="DJ35" s="4" t="n">
+        <x:v>30753</x:v>
+      </x:c>
+      <x:c r="DK35" s="4" t="n">
+        <x:v>30715</x:v>
+      </x:c>
+      <x:c r="DL35" s="4" t="n">
+        <x:v>30458</x:v>
+      </x:c>
+      <x:c r="DM35" s="4" t="n">
+        <x:v>30272</x:v>
+      </x:c>
+      <x:c r="DN35" s="4" t="n">
+        <x:v>33291</x:v>
+      </x:c>
+      <x:c r="DO35" s="4" t="n">
+        <x:v>32648</x:v>
+      </x:c>
+      <x:c r="DP35" s="4" t="n">
+        <x:v>37023</x:v>
+      </x:c>
+      <x:c r="DQ35" s="4" t="n">
+        <x:v>40133</x:v>
+      </x:c>
+      <x:c r="DR35" s="4" t="n">
+        <x:v>41577</x:v>
+      </x:c>
+      <x:c r="DS35" s="4" t="n">
+        <x:v>41170</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:110">
+    <x:row r="36" spans="1:123">
       <x:c r="C36" s="3" t="s">
-        <x:v>144</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D36" s="4" t="n">
         <x:v>7295</x:v>
@@ -12220,66 +13536,105 @@
         <x:v>30353</x:v>
       </x:c>
       <x:c r="DD36" s="4" t="n">
-        <x:v>29260</x:v>
+        <x:v>29265</x:v>
       </x:c>
       <x:c r="DE36" s="4" t="n">
-        <x:v>31871</x:v>
+        <x:v>31887</x:v>
       </x:c>
       <x:c r="DF36" s="4" t="n">
-        <x:v>31415</x:v>
+        <x:v>31413</x:v>
+      </x:c>
+      <x:c r="DG36" s="4" t="n">
+        <x:v>30815</x:v>
+      </x:c>
+      <x:c r="DH36" s="4" t="n">
+        <x:v>32019</x:v>
+      </x:c>
+      <x:c r="DI36" s="4" t="n">
+        <x:v>32644</x:v>
+      </x:c>
+      <x:c r="DJ36" s="4" t="n">
+        <x:v>33355</x:v>
+      </x:c>
+      <x:c r="DK36" s="4" t="n">
+        <x:v>32508</x:v>
+      </x:c>
+      <x:c r="DL36" s="4" t="n">
+        <x:v>33033</x:v>
+      </x:c>
+      <x:c r="DM36" s="4" t="n">
+        <x:v>34494</x:v>
+      </x:c>
+      <x:c r="DN36" s="4" t="n">
+        <x:v>35880</x:v>
+      </x:c>
+      <x:c r="DO36" s="4" t="n">
+        <x:v>36363</x:v>
+      </x:c>
+      <x:c r="DP36" s="4" t="n">
+        <x:v>38119</x:v>
+      </x:c>
+      <x:c r="DQ36" s="4" t="n">
+        <x:v>41130</x:v>
+      </x:c>
+      <x:c r="DR36" s="4" t="n">
+        <x:v>44332</x:v>
+      </x:c>
+      <x:c r="DS36" s="4" t="n">
+        <x:v>43303</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:110">
+    <x:row r="37" spans="1:123">
       <x:c r="C37" s="3" t="s">
-        <x:v>145</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D37" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E37" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F37" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G37" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H37" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I37" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="J37" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="K37" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L37" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="M37" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="N37" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="O37" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="P37" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="Q37" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="R37" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="S37" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="T37" s="4" t="n">
         <x:v>3396</x:v>
@@ -12546,66 +13901,105 @@
         <x:v>6701</x:v>
       </x:c>
       <x:c r="DD37" s="4" t="n">
-        <x:v>7009</x:v>
+        <x:v>7001</x:v>
       </x:c>
       <x:c r="DE37" s="4" t="n">
-        <x:v>7170</x:v>
+        <x:v>7212</x:v>
       </x:c>
       <x:c r="DF37" s="4" t="n">
-        <x:v>7572</x:v>
+        <x:v>7304</x:v>
+      </x:c>
+      <x:c r="DG37" s="4" t="n">
+        <x:v>6831</x:v>
+      </x:c>
+      <x:c r="DH37" s="4" t="n">
+        <x:v>6870</x:v>
+      </x:c>
+      <x:c r="DI37" s="4" t="n">
+        <x:v>7580</x:v>
+      </x:c>
+      <x:c r="DJ37" s="4" t="n">
+        <x:v>7517</x:v>
+      </x:c>
+      <x:c r="DK37" s="4" t="n">
+        <x:v>6913</x:v>
+      </x:c>
+      <x:c r="DL37" s="4" t="n">
+        <x:v>7298</x:v>
+      </x:c>
+      <x:c r="DM37" s="4" t="n">
+        <x:v>7444</x:v>
+      </x:c>
+      <x:c r="DN37" s="4" t="n">
+        <x:v>7924</x:v>
+      </x:c>
+      <x:c r="DO37" s="4" t="n">
+        <x:v>8396</x:v>
+      </x:c>
+      <x:c r="DP37" s="4" t="n">
+        <x:v>9165</x:v>
+      </x:c>
+      <x:c r="DQ37" s="4" t="n">
+        <x:v>10118</x:v>
+      </x:c>
+      <x:c r="DR37" s="4" t="n">
+        <x:v>9871</x:v>
+      </x:c>
+      <x:c r="DS37" s="4" t="n">
+        <x:v>9458</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:110">
+    <x:row r="38" spans="1:123">
       <x:c r="C38" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D38" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E38" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F38" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G38" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H38" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I38" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="J38" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="K38" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L38" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="M38" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="N38" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="O38" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="P38" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="Q38" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="R38" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="S38" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="T38" s="4" t="n">
         <x:v>3396</x:v>
@@ -12872,18 +14266,57 @@
         <x:v>6701</x:v>
       </x:c>
       <x:c r="DD38" s="4" t="n">
-        <x:v>7009</x:v>
+        <x:v>7001</x:v>
       </x:c>
       <x:c r="DE38" s="4" t="n">
-        <x:v>7170</x:v>
+        <x:v>7212</x:v>
       </x:c>
       <x:c r="DF38" s="4" t="n">
-        <x:v>7572</x:v>
+        <x:v>7304</x:v>
+      </x:c>
+      <x:c r="DG38" s="4" t="n">
+        <x:v>6831</x:v>
+      </x:c>
+      <x:c r="DH38" s="4" t="n">
+        <x:v>6870</x:v>
+      </x:c>
+      <x:c r="DI38" s="4" t="n">
+        <x:v>7580</x:v>
+      </x:c>
+      <x:c r="DJ38" s="4" t="n">
+        <x:v>7517</x:v>
+      </x:c>
+      <x:c r="DK38" s="4" t="n">
+        <x:v>6913</x:v>
+      </x:c>
+      <x:c r="DL38" s="4" t="n">
+        <x:v>7298</x:v>
+      </x:c>
+      <x:c r="DM38" s="4" t="n">
+        <x:v>7444</x:v>
+      </x:c>
+      <x:c r="DN38" s="4" t="n">
+        <x:v>7924</x:v>
+      </x:c>
+      <x:c r="DO38" s="4" t="n">
+        <x:v>8396</x:v>
+      </x:c>
+      <x:c r="DP38" s="4" t="n">
+        <x:v>9165</x:v>
+      </x:c>
+      <x:c r="DQ38" s="4" t="n">
+        <x:v>10118</x:v>
+      </x:c>
+      <x:c r="DR38" s="4" t="n">
+        <x:v>9871</x:v>
+      </x:c>
+      <x:c r="DS38" s="4" t="n">
+        <x:v>9458</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:110">
+    <x:row r="39" spans="1:123">
       <x:c r="C39" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D39" s="4" t="n">
         <x:v>3893</x:v>
@@ -13198,18 +14631,57 @@
         <x:v>11398</x:v>
       </x:c>
       <x:c r="DD39" s="4" t="n">
-        <x:v>11877</x:v>
+        <x:v>11872</x:v>
       </x:c>
       <x:c r="DE39" s="4" t="n">
-        <x:v>11763</x:v>
+        <x:v>11776</x:v>
       </x:c>
       <x:c r="DF39" s="4" t="n">
-        <x:v>11900</x:v>
+        <x:v>12065</x:v>
+      </x:c>
+      <x:c r="DG39" s="4" t="n">
+        <x:v>11844</x:v>
+      </x:c>
+      <x:c r="DH39" s="4" t="n">
+        <x:v>11894</x:v>
+      </x:c>
+      <x:c r="DI39" s="4" t="n">
+        <x:v>12287</x:v>
+      </x:c>
+      <x:c r="DJ39" s="4" t="n">
+        <x:v>12447</x:v>
+      </x:c>
+      <x:c r="DK39" s="4" t="n">
+        <x:v>12283</x:v>
+      </x:c>
+      <x:c r="DL39" s="4" t="n">
+        <x:v>12462</x:v>
+      </x:c>
+      <x:c r="DM39" s="4" t="n">
+        <x:v>12483</x:v>
+      </x:c>
+      <x:c r="DN39" s="4" t="n">
+        <x:v>12755</x:v>
+      </x:c>
+      <x:c r="DO39" s="4" t="n">
+        <x:v>13099</x:v>
+      </x:c>
+      <x:c r="DP39" s="4" t="n">
+        <x:v>13640</x:v>
+      </x:c>
+      <x:c r="DQ39" s="4" t="n">
+        <x:v>14281</x:v>
+      </x:c>
+      <x:c r="DR39" s="4" t="n">
+        <x:v>14404</x:v>
+      </x:c>
+      <x:c r="DS39" s="4" t="n">
+        <x:v>14540</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:110">
+    <x:row r="40" spans="1:123">
       <x:c r="C40" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D40" s="4" t="n">
         <x:v>5045</x:v>
@@ -13524,18 +14996,57 @@
         <x:v>19094</x:v>
       </x:c>
       <x:c r="DD40" s="4" t="n">
-        <x:v>19991</x:v>
+        <x:v>19992</x:v>
       </x:c>
       <x:c r="DE40" s="4" t="n">
-        <x:v>19610</x:v>
+        <x:v>19627</x:v>
       </x:c>
       <x:c r="DF40" s="4" t="n">
-        <x:v>19743</x:v>
+        <x:v>19879</x:v>
+      </x:c>
+      <x:c r="DG40" s="4" t="n">
+        <x:v>19712</x:v>
+      </x:c>
+      <x:c r="DH40" s="4" t="n">
+        <x:v>19842</x:v>
+      </x:c>
+      <x:c r="DI40" s="4" t="n">
+        <x:v>20720</x:v>
+      </x:c>
+      <x:c r="DJ40" s="4" t="n">
+        <x:v>20876</x:v>
+      </x:c>
+      <x:c r="DK40" s="4" t="n">
+        <x:v>20559</x:v>
+      </x:c>
+      <x:c r="DL40" s="4" t="n">
+        <x:v>20848</x:v>
+      </x:c>
+      <x:c r="DM40" s="4" t="n">
+        <x:v>20770</x:v>
+      </x:c>
+      <x:c r="DN40" s="4" t="n">
+        <x:v>21475</x:v>
+      </x:c>
+      <x:c r="DO40" s="4" t="n">
+        <x:v>22095</x:v>
+      </x:c>
+      <x:c r="DP40" s="4" t="n">
+        <x:v>23232</x:v>
+      </x:c>
+      <x:c r="DQ40" s="4" t="n">
+        <x:v>24277</x:v>
+      </x:c>
+      <x:c r="DR40" s="4" t="n">
+        <x:v>24301</x:v>
+      </x:c>
+      <x:c r="DS40" s="4" t="n">
+        <x:v>25207</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:110">
+    <x:row r="41" spans="1:123">
       <x:c r="C41" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D41" s="4" t="n">
         <x:v>5402</x:v>
@@ -13850,18 +15361,57 @@
         <x:v>20272</x:v>
       </x:c>
       <x:c r="DD41" s="4" t="n">
-        <x:v>20819</x:v>
+        <x:v>20841</x:v>
       </x:c>
       <x:c r="DE41" s="4" t="n">
-        <x:v>21225</x:v>
+        <x:v>21292</x:v>
       </x:c>
       <x:c r="DF41" s="4" t="n">
-        <x:v>22157</x:v>
+        <x:v>22039</x:v>
+      </x:c>
+      <x:c r="DG41" s="4" t="n">
+        <x:v>21401</x:v>
+      </x:c>
+      <x:c r="DH41" s="4" t="n">
+        <x:v>21176</x:v>
+      </x:c>
+      <x:c r="DI41" s="4" t="n">
+        <x:v>22632</x:v>
+      </x:c>
+      <x:c r="DJ41" s="4" t="n">
+        <x:v>22868</x:v>
+      </x:c>
+      <x:c r="DK41" s="4" t="n">
+        <x:v>21827</x:v>
+      </x:c>
+      <x:c r="DL41" s="4" t="n">
+        <x:v>23516</x:v>
+      </x:c>
+      <x:c r="DM41" s="4" t="n">
+        <x:v>22644</x:v>
+      </x:c>
+      <x:c r="DN41" s="4" t="n">
+        <x:v>23059</x:v>
+      </x:c>
+      <x:c r="DO41" s="4" t="n">
+        <x:v>23689</x:v>
+      </x:c>
+      <x:c r="DP41" s="4" t="n">
+        <x:v>25095</x:v>
+      </x:c>
+      <x:c r="DQ41" s="4" t="n">
+        <x:v>26300</x:v>
+      </x:c>
+      <x:c r="DR41" s="4" t="n">
+        <x:v>26827</x:v>
+      </x:c>
+      <x:c r="DS41" s="4" t="n">
+        <x:v>26952</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:110">
+    <x:row r="42" spans="1:123">
       <x:c r="C42" s="3" t="s">
-        <x:v>150</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D42" s="4" t="n">
         <x:v>4822</x:v>
@@ -14176,18 +15726,57 @@
         <x:v>16656</x:v>
       </x:c>
       <x:c r="DD42" s="4" t="n">
-        <x:v>18738</x:v>
+        <x:v>18719</x:v>
       </x:c>
       <x:c r="DE42" s="4" t="n">
-        <x:v>18555</x:v>
+        <x:v>18544</x:v>
       </x:c>
       <x:c r="DF42" s="4" t="n">
-        <x:v>17555</x:v>
+        <x:v>17573</x:v>
+      </x:c>
+      <x:c r="DG42" s="4" t="n">
+        <x:v>17646</x:v>
+      </x:c>
+      <x:c r="DH42" s="4" t="n">
+        <x:v>18673</x:v>
+      </x:c>
+      <x:c r="DI42" s="4" t="n">
+        <x:v>18206</x:v>
+      </x:c>
+      <x:c r="DJ42" s="4" t="n">
+        <x:v>18480</x:v>
+      </x:c>
+      <x:c r="DK42" s="4" t="n">
+        <x:v>18858</x:v>
+      </x:c>
+      <x:c r="DL42" s="4" t="n">
+        <x:v>18701</x:v>
+      </x:c>
+      <x:c r="DM42" s="4" t="n">
+        <x:v>18481</x:v>
+      </x:c>
+      <x:c r="DN42" s="4" t="n">
+        <x:v>19318</x:v>
+      </x:c>
+      <x:c r="DO42" s="4" t="n">
+        <x:v>20045</x:v>
+      </x:c>
+      <x:c r="DP42" s="4" t="n">
+        <x:v>20173</x:v>
+      </x:c>
+      <x:c r="DQ42" s="4" t="n">
+        <x:v>22311</x:v>
+      </x:c>
+      <x:c r="DR42" s="4" t="n">
+        <x:v>21222</x:v>
+      </x:c>
+      <x:c r="DS42" s="4" t="n">
+        <x:v>22210</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:110">
+    <x:row r="43" spans="1:123">
       <x:c r="C43" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D43" s="4" t="n">
         <x:v>4608</x:v>
@@ -14502,18 +16091,57 @@
         <x:v>13414</x:v>
       </x:c>
       <x:c r="DD43" s="4" t="n">
-        <x:v>14594</x:v>
+        <x:v>14597</x:v>
       </x:c>
       <x:c r="DE43" s="4" t="n">
-        <x:v>14675</x:v>
+        <x:v>14601</x:v>
       </x:c>
       <x:c r="DF43" s="4" t="n">
-        <x:v>15574</x:v>
+        <x:v>15303</x:v>
+      </x:c>
+      <x:c r="DG43" s="4" t="n">
+        <x:v>14402</x:v>
+      </x:c>
+      <x:c r="DH43" s="4" t="n">
+        <x:v>14248</x:v>
+      </x:c>
+      <x:c r="DI43" s="4" t="n">
+        <x:v>16060</x:v>
+      </x:c>
+      <x:c r="DJ43" s="4" t="n">
+        <x:v>15789</x:v>
+      </x:c>
+      <x:c r="DK43" s="4" t="n">
+        <x:v>16060</x:v>
+      </x:c>
+      <x:c r="DL43" s="4" t="n">
+        <x:v>15972</x:v>
+      </x:c>
+      <x:c r="DM43" s="4" t="n">
+        <x:v>15148</x:v>
+      </x:c>
+      <x:c r="DN43" s="4" t="n">
+        <x:v>15374</x:v>
+      </x:c>
+      <x:c r="DO43" s="4" t="n">
+        <x:v>15338</x:v>
+      </x:c>
+      <x:c r="DP43" s="4" t="n">
+        <x:v>17003</x:v>
+      </x:c>
+      <x:c r="DQ43" s="4" t="n">
+        <x:v>17173</x:v>
+      </x:c>
+      <x:c r="DR43" s="4" t="n">
+        <x:v>17326</x:v>
+      </x:c>
+      <x:c r="DS43" s="4" t="n">
+        <x:v>18720</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:110">
+    <x:row r="44" spans="1:123">
       <x:c r="C44" s="3" t="s">
-        <x:v>152</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D44" s="4" t="n">
         <x:v>5129</x:v>
@@ -14828,18 +16456,57 @@
         <x:v>21615</x:v>
       </x:c>
       <x:c r="DD44" s="4" t="n">
-        <x:v>22242</x:v>
+        <x:v>22203</x:v>
       </x:c>
       <x:c r="DE44" s="4" t="n">
-        <x:v>20794</x:v>
+        <x:v>20872</x:v>
       </x:c>
       <x:c r="DF44" s="4" t="n">
-        <x:v>20686</x:v>
+        <x:v>21340</x:v>
+      </x:c>
+      <x:c r="DG44" s="4" t="n">
+        <x:v>21529</x:v>
+      </x:c>
+      <x:c r="DH44" s="4" t="n">
+        <x:v>20916</x:v>
+      </x:c>
+      <x:c r="DI44" s="4" t="n">
+        <x:v>22136</x:v>
+      </x:c>
+      <x:c r="DJ44" s="4" t="n">
+        <x:v>22824</x:v>
+      </x:c>
+      <x:c r="DK44" s="4" t="n">
+        <x:v>21780</x:v>
+      </x:c>
+      <x:c r="DL44" s="4" t="n">
+        <x:v>21817</x:v>
+      </x:c>
+      <x:c r="DM44" s="4" t="n">
+        <x:v>22708</x:v>
+      </x:c>
+      <x:c r="DN44" s="4" t="n">
+        <x:v>23211</x:v>
+      </x:c>
+      <x:c r="DO44" s="4" t="n">
+        <x:v>24382</x:v>
+      </x:c>
+      <x:c r="DP44" s="4" t="n">
+        <x:v>25207</x:v>
+      </x:c>
+      <x:c r="DQ44" s="4" t="n">
+        <x:v>25913</x:v>
+      </x:c>
+      <x:c r="DR44" s="4" t="n">
+        <x:v>26467</x:v>
+      </x:c>
+      <x:c r="DS44" s="4" t="n">
+        <x:v>27602</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:110">
+    <x:row r="45" spans="1:123">
       <x:c r="C45" s="3" t="s">
-        <x:v>153</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D45" s="4" t="n">
         <x:v>5441</x:v>
@@ -15154,18 +16821,57 @@
         <x:v>21599</x:v>
       </x:c>
       <x:c r="DD45" s="4" t="n">
-        <x:v>21145</x:v>
+        <x:v>21171</x:v>
       </x:c>
       <x:c r="DE45" s="4" t="n">
-        <x:v>21232</x:v>
+        <x:v>21126</x:v>
       </x:c>
       <x:c r="DF45" s="4" t="n">
-        <x:v>22009</x:v>
+        <x:v>21746</x:v>
+      </x:c>
+      <x:c r="DG45" s="4" t="n">
+        <x:v>21913</x:v>
+      </x:c>
+      <x:c r="DH45" s="4" t="n">
+        <x:v>23427</x:v>
+      </x:c>
+      <x:c r="DI45" s="4" t="n">
+        <x:v>23782</x:v>
+      </x:c>
+      <x:c r="DJ45" s="4" t="n">
+        <x:v>22486</x:v>
+      </x:c>
+      <x:c r="DK45" s="4" t="n">
+        <x:v>23590</x:v>
+      </x:c>
+      <x:c r="DL45" s="4" t="n">
+        <x:v>23180</x:v>
+      </x:c>
+      <x:c r="DM45" s="4" t="n">
+        <x:v>23087</x:v>
+      </x:c>
+      <x:c r="DN45" s="4" t="n">
+        <x:v>25307</x:v>
+      </x:c>
+      <x:c r="DO45" s="4" t="n">
+        <x:v>24873</x:v>
+      </x:c>
+      <x:c r="DP45" s="4" t="n">
+        <x:v>27853</x:v>
+      </x:c>
+      <x:c r="DQ45" s="4" t="n">
+        <x:v>28410</x:v>
+      </x:c>
+      <x:c r="DR45" s="4" t="n">
+        <x:v>27964</x:v>
+      </x:c>
+      <x:c r="DS45" s="4" t="n">
+        <x:v>29051</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:110">
+    <x:row r="46" spans="1:123">
       <x:c r="C46" s="3" t="s">
-        <x:v>154</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D46" s="4" t="n">
         <x:v>3481</x:v>
@@ -15480,18 +17186,57 @@
         <x:v>8689</x:v>
       </x:c>
       <x:c r="DD46" s="4" t="n">
-        <x:v>9010</x:v>
+        <x:v>8999</x:v>
       </x:c>
       <x:c r="DE46" s="4" t="n">
-        <x:v>8984</x:v>
+        <x:v>8995</x:v>
       </x:c>
       <x:c r="DF46" s="4" t="n">
-        <x:v>9123</x:v>
+        <x:v>9298</x:v>
+      </x:c>
+      <x:c r="DG46" s="4" t="n">
+        <x:v>9057</x:v>
+      </x:c>
+      <x:c r="DH46" s="4" t="n">
+        <x:v>9066</x:v>
+      </x:c>
+      <x:c r="DI46" s="4" t="n">
+        <x:v>9285</x:v>
+      </x:c>
+      <x:c r="DJ46" s="4" t="n">
+        <x:v>9446</x:v>
+      </x:c>
+      <x:c r="DK46" s="4" t="n">
+        <x:v>9337</x:v>
+      </x:c>
+      <x:c r="DL46" s="4" t="n">
+        <x:v>9475</x:v>
+      </x:c>
+      <x:c r="DM46" s="4" t="n">
+        <x:v>9528</x:v>
+      </x:c>
+      <x:c r="DN46" s="4" t="n">
+        <x:v>9645</x:v>
+      </x:c>
+      <x:c r="DO46" s="4" t="n">
+        <x:v>9887</x:v>
+      </x:c>
+      <x:c r="DP46" s="4" t="n">
+        <x:v>10215</x:v>
+      </x:c>
+      <x:c r="DQ46" s="4" t="n">
+        <x:v>10716</x:v>
+      </x:c>
+      <x:c r="DR46" s="4" t="n">
+        <x:v>10869</x:v>
+      </x:c>
+      <x:c r="DS46" s="4" t="n">
+        <x:v>10746</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:110">
+    <x:row r="47" spans="1:123">
       <x:c r="C47" s="3" t="s">
-        <x:v>155</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D47" s="4" t="n">
         <x:v>3900</x:v>
@@ -15806,18 +17551,57 @@
         <x:v>9560</x:v>
       </x:c>
       <x:c r="DD47" s="4" t="n">
-        <x:v>10612</x:v>
+        <x:v>10614</x:v>
       </x:c>
       <x:c r="DE47" s="4" t="n">
-        <x:v>10975</x:v>
+        <x:v>11075</x:v>
       </x:c>
       <x:c r="DF47" s="4" t="n">
-        <x:v>10946</x:v>
+        <x:v>10880</x:v>
+      </x:c>
+      <x:c r="DG47" s="4" t="n">
+        <x:v>10337</x:v>
+      </x:c>
+      <x:c r="DH47" s="4" t="n">
+        <x:v>10960</x:v>
+      </x:c>
+      <x:c r="DI47" s="4" t="n">
+        <x:v>10742</x:v>
+      </x:c>
+      <x:c r="DJ47" s="4" t="n">
+        <x:v>10957</x:v>
+      </x:c>
+      <x:c r="DK47" s="4" t="n">
+        <x:v>10439</x:v>
+      </x:c>
+      <x:c r="DL47" s="4" t="n">
+        <x:v>10661</x:v>
+      </x:c>
+      <x:c r="DM47" s="4" t="n">
+        <x:v>11545</x:v>
+      </x:c>
+      <x:c r="DN47" s="4" t="n">
+        <x:v>12107</x:v>
+      </x:c>
+      <x:c r="DO47" s="4" t="n">
+        <x:v>11250</x:v>
+      </x:c>
+      <x:c r="DP47" s="4" t="n">
+        <x:v>11957</x:v>
+      </x:c>
+      <x:c r="DQ47" s="4" t="n">
+        <x:v>13452</x:v>
+      </x:c>
+      <x:c r="DR47" s="4" t="n">
+        <x:v>13141</x:v>
+      </x:c>
+      <x:c r="DS47" s="4" t="n">
+        <x:v>13224</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:110">
+    <x:row r="48" spans="1:123">
       <x:c r="C48" s="3" t="s">
-        <x:v>156</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D48" s="4" t="n">
         <x:v>2865</x:v>
@@ -16132,18 +17916,57 @@
         <x:v>6820</x:v>
       </x:c>
       <x:c r="DD48" s="4" t="n">
-        <x:v>6281</x:v>
+        <x:v>6273</x:v>
       </x:c>
       <x:c r="DE48" s="4" t="n">
-        <x:v>6111</x:v>
+        <x:v>6124</x:v>
       </x:c>
       <x:c r="DF48" s="4" t="n">
-        <x:v>6384</x:v>
+        <x:v>6337</x:v>
+      </x:c>
+      <x:c r="DG48" s="4" t="n">
+        <x:v>6453</x:v>
+      </x:c>
+      <x:c r="DH48" s="4" t="n">
+        <x:v>6195</x:v>
+      </x:c>
+      <x:c r="DI48" s="4" t="n">
+        <x:v>6553</x:v>
+      </x:c>
+      <x:c r="DJ48" s="4" t="n">
+        <x:v>6495</x:v>
+      </x:c>
+      <x:c r="DK48" s="4" t="n">
+        <x:v>6077</x:v>
+      </x:c>
+      <x:c r="DL48" s="4" t="n">
+        <x:v>7122</x:v>
+      </x:c>
+      <x:c r="DM48" s="4" t="n">
+        <x:v>6376</x:v>
+      </x:c>
+      <x:c r="DN48" s="4" t="n">
+        <x:v>6268</x:v>
+      </x:c>
+      <x:c r="DO48" s="4" t="n">
+        <x:v>6979</x:v>
+      </x:c>
+      <x:c r="DP48" s="4" t="n">
+        <x:v>6804</x:v>
+      </x:c>
+      <x:c r="DQ48" s="4" t="n">
+        <x:v>7117</x:v>
+      </x:c>
+      <x:c r="DR48" s="4" t="n">
+        <x:v>7131</x:v>
+      </x:c>
+      <x:c r="DS48" s="4" t="n">
+        <x:v>6831</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:110">
+    <x:row r="49" spans="1:123">
       <x:c r="C49" s="3" t="s">
-        <x:v>157</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D49" s="4" t="n">
         <x:v>3956</x:v>
@@ -16458,18 +18281,57 @@
         <x:v>11544</x:v>
       </x:c>
       <x:c r="DD49" s="4" t="n">
-        <x:v>11163</x:v>
+        <x:v>11158</x:v>
       </x:c>
       <x:c r="DE49" s="4" t="n">
-        <x:v>12237</x:v>
+        <x:v>12241</x:v>
       </x:c>
       <x:c r="DF49" s="4" t="n">
-        <x:v>12248</x:v>
+        <x:v>12549</x:v>
+      </x:c>
+      <x:c r="DG49" s="4" t="n">
+        <x:v>11709</x:v>
+      </x:c>
+      <x:c r="DH49" s="4" t="n">
+        <x:v>11228</x:v>
+      </x:c>
+      <x:c r="DI49" s="4" t="n">
+        <x:v>11948</x:v>
+      </x:c>
+      <x:c r="DJ49" s="4" t="n">
+        <x:v>13242</x:v>
+      </x:c>
+      <x:c r="DK49" s="4" t="n">
+        <x:v>12384</x:v>
+      </x:c>
+      <x:c r="DL49" s="4" t="n">
+        <x:v>12545</x:v>
+      </x:c>
+      <x:c r="DM49" s="4" t="n">
+        <x:v>12974</x:v>
+      </x:c>
+      <x:c r="DN49" s="4" t="n">
+        <x:v>13044</x:v>
+      </x:c>
+      <x:c r="DO49" s="4" t="n">
+        <x:v>13402</x:v>
+      </x:c>
+      <x:c r="DP49" s="4" t="n">
+        <x:v>14135</x:v>
+      </x:c>
+      <x:c r="DQ49" s="4" t="n">
+        <x:v>14488</x:v>
+      </x:c>
+      <x:c r="DR49" s="4" t="n">
+        <x:v>15054</x:v>
+      </x:c>
+      <x:c r="DS49" s="4" t="n">
+        <x:v>14078</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:110">
+    <x:row r="50" spans="1:123">
       <x:c r="C50" s="3" t="s">
-        <x:v>158</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D50" s="4" t="n">
         <x:v>3363</x:v>
@@ -16784,18 +18646,57 @@
         <x:v>7577</x:v>
       </x:c>
       <x:c r="DD50" s="4" t="n">
-        <x:v>7963</x:v>
+        <x:v>7945</x:v>
       </x:c>
       <x:c r="DE50" s="4" t="n">
-        <x:v>8289</x:v>
+        <x:v>8175</x:v>
       </x:c>
       <x:c r="DF50" s="4" t="n">
-        <x:v>8501</x:v>
+        <x:v>8541</x:v>
+      </x:c>
+      <x:c r="DG50" s="4" t="n">
+        <x:v>7461</x:v>
+      </x:c>
+      <x:c r="DH50" s="4" t="n">
+        <x:v>7917</x:v>
+      </x:c>
+      <x:c r="DI50" s="4" t="n">
+        <x:v>8240</x:v>
+      </x:c>
+      <x:c r="DJ50" s="4" t="n">
+        <x:v>8625</x:v>
+      </x:c>
+      <x:c r="DK50" s="4" t="n">
+        <x:v>8444</x:v>
+      </x:c>
+      <x:c r="DL50" s="4" t="n">
+        <x:v>7959</x:v>
+      </x:c>
+      <x:c r="DM50" s="4" t="n">
+        <x:v>8764</x:v>
+      </x:c>
+      <x:c r="DN50" s="4" t="n">
+        <x:v>8535</x:v>
+      </x:c>
+      <x:c r="DO50" s="4" t="n">
+        <x:v>8934</x:v>
+      </x:c>
+      <x:c r="DP50" s="4" t="n">
+        <x:v>9303</x:v>
+      </x:c>
+      <x:c r="DQ50" s="4" t="n">
+        <x:v>8884</x:v>
+      </x:c>
+      <x:c r="DR50" s="4" t="n">
+        <x:v>9080</x:v>
+      </x:c>
+      <x:c r="DS50" s="4" t="n">
+        <x:v>9638</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:110">
+    <x:row r="51" spans="1:123">
       <x:c r="C51" s="3" t="s">
-        <x:v>159</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D51" s="4" t="n">
         <x:v>2588</x:v>
@@ -17110,18 +19011,57 @@
         <x:v>4041</x:v>
       </x:c>
       <x:c r="DD51" s="4" t="n">
-        <x:v>4328</x:v>
+        <x:v>4270</x:v>
       </x:c>
       <x:c r="DE51" s="4" t="n">
-        <x:v>4017</x:v>
+        <x:v>4088</x:v>
       </x:c>
       <x:c r="DF51" s="4" t="n">
-        <x:v>4841</x:v>
+        <x:v>4898</x:v>
+      </x:c>
+      <x:c r="DG51" s="4" t="n">
+        <x:v>4311</x:v>
+      </x:c>
+      <x:c r="DH51" s="4" t="n">
+        <x:v>3845</x:v>
+      </x:c>
+      <x:c r="DI51" s="4" t="n">
+        <x:v>3577</x:v>
+      </x:c>
+      <x:c r="DJ51" s="4" t="n">
+        <x:v>3782</x:v>
+      </x:c>
+      <x:c r="DK51" s="4" t="n">
+        <x:v>3300</x:v>
+      </x:c>
+      <x:c r="DL51" s="4" t="n">
+        <x:v>4117</x:v>
+      </x:c>
+      <x:c r="DM51" s="4" t="n">
+        <x:v>3860</x:v>
+      </x:c>
+      <x:c r="DN51" s="4" t="n">
+        <x:v>4444</x:v>
+      </x:c>
+      <x:c r="DO51" s="4" t="n">
+        <x:v>4088</x:v>
+      </x:c>
+      <x:c r="DP51" s="4" t="n">
+        <x:v>4553</x:v>
+      </x:c>
+      <x:c r="DQ51" s="4" t="n">
+        <x:v>5195</x:v>
+      </x:c>
+      <x:c r="DR51" s="4" t="n">
+        <x:v>4735</x:v>
+      </x:c>
+      <x:c r="DS51" s="4" t="n">
+        <x:v>4398</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:110">
+    <x:row r="52" spans="1:123">
       <x:c r="C52" s="3" t="s">
-        <x:v>160</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D52" s="4" t="n">
         <x:v>3810</x:v>
@@ -17436,18 +19376,57 @@
         <x:v>10242</x:v>
       </x:c>
       <x:c r="DD52" s="4" t="n">
-        <x:v>10262</x:v>
+        <x:v>10265</x:v>
       </x:c>
       <x:c r="DE52" s="4" t="n">
-        <x:v>10580</x:v>
+        <x:v>10633</x:v>
       </x:c>
       <x:c r="DF52" s="4" t="n">
-        <x:v>10252</x:v>
+        <x:v>10685</x:v>
+      </x:c>
+      <x:c r="DG52" s="4" t="n">
+        <x:v>10664</x:v>
+      </x:c>
+      <x:c r="DH52" s="4" t="n">
+        <x:v>11109</x:v>
+      </x:c>
+      <x:c r="DI52" s="4" t="n">
+        <x:v>11025</x:v>
+      </x:c>
+      <x:c r="DJ52" s="4" t="n">
+        <x:v>11424</x:v>
+      </x:c>
+      <x:c r="DK52" s="4" t="n">
+        <x:v>11171</x:v>
+      </x:c>
+      <x:c r="DL52" s="4" t="n">
+        <x:v>11801</x:v>
+      </x:c>
+      <x:c r="DM52" s="4" t="n">
+        <x:v>11399</x:v>
+      </x:c>
+      <x:c r="DN52" s="4" t="n">
+        <x:v>11242</x:v>
+      </x:c>
+      <x:c r="DO52" s="4" t="n">
+        <x:v>11679</x:v>
+      </x:c>
+      <x:c r="DP52" s="4" t="n">
+        <x:v>11652</x:v>
+      </x:c>
+      <x:c r="DQ52" s="4" t="n">
+        <x:v>12526</x:v>
+      </x:c>
+      <x:c r="DR52" s="4" t="n">
+        <x:v>12316</x:v>
+      </x:c>
+      <x:c r="DS52" s="4" t="n">
+        <x:v>12945</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:110">
+    <x:row r="53" spans="1:123">
       <x:c r="C53" s="3" t="s">
-        <x:v>161</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D53" s="4" t="n">
         <x:v>3275</x:v>
@@ -17762,18 +19741,57 @@
         <x:v>7391</x:v>
       </x:c>
       <x:c r="DD53" s="4" t="n">
-        <x:v>7657</x:v>
+        <x:v>7656</x:v>
       </x:c>
       <x:c r="DE53" s="4" t="n">
-        <x:v>7687</x:v>
+        <x:v>7662</x:v>
       </x:c>
       <x:c r="DF53" s="4" t="n">
-        <x:v>7664</x:v>
+        <x:v>7893</x:v>
+      </x:c>
+      <x:c r="DG53" s="4" t="n">
+        <x:v>7991</x:v>
+      </x:c>
+      <x:c r="DH53" s="4" t="n">
+        <x:v>8248</x:v>
+      </x:c>
+      <x:c r="DI53" s="4" t="n">
+        <x:v>8078</x:v>
+      </x:c>
+      <x:c r="DJ53" s="4" t="n">
+        <x:v>8116</x:v>
+      </x:c>
+      <x:c r="DK53" s="4" t="n">
+        <x:v>8005</x:v>
+      </x:c>
+      <x:c r="DL53" s="4" t="n">
+        <x:v>8737</x:v>
+      </x:c>
+      <x:c r="DM53" s="4" t="n">
+        <x:v>9272</x:v>
+      </x:c>
+      <x:c r="DN53" s="4" t="n">
+        <x:v>8647</x:v>
+      </x:c>
+      <x:c r="DO53" s="4" t="n">
+        <x:v>8531</x:v>
+      </x:c>
+      <x:c r="DP53" s="4" t="n">
+        <x:v>9924</x:v>
+      </x:c>
+      <x:c r="DQ53" s="4" t="n">
+        <x:v>9467</x:v>
+      </x:c>
+      <x:c r="DR53" s="4" t="n">
+        <x:v>10678</x:v>
+      </x:c>
+      <x:c r="DS53" s="4" t="n">
+        <x:v>9954</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:110">
+    <x:row r="54" spans="1:123">
       <x:c r="C54" s="3" t="s">
-        <x:v>162</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D54" s="4" t="n">
         <x:v>4088</x:v>
@@ -18088,18 +20106,57 @@
         <x:v>12726</x:v>
       </x:c>
       <x:c r="DD54" s="4" t="n">
-        <x:v>13744</x:v>
+        <x:v>13576</x:v>
       </x:c>
       <x:c r="DE54" s="4" t="n">
-        <x:v>12841</x:v>
+        <x:v>12932</x:v>
       </x:c>
       <x:c r="DF54" s="4" t="n">
-        <x:v>12930</x:v>
+        <x:v>12952</x:v>
+      </x:c>
+      <x:c r="DG54" s="4" t="n">
+        <x:v>13642</x:v>
+      </x:c>
+      <x:c r="DH54" s="4" t="n">
+        <x:v>13251</x:v>
+      </x:c>
+      <x:c r="DI54" s="4" t="n">
+        <x:v>13580</x:v>
+      </x:c>
+      <x:c r="DJ54" s="4" t="n">
+        <x:v>14086</x:v>
+      </x:c>
+      <x:c r="DK54" s="4" t="n">
+        <x:v>14789</x:v>
+      </x:c>
+      <x:c r="DL54" s="4" t="n">
+        <x:v>13083</x:v>
+      </x:c>
+      <x:c r="DM54" s="4" t="n">
+        <x:v>12720</x:v>
+      </x:c>
+      <x:c r="DN54" s="4" t="n">
+        <x:v>13883</x:v>
+      </x:c>
+      <x:c r="DO54" s="4" t="n">
+        <x:v>14714</x:v>
+      </x:c>
+      <x:c r="DP54" s="4" t="n">
+        <x:v>14210</x:v>
+      </x:c>
+      <x:c r="DQ54" s="4" t="n">
+        <x:v>15262</x:v>
+      </x:c>
+      <x:c r="DR54" s="4" t="n">
+        <x:v>16185</x:v>
+      </x:c>
+      <x:c r="DS54" s="4" t="n">
+        <x:v>15702</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:110">
+    <x:row r="55" spans="1:123">
       <x:c r="C55" s="3" t="s">
-        <x:v>163</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D55" s="4" t="n">
         <x:v>3590</x:v>
@@ -18414,18 +20471,57 @@
         <x:v>10110</x:v>
       </x:c>
       <x:c r="DD55" s="4" t="n">
-        <x:v>10616</x:v>
+        <x:v>10674</x:v>
       </x:c>
       <x:c r="DE55" s="4" t="n">
-        <x:v>10039</x:v>
+        <x:v>9961</x:v>
       </x:c>
       <x:c r="DF55" s="4" t="n">
-        <x:v>10302</x:v>
+        <x:v>10299</x:v>
+      </x:c>
+      <x:c r="DG55" s="4" t="n">
+        <x:v>10088</x:v>
+      </x:c>
+      <x:c r="DH55" s="4" t="n">
+        <x:v>10867</x:v>
+      </x:c>
+      <x:c r="DI55" s="4" t="n">
+        <x:v>10460</x:v>
+      </x:c>
+      <x:c r="DJ55" s="4" t="n">
+        <x:v>10506</x:v>
+      </x:c>
+      <x:c r="DK55" s="4" t="n">
+        <x:v>10399</x:v>
+      </x:c>
+      <x:c r="DL55" s="4" t="n">
+        <x:v>10081</x:v>
+      </x:c>
+      <x:c r="DM55" s="4" t="n">
+        <x:v>10127</x:v>
+      </x:c>
+      <x:c r="DN55" s="4" t="n">
+        <x:v>10636</x:v>
+      </x:c>
+      <x:c r="DO55" s="4" t="n">
+        <x:v>10738</x:v>
+      </x:c>
+      <x:c r="DP55" s="4" t="n">
+        <x:v>11419</x:v>
+      </x:c>
+      <x:c r="DQ55" s="4" t="n">
+        <x:v>11499</x:v>
+      </x:c>
+      <x:c r="DR55" s="4" t="n">
+        <x:v>11682</x:v>
+      </x:c>
+      <x:c r="DS55" s="4" t="n">
+        <x:v>12104</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:110">
+    <x:row r="56" spans="1:123">
       <x:c r="C56" s="3" t="s">
-        <x:v>164</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D56" s="4" t="n">
         <x:v>4007</x:v>
@@ -18740,18 +20836,57 @@
         <x:v>9992</x:v>
       </x:c>
       <x:c r="DD56" s="4" t="n">
-        <x:v>10462</x:v>
+        <x:v>10454</x:v>
       </x:c>
       <x:c r="DE56" s="4" t="n">
-        <x:v>10492</x:v>
+        <x:v>10513</x:v>
       </x:c>
       <x:c r="DF56" s="4" t="n">
-        <x:v>10861</x:v>
+        <x:v>11871</x:v>
+      </x:c>
+      <x:c r="DG56" s="4" t="n">
+        <x:v>10775</x:v>
+      </x:c>
+      <x:c r="DH56" s="4" t="n">
+        <x:v>10708</x:v>
+      </x:c>
+      <x:c r="DI56" s="4" t="n">
+        <x:v>11286</x:v>
+      </x:c>
+      <x:c r="DJ56" s="4" t="n">
+        <x:v>10232</x:v>
+      </x:c>
+      <x:c r="DK56" s="4" t="n">
+        <x:v>12032</x:v>
+      </x:c>
+      <x:c r="DL56" s="4" t="n">
+        <x:v>10716</x:v>
+      </x:c>
+      <x:c r="DM56" s="4" t="n">
+        <x:v>10695</x:v>
+      </x:c>
+      <x:c r="DN56" s="4" t="n">
+        <x:v>10189</x:v>
+      </x:c>
+      <x:c r="DO56" s="4" t="n">
+        <x:v>11269</x:v>
+      </x:c>
+      <x:c r="DP56" s="4" t="n">
+        <x:v>11537</x:v>
+      </x:c>
+      <x:c r="DQ56" s="4" t="n">
+        <x:v>10926</x:v>
+      </x:c>
+      <x:c r="DR56" s="4" t="n">
+        <x:v>12448</x:v>
+      </x:c>
+      <x:c r="DS56" s="4" t="n">
+        <x:v>11272</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:110">
+    <x:row r="57" spans="1:123">
       <x:c r="C57" s="3" t="s">
-        <x:v>165</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D57" s="4" t="n">
         <x:v>3762</x:v>
@@ -19066,18 +21201,57 @@
         <x:v>10223</x:v>
       </x:c>
       <x:c r="DD57" s="4" t="n">
-        <x:v>11910</x:v>
+        <x:v>11913</x:v>
       </x:c>
       <x:c r="DE57" s="4" t="n">
-        <x:v>11542</x:v>
+        <x:v>11734</x:v>
       </x:c>
       <x:c r="DF57" s="4" t="n">
-        <x:v>11235</x:v>
+        <x:v>11519</x:v>
+      </x:c>
+      <x:c r="DG57" s="4" t="n">
+        <x:v>12125</x:v>
+      </x:c>
+      <x:c r="DH57" s="4" t="n">
+        <x:v>11676</x:v>
+      </x:c>
+      <x:c r="DI57" s="4" t="n">
+        <x:v>12709</x:v>
+      </x:c>
+      <x:c r="DJ57" s="4" t="n">
+        <x:v>12144</x:v>
+      </x:c>
+      <x:c r="DK57" s="4" t="n">
+        <x:v>11989</x:v>
+      </x:c>
+      <x:c r="DL57" s="4" t="n">
+        <x:v>12149</x:v>
+      </x:c>
+      <x:c r="DM57" s="4" t="n">
+        <x:v>12182</x:v>
+      </x:c>
+      <x:c r="DN57" s="4" t="n">
+        <x:v>12666</x:v>
+      </x:c>
+      <x:c r="DO57" s="4" t="n">
+        <x:v>11828</x:v>
+      </x:c>
+      <x:c r="DP57" s="4" t="n">
+        <x:v>13076</x:v>
+      </x:c>
+      <x:c r="DQ57" s="4" t="n">
+        <x:v>14750</x:v>
+      </x:c>
+      <x:c r="DR57" s="4" t="n">
+        <x:v>14096</x:v>
+      </x:c>
+      <x:c r="DS57" s="4" t="n">
+        <x:v>13887</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:110">
+    <x:row r="58" spans="1:123">
       <x:c r="C58" s="3" t="s">
-        <x:v>166</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D58" s="4" t="n">
         <x:v>3503</x:v>
@@ -19392,18 +21566,57 @@
         <x:v>6944</x:v>
       </x:c>
       <x:c r="DD58" s="4" t="n">
-        <x:v>7784</x:v>
+        <x:v>7816</x:v>
       </x:c>
       <x:c r="DE58" s="4" t="n">
-        <x:v>7083</x:v>
+        <x:v>7063</x:v>
       </x:c>
       <x:c r="DF58" s="4" t="n">
-        <x:v>7250</x:v>
+        <x:v>7376</x:v>
+      </x:c>
+      <x:c r="DG58" s="4" t="n">
+        <x:v>7794</x:v>
+      </x:c>
+      <x:c r="DH58" s="4" t="n">
+        <x:v>7047</x:v>
+      </x:c>
+      <x:c r="DI58" s="4" t="n">
+        <x:v>8053</x:v>
+      </x:c>
+      <x:c r="DJ58" s="4" t="n">
+        <x:v>7579</x:v>
+      </x:c>
+      <x:c r="DK58" s="4" t="n">
+        <x:v>8278</x:v>
+      </x:c>
+      <x:c r="DL58" s="4" t="n">
+        <x:v>8094</x:v>
+      </x:c>
+      <x:c r="DM58" s="4" t="n">
+        <x:v>8416</x:v>
+      </x:c>
+      <x:c r="DN58" s="4" t="n">
+        <x:v>8411</x:v>
+      </x:c>
+      <x:c r="DO58" s="4" t="n">
+        <x:v>8923</x:v>
+      </x:c>
+      <x:c r="DP58" s="4" t="n">
+        <x:v>8437</x:v>
+      </x:c>
+      <x:c r="DQ58" s="4" t="n">
+        <x:v>9770</x:v>
+      </x:c>
+      <x:c r="DR58" s="4" t="n">
+        <x:v>9618</x:v>
+      </x:c>
+      <x:c r="DS58" s="4" t="n">
+        <x:v>9660</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:110">
+    <x:row r="59" spans="1:123">
       <x:c r="C59" s="3" t="s">
-        <x:v>167</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D59" s="4" t="n">
         <x:v>3569</x:v>
@@ -19718,18 +21931,57 @@
         <x:v>9457</x:v>
       </x:c>
       <x:c r="DD59" s="4" t="n">
-        <x:v>9741</x:v>
+        <x:v>9728</x:v>
       </x:c>
       <x:c r="DE59" s="4" t="n">
-        <x:v>9930</x:v>
+        <x:v>9943</x:v>
       </x:c>
       <x:c r="DF59" s="4" t="n">
-        <x:v>9835</x:v>
+        <x:v>9864</x:v>
+      </x:c>
+      <x:c r="DG59" s="4" t="n">
+        <x:v>9839</x:v>
+      </x:c>
+      <x:c r="DH59" s="4" t="n">
+        <x:v>9820</x:v>
+      </x:c>
+      <x:c r="DI59" s="4" t="n">
+        <x:v>10161</x:v>
+      </x:c>
+      <x:c r="DJ59" s="4" t="n">
+        <x:v>10292</x:v>
+      </x:c>
+      <x:c r="DK59" s="4" t="n">
+        <x:v>10299</x:v>
+      </x:c>
+      <x:c r="DL59" s="4" t="n">
+        <x:v>10108</x:v>
+      </x:c>
+      <x:c r="DM59" s="4" t="n">
+        <x:v>10151</x:v>
+      </x:c>
+      <x:c r="DN59" s="4" t="n">
+        <x:v>10567</x:v>
+      </x:c>
+      <x:c r="DO59" s="4" t="n">
+        <x:v>10593</x:v>
+      </x:c>
+      <x:c r="DP59" s="4" t="n">
+        <x:v>10821</x:v>
+      </x:c>
+      <x:c r="DQ59" s="4" t="n">
+        <x:v>11308</x:v>
+      </x:c>
+      <x:c r="DR59" s="4" t="n">
+        <x:v>11178</x:v>
+      </x:c>
+      <x:c r="DS59" s="4" t="n">
+        <x:v>11167</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:110">
+    <x:row r="60" spans="1:123">
       <x:c r="C60" s="3" t="s">
-        <x:v>168</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D60" s="4" t="n">
         <x:v>3670</x:v>
@@ -20044,18 +22296,57 @@
         <x:v>10201</x:v>
       </x:c>
       <x:c r="DD60" s="4" t="n">
-        <x:v>10558</x:v>
+        <x:v>10543</x:v>
       </x:c>
       <x:c r="DE60" s="4" t="n">
-        <x:v>10721</x:v>
+        <x:v>10752</x:v>
       </x:c>
       <x:c r="DF60" s="4" t="n">
-        <x:v>10640</x:v>
+        <x:v>10604</x:v>
+      </x:c>
+      <x:c r="DG60" s="4" t="n">
+        <x:v>10735</x:v>
+      </x:c>
+      <x:c r="DH60" s="4" t="n">
+        <x:v>10774</x:v>
+      </x:c>
+      <x:c r="DI60" s="4" t="n">
+        <x:v>11063</x:v>
+      </x:c>
+      <x:c r="DJ60" s="4" t="n">
+        <x:v>11133</x:v>
+      </x:c>
+      <x:c r="DK60" s="4" t="n">
+        <x:v>11118</x:v>
+      </x:c>
+      <x:c r="DL60" s="4" t="n">
+        <x:v>11013</x:v>
+      </x:c>
+      <x:c r="DM60" s="4" t="n">
+        <x:v>11019</x:v>
+      </x:c>
+      <x:c r="DN60" s="4" t="n">
+        <x:v>11277</x:v>
+      </x:c>
+      <x:c r="DO60" s="4" t="n">
+        <x:v>11513</x:v>
+      </x:c>
+      <x:c r="DP60" s="4" t="n">
+        <x:v>11734</x:v>
+      </x:c>
+      <x:c r="DQ60" s="4" t="n">
+        <x:v>12321</x:v>
+      </x:c>
+      <x:c r="DR60" s="4" t="n">
+        <x:v>12379</x:v>
+      </x:c>
+      <x:c r="DS60" s="4" t="n">
+        <x:v>12180</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:110">
+    <x:row r="61" spans="1:123">
       <x:c r="C61" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D61" s="4" t="n">
         <x:v>2953</x:v>
@@ -20370,18 +22661,57 @@
         <x:v>6572</x:v>
       </x:c>
       <x:c r="DD61" s="4" t="n">
-        <x:v>7420</x:v>
+        <x:v>7366</x:v>
       </x:c>
       <x:c r="DE61" s="4" t="n">
-        <x:v>7518</x:v>
+        <x:v>7462</x:v>
       </x:c>
       <x:c r="DF61" s="4" t="n">
-        <x:v>7282</x:v>
+        <x:v>7271</x:v>
+      </x:c>
+      <x:c r="DG61" s="4" t="n">
+        <x:v>7131</x:v>
+      </x:c>
+      <x:c r="DH61" s="4" t="n">
+        <x:v>7167</x:v>
+      </x:c>
+      <x:c r="DI61" s="4" t="n">
+        <x:v>7006</x:v>
+      </x:c>
+      <x:c r="DJ61" s="4" t="n">
+        <x:v>6645</x:v>
+      </x:c>
+      <x:c r="DK61" s="4" t="n">
+        <x:v>7473</x:v>
+      </x:c>
+      <x:c r="DL61" s="4" t="n">
+        <x:v>7371</x:v>
+      </x:c>
+      <x:c r="DM61" s="4" t="n">
+        <x:v>7393</x:v>
+      </x:c>
+      <x:c r="DN61" s="4" t="n">
+        <x:v>7700</x:v>
+      </x:c>
+      <x:c r="DO61" s="4" t="n">
+        <x:v>7735</x:v>
+      </x:c>
+      <x:c r="DP61" s="4" t="n">
+        <x:v>7951</x:v>
+      </x:c>
+      <x:c r="DQ61" s="4" t="n">
+        <x:v>8070</x:v>
+      </x:c>
+      <x:c r="DR61" s="4" t="n">
+        <x:v>7919</x:v>
+      </x:c>
+      <x:c r="DS61" s="4" t="n">
+        <x:v>7800</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:110">
+    <x:row r="62" spans="1:123">
       <x:c r="C62" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D62" s="4" t="n">
         <x:v>2870</x:v>
@@ -20696,18 +23026,57 @@
         <x:v>6661</x:v>
       </x:c>
       <x:c r="DD62" s="4" t="n">
-        <x:v>7887</x:v>
+        <x:v>7800</x:v>
       </x:c>
       <x:c r="DE62" s="4" t="n">
-        <x:v>7813</x:v>
+        <x:v>7769</x:v>
       </x:c>
       <x:c r="DF62" s="4" t="n">
-        <x:v>7500</x:v>
+        <x:v>7352</x:v>
+      </x:c>
+      <x:c r="DG62" s="4" t="n">
+        <x:v>7617</x:v>
+      </x:c>
+      <x:c r="DH62" s="4" t="n">
+        <x:v>7231</x:v>
+      </x:c>
+      <x:c r="DI62" s="4" t="n">
+        <x:v>7784</x:v>
+      </x:c>
+      <x:c r="DJ62" s="4" t="n">
+        <x:v>7642</x:v>
+      </x:c>
+      <x:c r="DK62" s="4" t="n">
+        <x:v>7969</x:v>
+      </x:c>
+      <x:c r="DL62" s="4" t="n">
+        <x:v>7979</x:v>
+      </x:c>
+      <x:c r="DM62" s="4" t="n">
+        <x:v>7670</x:v>
+      </x:c>
+      <x:c r="DN62" s="4" t="n">
+        <x:v>7920</x:v>
+      </x:c>
+      <x:c r="DO62" s="4" t="n">
+        <x:v>8017</x:v>
+      </x:c>
+      <x:c r="DP62" s="4" t="n">
+        <x:v>7982</x:v>
+      </x:c>
+      <x:c r="DQ62" s="4" t="n">
+        <x:v>8804</x:v>
+      </x:c>
+      <x:c r="DR62" s="4" t="n">
+        <x:v>8852</x:v>
+      </x:c>
+      <x:c r="DS62" s="4" t="n">
+        <x:v>8134</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:110">
+    <x:row r="63" spans="1:123">
       <x:c r="C63" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D63" s="4" t="n">
         <x:v>3986</x:v>
@@ -21022,18 +23391,57 @@
         <x:v>10314</x:v>
       </x:c>
       <x:c r="DD63" s="4" t="n">
-        <x:v>9850</x:v>
+        <x:v>9853</x:v>
       </x:c>
       <x:c r="DE63" s="4" t="n">
-        <x:v>9922</x:v>
+        <x:v>10220</x:v>
       </x:c>
       <x:c r="DF63" s="4" t="n">
-        <x:v>10128</x:v>
+        <x:v>10244</x:v>
+      </x:c>
+      <x:c r="DG63" s="4" t="n">
+        <x:v>10220</x:v>
+      </x:c>
+      <x:c r="DH63" s="4" t="n">
+        <x:v>9718</x:v>
+      </x:c>
+      <x:c r="DI63" s="4" t="n">
+        <x:v>10675</x:v>
+      </x:c>
+      <x:c r="DJ63" s="4" t="n">
+        <x:v>11189</x:v>
+      </x:c>
+      <x:c r="DK63" s="4" t="n">
+        <x:v>11738</x:v>
+      </x:c>
+      <x:c r="DL63" s="4" t="n">
+        <x:v>10156</x:v>
+      </x:c>
+      <x:c r="DM63" s="4" t="n">
+        <x:v>10927</x:v>
+      </x:c>
+      <x:c r="DN63" s="4" t="n">
+        <x:v>10853</x:v>
+      </x:c>
+      <x:c r="DO63" s="4" t="n">
+        <x:v>10975</x:v>
+      </x:c>
+      <x:c r="DP63" s="4" t="n">
+        <x:v>11600</x:v>
+      </x:c>
+      <x:c r="DQ63" s="4" t="n">
+        <x:v>11820</x:v>
+      </x:c>
+      <x:c r="DR63" s="4" t="n">
+        <x:v>11310</x:v>
+      </x:c>
+      <x:c r="DS63" s="4" t="n">
+        <x:v>11670</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:110">
+    <x:row r="64" spans="1:123">
       <x:c r="C64" s="3" t="s">
-        <x:v>172</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D64" s="4" t="n">
         <x:v>3008</x:v>
@@ -21348,18 +23756,57 @@
         <x:v>5270</x:v>
       </x:c>
       <x:c r="DD64" s="4" t="n">
-        <x:v>4622</x:v>
+        <x:v>4605</x:v>
       </x:c>
       <x:c r="DE64" s="4" t="n">
-        <x:v>5296</x:v>
+        <x:v>5266</x:v>
       </x:c>
       <x:c r="DF64" s="4" t="n">
-        <x:v>5307</x:v>
+        <x:v>5234</x:v>
+      </x:c>
+      <x:c r="DG64" s="4" t="n">
+        <x:v>5408</x:v>
+      </x:c>
+      <x:c r="DH64" s="4" t="n">
+        <x:v>6802</x:v>
+      </x:c>
+      <x:c r="DI64" s="4" t="n">
+        <x:v>5934</x:v>
+      </x:c>
+      <x:c r="DJ64" s="4" t="n">
+        <x:v>5844</x:v>
+      </x:c>
+      <x:c r="DK64" s="4" t="n">
+        <x:v>4939</x:v>
+      </x:c>
+      <x:c r="DL64" s="4" t="n">
+        <x:v>4371</x:v>
+      </x:c>
+      <x:c r="DM64" s="4" t="n">
+        <x:v>5572</x:v>
+      </x:c>
+      <x:c r="DN64" s="4" t="n">
+        <x:v>6057</x:v>
+      </x:c>
+      <x:c r="DO64" s="4" t="n">
+        <x:v>5865</x:v>
+      </x:c>
+      <x:c r="DP64" s="4" t="n">
+        <x:v>5890</x:v>
+      </x:c>
+      <x:c r="DQ64" s="4" t="n">
+        <x:v>5908</x:v>
+      </x:c>
+      <x:c r="DR64" s="4" t="n">
+        <x:v>5978</x:v>
+      </x:c>
+      <x:c r="DS64" s="4" t="n">
+        <x:v>6226</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:110">
+    <x:row r="65" spans="1:123">
       <x:c r="C65" s="3" t="s">
-        <x:v>173</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D65" s="4" t="n">
         <x:v>3418</x:v>
@@ -21674,18 +24121,57 @@
         <x:v>11303</x:v>
       </x:c>
       <x:c r="DD65" s="4" t="n">
-        <x:v>11710</x:v>
+        <x:v>11692</x:v>
       </x:c>
       <x:c r="DE65" s="4" t="n">
-        <x:v>10602</x:v>
+        <x:v>10722</x:v>
       </x:c>
       <x:c r="DF65" s="4" t="n">
-        <x:v>11393</x:v>
+        <x:v>11350</x:v>
+      </x:c>
+      <x:c r="DG65" s="4" t="n">
+        <x:v>11107</x:v>
+      </x:c>
+      <x:c r="DH65" s="4" t="n">
+        <x:v>10779</x:v>
+      </x:c>
+      <x:c r="DI65" s="4" t="n">
+        <x:v>11391</x:v>
+      </x:c>
+      <x:c r="DJ65" s="4" t="n">
+        <x:v>10816</x:v>
+      </x:c>
+      <x:c r="DK65" s="4" t="n">
+        <x:v>11302</x:v>
+      </x:c>
+      <x:c r="DL65" s="4" t="n">
+        <x:v>10506</x:v>
+      </x:c>
+      <x:c r="DM65" s="4" t="n">
+        <x:v>10263</x:v>
+      </x:c>
+      <x:c r="DN65" s="4" t="n">
+        <x:v>10687</x:v>
+      </x:c>
+      <x:c r="DO65" s="4" t="n">
+        <x:v>11705</x:v>
+      </x:c>
+      <x:c r="DP65" s="4" t="n">
+        <x:v>11913</x:v>
+      </x:c>
+      <x:c r="DQ65" s="4" t="n">
+        <x:v>12092</x:v>
+      </x:c>
+      <x:c r="DR65" s="4" t="n">
+        <x:v>11889</x:v>
+      </x:c>
+      <x:c r="DS65" s="4" t="n">
+        <x:v>10841</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:110">
+    <x:row r="66" spans="1:123">
       <x:c r="C66" s="3" t="s">
-        <x:v>174</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D66" s="4" t="n">
         <x:v>2974</x:v>
@@ -22000,18 +24486,57 @@
         <x:v>7634</x:v>
       </x:c>
       <x:c r="DD66" s="4" t="n">
-        <x:v>7817</x:v>
+        <x:v>7796</x:v>
       </x:c>
       <x:c r="DE66" s="4" t="n">
-        <x:v>7573</x:v>
+        <x:v>7517</x:v>
       </x:c>
       <x:c r="DF66" s="4" t="n">
-        <x:v>7970</x:v>
+        <x:v>7590</x:v>
+      </x:c>
+      <x:c r="DG66" s="4" t="n">
+        <x:v>7517</x:v>
+      </x:c>
+      <x:c r="DH66" s="4" t="n">
+        <x:v>7542</x:v>
+      </x:c>
+      <x:c r="DI66" s="4" t="n">
+        <x:v>7257</x:v>
+      </x:c>
+      <x:c r="DJ66" s="4" t="n">
+        <x:v>7774</x:v>
+      </x:c>
+      <x:c r="DK66" s="4" t="n">
+        <x:v>7529</x:v>
+      </x:c>
+      <x:c r="DL66" s="4" t="n">
+        <x:v>7628</x:v>
+      </x:c>
+      <x:c r="DM66" s="4" t="n">
+        <x:v>7953</x:v>
+      </x:c>
+      <x:c r="DN66" s="4" t="n">
+        <x:v>7642</x:v>
+      </x:c>
+      <x:c r="DO66" s="4" t="n">
+        <x:v>7764</x:v>
+      </x:c>
+      <x:c r="DP66" s="4" t="n">
+        <x:v>8215</x:v>
+      </x:c>
+      <x:c r="DQ66" s="4" t="n">
+        <x:v>8042</x:v>
+      </x:c>
+      <x:c r="DR66" s="4" t="n">
+        <x:v>8535</x:v>
+      </x:c>
+      <x:c r="DS66" s="4" t="n">
+        <x:v>8618</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:110">
+    <x:row r="67" spans="1:123">
       <x:c r="C67" s="3" t="s">
-        <x:v>175</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D67" s="4" t="n">
         <x:v>3395</x:v>
@@ -22326,18 +24851,57 @@
         <x:v>8259</x:v>
       </x:c>
       <x:c r="DD67" s="4" t="n">
-        <x:v>9143</x:v>
+        <x:v>9141</x:v>
       </x:c>
       <x:c r="DE67" s="4" t="n">
-        <x:v>8763</x:v>
+        <x:v>8827</x:v>
       </x:c>
       <x:c r="DF67" s="4" t="n">
-        <x:v>9275</x:v>
+        <x:v>9006</x:v>
+      </x:c>
+      <x:c r="DG67" s="4" t="n">
+        <x:v>8555</x:v>
+      </x:c>
+      <x:c r="DH67" s="4" t="n">
+        <x:v>9435</x:v>
+      </x:c>
+      <x:c r="DI67" s="4" t="n">
+        <x:v>9725</x:v>
+      </x:c>
+      <x:c r="DJ67" s="4" t="n">
+        <x:v>9041</x:v>
+      </x:c>
+      <x:c r="DK67" s="4" t="n">
+        <x:v>9138</x:v>
+      </x:c>
+      <x:c r="DL67" s="4" t="n">
+        <x:v>9384</x:v>
+      </x:c>
+      <x:c r="DM67" s="4" t="n">
+        <x:v>9398</x:v>
+      </x:c>
+      <x:c r="DN67" s="4" t="n">
+        <x:v>9164</x:v>
+      </x:c>
+      <x:c r="DO67" s="4" t="n">
+        <x:v>9593</x:v>
+      </x:c>
+      <x:c r="DP67" s="4" t="n">
+        <x:v>9940</x:v>
+      </x:c>
+      <x:c r="DQ67" s="4" t="n">
+        <x:v>9761</x:v>
+      </x:c>
+      <x:c r="DR67" s="4" t="n">
+        <x:v>9572</x:v>
+      </x:c>
+      <x:c r="DS67" s="4" t="n">
+        <x:v>9453</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:110">
+    <x:row r="68" spans="1:123">
       <x:c r="C68" s="3" t="s">
-        <x:v>176</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D68" s="4" t="n">
         <x:v>4331</x:v>
@@ -22652,18 +25216,57 @@
         <x:v>14497</x:v>
       </x:c>
       <x:c r="DD68" s="4" t="n">
-        <x:v>14845</x:v>
+        <x:v>14883</x:v>
       </x:c>
       <x:c r="DE68" s="4" t="n">
-        <x:v>15280</x:v>
+        <x:v>15271</x:v>
       </x:c>
       <x:c r="DF68" s="4" t="n">
-        <x:v>14888</x:v>
+        <x:v>14875</x:v>
+      </x:c>
+      <x:c r="DG68" s="4" t="n">
+        <x:v>15431</x:v>
+      </x:c>
+      <x:c r="DH68" s="4" t="n">
+        <x:v>15294</x:v>
+      </x:c>
+      <x:c r="DI68" s="4" t="n">
+        <x:v>15787</x:v>
+      </x:c>
+      <x:c r="DJ68" s="4" t="n">
+        <x:v>15980</x:v>
+      </x:c>
+      <x:c r="DK68" s="4" t="n">
+        <x:v>16084</x:v>
+      </x:c>
+      <x:c r="DL68" s="4" t="n">
+        <x:v>16237</x:v>
+      </x:c>
+      <x:c r="DM68" s="4" t="n">
+        <x:v>15677</x:v>
+      </x:c>
+      <x:c r="DN68" s="4" t="n">
+        <x:v>15880</x:v>
+      </x:c>
+      <x:c r="DO68" s="4" t="n">
+        <x:v>16662</x:v>
+      </x:c>
+      <x:c r="DP68" s="4" t="n">
+        <x:v>16861</x:v>
+      </x:c>
+      <x:c r="DQ68" s="4" t="n">
+        <x:v>17738</x:v>
+      </x:c>
+      <x:c r="DR68" s="4" t="n">
+        <x:v>18227</x:v>
+      </x:c>
+      <x:c r="DS68" s="4" t="n">
+        <x:v>18210</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:110">
+    <x:row r="69" spans="1:123">
       <x:c r="C69" s="3" t="s">
-        <x:v>177</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D69" s="4" t="n">
         <x:v>3976</x:v>
@@ -22978,162 +25581,201 @@
         <x:v>10719</x:v>
       </x:c>
       <x:c r="DD69" s="4" t="n">
-        <x:v>10419</x:v>
+        <x:v>10388</x:v>
       </x:c>
       <x:c r="DE69" s="4" t="n">
-        <x:v>11652</x:v>
+        <x:v>11804</x:v>
       </x:c>
       <x:c r="DF69" s="4" t="n">
-        <x:v>11062</x:v>
+        <x:v>11331</x:v>
+      </x:c>
+      <x:c r="DG69" s="4" t="n">
+        <x:v>11258</x:v>
+      </x:c>
+      <x:c r="DH69" s="4" t="n">
+        <x:v>11792</x:v>
+      </x:c>
+      <x:c r="DI69" s="4" t="n">
+        <x:v>11738</x:v>
+      </x:c>
+      <x:c r="DJ69" s="4" t="n">
+        <x:v>12661</x:v>
+      </x:c>
+      <x:c r="DK69" s="4" t="n">
+        <x:v>11203</x:v>
+      </x:c>
+      <x:c r="DL69" s="4" t="n">
+        <x:v>11197</x:v>
+      </x:c>
+      <x:c r="DM69" s="4" t="n">
+        <x:v>12162</x:v>
+      </x:c>
+      <x:c r="DN69" s="4" t="n">
+        <x:v>12713</x:v>
+      </x:c>
+      <x:c r="DO69" s="4" t="n">
+        <x:v>11921</x:v>
+      </x:c>
+      <x:c r="DP69" s="4" t="n">
+        <x:v>12200</x:v>
+      </x:c>
+      <x:c r="DQ69" s="4" t="n">
+        <x:v>13603</x:v>
+      </x:c>
+      <x:c r="DR69" s="4" t="n">
+        <x:v>13017</x:v>
+      </x:c>
+      <x:c r="DS69" s="4" t="n">
+        <x:v>12749</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:110">
+    <x:row r="70" spans="1:123">
       <x:c r="C70" s="3" t="s">
-        <x:v>178</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="J70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="K70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="M70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="N70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="O70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="P70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="Q70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="R70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="S70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="T70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="U70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="V70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="W70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="X70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="Y70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="Z70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AA70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AB70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AC70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AD70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AE70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AF70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AG70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AH70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AI70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AJ70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AK70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AL70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AM70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AN70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AO70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AP70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AQ70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AR70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AS70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AT70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AU70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AV70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AW70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AX70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AY70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AZ70" s="4" t="n">
         <x:v>4770</x:v>
@@ -23253,7 +25895,7 @@
         <x:v>4117</x:v>
       </x:c>
       <x:c r="CM70" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CN70" s="4" t="n">
         <x:v>3532</x:v>
@@ -23304,18 +25946,57 @@
         <x:v>5393</x:v>
       </x:c>
       <x:c r="DD70" s="4" t="n">
-        <x:v>5140</x:v>
+        <x:v>5139</x:v>
       </x:c>
       <x:c r="DE70" s="4" t="n">
-        <x:v>4579</x:v>
+        <x:v>4570</x:v>
       </x:c>
       <x:c r="DF70" s="4" t="n">
-        <x:v>5593</x:v>
+        <x:v>5702</x:v>
+      </x:c>
+      <x:c r="DG70" s="4" t="n">
+        <x:v>5785</x:v>
+      </x:c>
+      <x:c r="DH70" s="4" t="n">
+        <x:v>5364</x:v>
+      </x:c>
+      <x:c r="DI70" s="4" t="n">
+        <x:v>6564</x:v>
+      </x:c>
+      <x:c r="DJ70" s="4" t="n">
+        <x:v>6090</x:v>
+      </x:c>
+      <x:c r="DK70" s="4" t="n">
+        <x:v>5807</x:v>
+      </x:c>
+      <x:c r="DL70" s="4" t="n">
+        <x:v>6162</x:v>
+      </x:c>
+      <x:c r="DM70" s="4" t="n">
+        <x:v>5941</x:v>
+      </x:c>
+      <x:c r="DN70" s="4" t="n">
+        <x:v>7801</x:v>
+      </x:c>
+      <x:c r="DO70" s="4" t="n">
+        <x:v>6181</x:v>
+      </x:c>
+      <x:c r="DP70" s="4" t="n">
+        <x:v>6240</x:v>
+      </x:c>
+      <x:c r="DQ70" s="4" t="n">
+        <x:v>7351</x:v>
+      </x:c>
+      <x:c r="DR70" s="4" t="n">
+        <x:v>7675</x:v>
+      </x:c>
+      <x:c r="DS70" s="4" t="n">
+        <x:v>8050</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:110">
+    <x:row r="71" spans="1:123">
       <x:c r="C71" s="3" t="s">
-        <x:v>179</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D71" s="4" t="n">
         <x:v>3500</x:v>
@@ -23630,18 +26311,57 @@
         <x:v>8937</x:v>
       </x:c>
       <x:c r="DD71" s="4" t="n">
-        <x:v>9160</x:v>
+        <x:v>9158</x:v>
       </x:c>
       <x:c r="DE71" s="4" t="n">
-        <x:v>9384</x:v>
+        <x:v>9376</x:v>
       </x:c>
       <x:c r="DF71" s="4" t="n">
-        <x:v>9286</x:v>
+        <x:v>9345</x:v>
+      </x:c>
+      <x:c r="DG71" s="4" t="n">
+        <x:v>9212</x:v>
+      </x:c>
+      <x:c r="DH71" s="4" t="n">
+        <x:v>9154</x:v>
+      </x:c>
+      <x:c r="DI71" s="4" t="n">
+        <x:v>9530</x:v>
+      </x:c>
+      <x:c r="DJ71" s="4" t="n">
+        <x:v>9704</x:v>
+      </x:c>
+      <x:c r="DK71" s="4" t="n">
+        <x:v>9727</x:v>
+      </x:c>
+      <x:c r="DL71" s="4" t="n">
+        <x:v>9477</x:v>
+      </x:c>
+      <x:c r="DM71" s="4" t="n">
+        <x:v>9546</x:v>
+      </x:c>
+      <x:c r="DN71" s="4" t="n">
+        <x:v>10072</x:v>
+      </x:c>
+      <x:c r="DO71" s="4" t="n">
+        <x:v>9951</x:v>
+      </x:c>
+      <x:c r="DP71" s="4" t="n">
+        <x:v>10184</x:v>
+      </x:c>
+      <x:c r="DQ71" s="4" t="n">
+        <x:v>10602</x:v>
+      </x:c>
+      <x:c r="DR71" s="4" t="n">
+        <x:v>10337</x:v>
+      </x:c>
+      <x:c r="DS71" s="4" t="n">
+        <x:v>10469</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:110">
+    <x:row r="72" spans="1:123">
       <x:c r="C72" s="3" t="s">
-        <x:v>180</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D72" s="4" t="n">
         <x:v>4024</x:v>
@@ -23956,18 +26676,57 @@
         <x:v>7936</x:v>
       </x:c>
       <x:c r="DD72" s="4" t="n">
-        <x:v>8103</x:v>
+        <x:v>8095</x:v>
       </x:c>
       <x:c r="DE72" s="4" t="n">
-        <x:v>8269</x:v>
+        <x:v>8263</x:v>
       </x:c>
       <x:c r="DF72" s="4" t="n">
-        <x:v>9079</x:v>
+        <x:v>9076</x:v>
+      </x:c>
+      <x:c r="DG72" s="4" t="n">
+        <x:v>8702</x:v>
+      </x:c>
+      <x:c r="DH72" s="4" t="n">
+        <x:v>7988</x:v>
+      </x:c>
+      <x:c r="DI72" s="4" t="n">
+        <x:v>9301</x:v>
+      </x:c>
+      <x:c r="DJ72" s="4" t="n">
+        <x:v>7840</x:v>
+      </x:c>
+      <x:c r="DK72" s="4" t="n">
+        <x:v>9157</x:v>
+      </x:c>
+      <x:c r="DL72" s="4" t="n">
+        <x:v>8952</x:v>
+      </x:c>
+      <x:c r="DM72" s="4" t="n">
+        <x:v>9749</x:v>
+      </x:c>
+      <x:c r="DN72" s="4" t="n">
+        <x:v>8688</x:v>
+      </x:c>
+      <x:c r="DO72" s="4" t="n">
+        <x:v>9204</x:v>
+      </x:c>
+      <x:c r="DP72" s="4" t="n">
+        <x:v>10143</x:v>
+      </x:c>
+      <x:c r="DQ72" s="4" t="n">
+        <x:v>9372</x:v>
+      </x:c>
+      <x:c r="DR72" s="4" t="n">
+        <x:v>9717</x:v>
+      </x:c>
+      <x:c r="DS72" s="4" t="n">
+        <x:v>9778</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:110">
+    <x:row r="73" spans="1:123">
       <x:c r="C73" s="3" t="s">
-        <x:v>181</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D73" s="4" t="n">
         <x:v>3879</x:v>
@@ -24282,18 +27041,57 @@
         <x:v>11120</x:v>
       </x:c>
       <x:c r="DD73" s="4" t="n">
-        <x:v>11498</x:v>
+        <x:v>11529</x:v>
       </x:c>
       <x:c r="DE73" s="4" t="n">
-        <x:v>11253</x:v>
+        <x:v>11251</x:v>
       </x:c>
       <x:c r="DF73" s="4" t="n">
-        <x:v>11531</x:v>
+        <x:v>11458</x:v>
+      </x:c>
+      <x:c r="DG73" s="4" t="n">
+        <x:v>11683</x:v>
+      </x:c>
+      <x:c r="DH73" s="4" t="n">
+        <x:v>11517</x:v>
+      </x:c>
+      <x:c r="DI73" s="4" t="n">
+        <x:v>12202</x:v>
+      </x:c>
+      <x:c r="DJ73" s="4" t="n">
+        <x:v>12678</x:v>
+      </x:c>
+      <x:c r="DK73" s="4" t="n">
+        <x:v>12266</x:v>
+      </x:c>
+      <x:c r="DL73" s="4" t="n">
+        <x:v>12167</x:v>
+      </x:c>
+      <x:c r="DM73" s="4" t="n">
+        <x:v>12075</x:v>
+      </x:c>
+      <x:c r="DN73" s="4" t="n">
+        <x:v>12293</x:v>
+      </x:c>
+      <x:c r="DO73" s="4" t="n">
+        <x:v>11972</x:v>
+      </x:c>
+      <x:c r="DP73" s="4" t="n">
+        <x:v>12709</x:v>
+      </x:c>
+      <x:c r="DQ73" s="4" t="n">
+        <x:v>13332</x:v>
+      </x:c>
+      <x:c r="DR73" s="4" t="n">
+        <x:v>12874</x:v>
+      </x:c>
+      <x:c r="DS73" s="4" t="n">
+        <x:v>13637</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:110">
+    <x:row r="74" spans="1:123">
       <x:c r="C74" s="3" t="s">
-        <x:v>182</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D74" s="4" t="n">
         <x:v>4145</x:v>
@@ -24443,7 +27241,7 @@
         <x:v>5657</x:v>
       </x:c>
       <x:c r="BA74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BB74" s="4" t="n">
         <x:v>8514</x:v>
@@ -24467,43 +27265,43 @@
         <x:v>9061</x:v>
       </x:c>
       <x:c r="BI74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BJ74" s="4" t="n">
         <x:v>8761</x:v>
       </x:c>
       <x:c r="BK74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BL74" s="4" t="n">
         <x:v>10156</x:v>
       </x:c>
       <x:c r="BM74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BN74" s="4" t="n">
         <x:v>8264</x:v>
       </x:c>
       <x:c r="BO74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BP74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BQ74" s="4" t="n">
         <x:v>11030</x:v>
       </x:c>
       <x:c r="BR74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BS74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BT74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BU74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BV74" s="4" t="n">
         <x:v>12283</x:v>
@@ -24518,10 +27316,10 @@
         <x:v>11074</x:v>
       </x:c>
       <x:c r="BZ74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CA74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CB74" s="4" t="n">
         <x:v>9325</x:v>
@@ -24533,40 +27331,40 @@
         <x:v>10294</x:v>
       </x:c>
       <x:c r="CE74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CF74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CG74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CH74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CI74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CJ74" s="4" t="n">
         <x:v>10175</x:v>
       </x:c>
       <x:c r="CK74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CL74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CM74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CN74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CO74" s="4" t="n">
         <x:v>10394</x:v>
       </x:c>
       <x:c r="CP74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CQ74" s="4" t="n">
         <x:v>10160</x:v>
@@ -24575,10 +27373,10 @@
         <x:v>9134</x:v>
       </x:c>
       <x:c r="CS74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CT74" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CU74" s="4" t="n">
         <x:v>10379</x:v>
@@ -24608,18 +27406,57 @@
         <x:v>9060</x:v>
       </x:c>
       <x:c r="DD74" s="4" t="n">
-        <x:v>8136</x:v>
+        <x:v>8139</x:v>
       </x:c>
       <x:c r="DE74" s="4" t="n">
-        <x:v>11542</x:v>
+        <x:v>11427</x:v>
       </x:c>
       <x:c r="DF74" s="4" t="n">
-        <x:v>12086</x:v>
+        <x:v>12482</x:v>
+      </x:c>
+      <x:c r="DG74" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="DH74" s="4" t="n">
+        <x:v>10518</x:v>
+      </x:c>
+      <x:c r="DI74" s="4" t="n">
+        <x:v>11051</x:v>
+      </x:c>
+      <x:c r="DJ74" s="4" t="n">
+        <x:v>12807</x:v>
+      </x:c>
+      <x:c r="DK74" s="4" t="n">
+        <x:v>9868</x:v>
+      </x:c>
+      <x:c r="DL74" s="4" t="n">
+        <x:v>8012</x:v>
+      </x:c>
+      <x:c r="DM74" s="4" t="n">
+        <x:v>12075</x:v>
+      </x:c>
+      <x:c r="DN74" s="4" t="n">
+        <x:v>12815</x:v>
+      </x:c>
+      <x:c r="DO74" s="4" t="n">
+        <x:v>13194</x:v>
+      </x:c>
+      <x:c r="DP74" s="4" t="n">
+        <x:v>10983</x:v>
+      </x:c>
+      <x:c r="DQ74" s="4" t="n">
+        <x:v>14651</x:v>
+      </x:c>
+      <x:c r="DR74" s="4" t="n">
+        <x:v>15387</x:v>
+      </x:c>
+      <x:c r="DS74" s="4" t="n">
+        <x:v>14684</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:110">
+    <x:row r="75" spans="1:123">
       <x:c r="C75" s="3" t="s">
-        <x:v>183</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D75" s="4" t="n">
         <x:v>3708</x:v>
@@ -24934,18 +27771,57 @@
         <x:v>10651</x:v>
       </x:c>
       <x:c r="DD75" s="4" t="n">
-        <x:v>11162</x:v>
+        <x:v>11230</x:v>
       </x:c>
       <x:c r="DE75" s="4" t="n">
-        <x:v>11247</x:v>
+        <x:v>11251</x:v>
       </x:c>
       <x:c r="DF75" s="4" t="n">
-        <x:v>11429</x:v>
+        <x:v>11622</x:v>
+      </x:c>
+      <x:c r="DG75" s="4" t="n">
+        <x:v>11922</x:v>
+      </x:c>
+      <x:c r="DH75" s="4" t="n">
+        <x:v>11314</x:v>
+      </x:c>
+      <x:c r="DI75" s="4" t="n">
+        <x:v>11722</x:v>
+      </x:c>
+      <x:c r="DJ75" s="4" t="n">
+        <x:v>12094</x:v>
+      </x:c>
+      <x:c r="DK75" s="4" t="n">
+        <x:v>12066</x:v>
+      </x:c>
+      <x:c r="DL75" s="4" t="n">
+        <x:v>11188</x:v>
+      </x:c>
+      <x:c r="DM75" s="4" t="n">
+        <x:v>12080</x:v>
+      </x:c>
+      <x:c r="DN75" s="4" t="n">
+        <x:v>12760</x:v>
+      </x:c>
+      <x:c r="DO75" s="4" t="n">
+        <x:v>11373</x:v>
+      </x:c>
+      <x:c r="DP75" s="4" t="n">
+        <x:v>12297</x:v>
+      </x:c>
+      <x:c r="DQ75" s="4" t="n">
+        <x:v>13023</x:v>
+      </x:c>
+      <x:c r="DR75" s="4" t="n">
+        <x:v>12432</x:v>
+      </x:c>
+      <x:c r="DS75" s="4" t="n">
+        <x:v>12936</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:110">
+    <x:row r="76" spans="1:123">
       <x:c r="C76" s="3" t="s">
-        <x:v>184</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D76" s="4" t="n">
         <x:v>3164</x:v>
@@ -25260,18 +28136,57 @@
         <x:v>6889</x:v>
       </x:c>
       <x:c r="DD76" s="4" t="n">
-        <x:v>7178</x:v>
+        <x:v>7111</x:v>
       </x:c>
       <x:c r="DE76" s="4" t="n">
-        <x:v>7612</x:v>
+        <x:v>7520</x:v>
       </x:c>
       <x:c r="DF76" s="4" t="n">
-        <x:v>7633</x:v>
+        <x:v>7627</x:v>
+      </x:c>
+      <x:c r="DG76" s="4" t="n">
+        <x:v>7345</x:v>
+      </x:c>
+      <x:c r="DH76" s="4" t="n">
+        <x:v>7130</x:v>
+      </x:c>
+      <x:c r="DI76" s="4" t="n">
+        <x:v>7597</x:v>
+      </x:c>
+      <x:c r="DJ76" s="4" t="n">
+        <x:v>7161</x:v>
+      </x:c>
+      <x:c r="DK76" s="4" t="n">
+        <x:v>7719</x:v>
+      </x:c>
+      <x:c r="DL76" s="4" t="n">
+        <x:v>7564</x:v>
+      </x:c>
+      <x:c r="DM76" s="4" t="n">
+        <x:v>7581</x:v>
+      </x:c>
+      <x:c r="DN76" s="4" t="n">
+        <x:v>7911</x:v>
+      </x:c>
+      <x:c r="DO76" s="4" t="n">
+        <x:v>7796</x:v>
+      </x:c>
+      <x:c r="DP76" s="4" t="n">
+        <x:v>7710</x:v>
+      </x:c>
+      <x:c r="DQ76" s="4" t="n">
+        <x:v>8535</x:v>
+      </x:c>
+      <x:c r="DR76" s="4" t="n">
+        <x:v>8119</x:v>
+      </x:c>
+      <x:c r="DS76" s="4" t="n">
+        <x:v>6947</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:110">
+    <x:row r="77" spans="1:123">
       <x:c r="C77" s="3" t="s">
-        <x:v>185</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D77" s="4" t="n">
         <x:v>3952</x:v>
@@ -25586,18 +28501,57 @@
         <x:v>11668</x:v>
       </x:c>
       <x:c r="DD77" s="4" t="n">
-        <x:v>11855</x:v>
+        <x:v>11811</x:v>
       </x:c>
       <x:c r="DE77" s="4" t="n">
-        <x:v>12286</x:v>
+        <x:v>12311</x:v>
       </x:c>
       <x:c r="DF77" s="4" t="n">
-        <x:v>12088</x:v>
+        <x:v>12141</x:v>
+      </x:c>
+      <x:c r="DG77" s="4" t="n">
+        <x:v>11649</x:v>
+      </x:c>
+      <x:c r="DH77" s="4" t="n">
+        <x:v>12118</x:v>
+      </x:c>
+      <x:c r="DI77" s="4" t="n">
+        <x:v>11957</x:v>
+      </x:c>
+      <x:c r="DJ77" s="4" t="n">
+        <x:v>12063</x:v>
+      </x:c>
+      <x:c r="DK77" s="4" t="n">
+        <x:v>12161</x:v>
+      </x:c>
+      <x:c r="DL77" s="4" t="n">
+        <x:v>12235</x:v>
+      </x:c>
+      <x:c r="DM77" s="4" t="n">
+        <x:v>12061</x:v>
+      </x:c>
+      <x:c r="DN77" s="4" t="n">
+        <x:v>13254</x:v>
+      </x:c>
+      <x:c r="DO77" s="4" t="n">
+        <x:v>12740</x:v>
+      </x:c>
+      <x:c r="DP77" s="4" t="n">
+        <x:v>13047</x:v>
+      </x:c>
+      <x:c r="DQ77" s="4" t="n">
+        <x:v>12877</x:v>
+      </x:c>
+      <x:c r="DR77" s="4" t="n">
+        <x:v>13817</x:v>
+      </x:c>
+      <x:c r="DS77" s="4" t="n">
+        <x:v>13269</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:110">
+    <x:row r="78" spans="1:123">
       <x:c r="C78" s="3" t="s">
-        <x:v>186</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D78" s="4" t="n">
         <x:v>3529</x:v>
@@ -25912,18 +28866,57 @@
         <x:v>7187</x:v>
       </x:c>
       <x:c r="DD78" s="4" t="n">
-        <x:v>7165</x:v>
+        <x:v>7119</x:v>
       </x:c>
       <x:c r="DE78" s="4" t="n">
-        <x:v>7748</x:v>
+        <x:v>7782</x:v>
       </x:c>
       <x:c r="DF78" s="4" t="n">
         <x:v>7654</x:v>
       </x:c>
+      <x:c r="DG78" s="4" t="n">
+        <x:v>8166</x:v>
+      </x:c>
+      <x:c r="DH78" s="4" t="n">
+        <x:v>7255</x:v>
+      </x:c>
+      <x:c r="DI78" s="4" t="n">
+        <x:v>7852</x:v>
+      </x:c>
+      <x:c r="DJ78" s="4" t="n">
+        <x:v>8261</x:v>
+      </x:c>
+      <x:c r="DK78" s="4" t="n">
+        <x:v>8164</x:v>
+      </x:c>
+      <x:c r="DL78" s="4" t="n">
+        <x:v>7023</x:v>
+      </x:c>
+      <x:c r="DM78" s="4" t="n">
+        <x:v>7958</x:v>
+      </x:c>
+      <x:c r="DN78" s="4" t="n">
+        <x:v>8595</x:v>
+      </x:c>
+      <x:c r="DO78" s="4" t="n">
+        <x:v>8332</x:v>
+      </x:c>
+      <x:c r="DP78" s="4" t="n">
+        <x:v>8699</x:v>
+      </x:c>
+      <x:c r="DQ78" s="4" t="n">
+        <x:v>8864</x:v>
+      </x:c>
+      <x:c r="DR78" s="4" t="n">
+        <x:v>8699</x:v>
+      </x:c>
+      <x:c r="DS78" s="4" t="n">
+        <x:v>8656</x:v>
+      </x:c>
     </x:row>
-    <x:row r="79" spans="1:110">
+    <x:row r="79" spans="1:123">
       <x:c r="C79" s="3" t="s">
-        <x:v>187</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D79" s="4" t="n">
         <x:v>2734</x:v>
@@ -26238,18 +29231,57 @@
         <x:v>4620</x:v>
       </x:c>
       <x:c r="DD79" s="4" t="n">
-        <x:v>5465</x:v>
+        <x:v>5467</x:v>
       </x:c>
       <x:c r="DE79" s="4" t="n">
-        <x:v>4551</x:v>
+        <x:v>4549</x:v>
       </x:c>
       <x:c r="DF79" s="4" t="n">
-        <x:v>5331</x:v>
+        <x:v>5137</x:v>
+      </x:c>
+      <x:c r="DG79" s="4" t="n">
+        <x:v>4732</x:v>
+      </x:c>
+      <x:c r="DH79" s="4" t="n">
+        <x:v>4315</x:v>
+      </x:c>
+      <x:c r="DI79" s="4" t="n">
+        <x:v>5177</x:v>
+      </x:c>
+      <x:c r="DJ79" s="4" t="n">
+        <x:v>4775</x:v>
+      </x:c>
+      <x:c r="DK79" s="4" t="n">
+        <x:v>5415</x:v>
+      </x:c>
+      <x:c r="DL79" s="4" t="n">
+        <x:v>5509</x:v>
+      </x:c>
+      <x:c r="DM79" s="4" t="n">
+        <x:v>4519</x:v>
+      </x:c>
+      <x:c r="DN79" s="4" t="n">
+        <x:v>4916</x:v>
+      </x:c>
+      <x:c r="DO79" s="4" t="n">
+        <x:v>5314</x:v>
+      </x:c>
+      <x:c r="DP79" s="4" t="n">
+        <x:v>5309</x:v>
+      </x:c>
+      <x:c r="DQ79" s="4" t="n">
+        <x:v>5256</x:v>
+      </x:c>
+      <x:c r="DR79" s="4" t="n">
+        <x:v>5208</x:v>
+      </x:c>
+      <x:c r="DS79" s="4" t="n">
+        <x:v>5351</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:110">
+    <x:row r="80" spans="1:123">
       <x:c r="C80" s="3" t="s">
-        <x:v>188</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D80" s="4" t="n">
         <x:v>3293</x:v>
@@ -26564,18 +29596,57 @@
         <x:v>6838</x:v>
       </x:c>
       <x:c r="DD80" s="4" t="n">
-        <x:v>7590</x:v>
+        <x:v>7579</x:v>
       </x:c>
       <x:c r="DE80" s="4" t="n">
-        <x:v>7269</x:v>
+        <x:v>7366</x:v>
       </x:c>
       <x:c r="DF80" s="4" t="n">
-        <x:v>7248</x:v>
+        <x:v>7703</x:v>
+      </x:c>
+      <x:c r="DG80" s="4" t="n">
+        <x:v>7183</x:v>
+      </x:c>
+      <x:c r="DH80" s="4" t="n">
+        <x:v>7574</x:v>
+      </x:c>
+      <x:c r="DI80" s="4" t="n">
+        <x:v>7063</x:v>
+      </x:c>
+      <x:c r="DJ80" s="4" t="n">
+        <x:v>8265</x:v>
+      </x:c>
+      <x:c r="DK80" s="4" t="n">
+        <x:v>8132</x:v>
+      </x:c>
+      <x:c r="DL80" s="4" t="n">
+        <x:v>8288</x:v>
+      </x:c>
+      <x:c r="DM80" s="4" t="n">
+        <x:v>8052</x:v>
+      </x:c>
+      <x:c r="DN80" s="4" t="n">
+        <x:v>7851</x:v>
+      </x:c>
+      <x:c r="DO80" s="4" t="n">
+        <x:v>8512</x:v>
+      </x:c>
+      <x:c r="DP80" s="4" t="n">
+        <x:v>8259</x:v>
+      </x:c>
+      <x:c r="DQ80" s="4" t="n">
+        <x:v>7962</x:v>
+      </x:c>
+      <x:c r="DR80" s="4" t="n">
+        <x:v>7796</x:v>
+      </x:c>
+      <x:c r="DS80" s="4" t="n">
+        <x:v>8358</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:110">
+    <x:row r="81" spans="1:123">
       <x:c r="C81" s="3" t="s">
-        <x:v>189</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D81" s="4" t="n">
         <x:v>3130</x:v>
@@ -26890,18 +29961,57 @@
         <x:v>7171</x:v>
       </x:c>
       <x:c r="DD81" s="4" t="n">
-        <x:v>6239</x:v>
+        <x:v>6297</x:v>
       </x:c>
       <x:c r="DE81" s="4" t="n">
-        <x:v>7472</x:v>
+        <x:v>7450</x:v>
       </x:c>
       <x:c r="DF81" s="4" t="n">
-        <x:v>6382</x:v>
+        <x:v>6773</x:v>
+      </x:c>
+      <x:c r="DG81" s="4" t="n">
+        <x:v>6931</x:v>
+      </x:c>
+      <x:c r="DH81" s="4" t="n">
+        <x:v>6682</x:v>
+      </x:c>
+      <x:c r="DI81" s="4" t="n">
+        <x:v>7263</x:v>
+      </x:c>
+      <x:c r="DJ81" s="4" t="n">
+        <x:v>7945</x:v>
+      </x:c>
+      <x:c r="DK81" s="4" t="n">
+        <x:v>7066</x:v>
+      </x:c>
+      <x:c r="DL81" s="4" t="n">
+        <x:v>6945</x:v>
+      </x:c>
+      <x:c r="DM81" s="4" t="n">
+        <x:v>7008</x:v>
+      </x:c>
+      <x:c r="DN81" s="4" t="n">
+        <x:v>7946</x:v>
+      </x:c>
+      <x:c r="DO81" s="4" t="n">
+        <x:v>7782</x:v>
+      </x:c>
+      <x:c r="DP81" s="4" t="n">
+        <x:v>7641</x:v>
+      </x:c>
+      <x:c r="DQ81" s="4" t="n">
+        <x:v>8161</x:v>
+      </x:c>
+      <x:c r="DR81" s="4" t="n">
+        <x:v>7947</x:v>
+      </x:c>
+      <x:c r="DS81" s="4" t="n">
+        <x:v>7450</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:110">
+    <x:row r="82" spans="1:123">
       <x:c r="C82" s="3" t="s">
-        <x:v>190</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D82" s="4" t="n">
         <x:v>3560</x:v>
@@ -27216,18 +30326,57 @@
         <x:v>11529</x:v>
       </x:c>
       <x:c r="DD82" s="4" t="n">
-        <x:v>11794</x:v>
+        <x:v>11776</x:v>
       </x:c>
       <x:c r="DE82" s="4" t="n">
-        <x:v>11944</x:v>
+        <x:v>11848</x:v>
       </x:c>
       <x:c r="DF82" s="4" t="n">
-        <x:v>11264</x:v>
+        <x:v>11270</x:v>
+      </x:c>
+      <x:c r="DG82" s="4" t="n">
+        <x:v>11182</x:v>
+      </x:c>
+      <x:c r="DH82" s="4" t="n">
+        <x:v>11524</x:v>
+      </x:c>
+      <x:c r="DI82" s="4" t="n">
+        <x:v>11869</x:v>
+      </x:c>
+      <x:c r="DJ82" s="4" t="n">
+        <x:v>11660</x:v>
+      </x:c>
+      <x:c r="DK82" s="4" t="n">
+        <x:v>11801</x:v>
+      </x:c>
+      <x:c r="DL82" s="4" t="n">
+        <x:v>11851</x:v>
+      </x:c>
+      <x:c r="DM82" s="4" t="n">
+        <x:v>11784</x:v>
+      </x:c>
+      <x:c r="DN82" s="4" t="n">
+        <x:v>12649</x:v>
+      </x:c>
+      <x:c r="DO82" s="4" t="n">
+        <x:v>12918</x:v>
+      </x:c>
+      <x:c r="DP82" s="4" t="n">
+        <x:v>12661</x:v>
+      </x:c>
+      <x:c r="DQ82" s="4" t="n">
+        <x:v>13978</x:v>
+      </x:c>
+      <x:c r="DR82" s="4" t="n">
+        <x:v>13003</x:v>
+      </x:c>
+      <x:c r="DS82" s="4" t="n">
+        <x:v>13319</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:110">
+    <x:row r="83" spans="1:123">
       <x:c r="C83" s="3" t="s">
-        <x:v>191</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D83" s="4" t="n">
         <x:v>3356</x:v>
@@ -27542,18 +30691,57 @@
         <x:v>6858</x:v>
       </x:c>
       <x:c r="DD83" s="4" t="n">
-        <x:v>6879</x:v>
+        <x:v>6882</x:v>
       </x:c>
       <x:c r="DE83" s="4" t="n">
-        <x:v>7516</x:v>
+        <x:v>7535</x:v>
       </x:c>
       <x:c r="DF83" s="4" t="n">
-        <x:v>7139</x:v>
+        <x:v>7146</x:v>
+      </x:c>
+      <x:c r="DG83" s="4" t="n">
+        <x:v>6511</x:v>
+      </x:c>
+      <x:c r="DH83" s="4" t="n">
+        <x:v>7012</x:v>
+      </x:c>
+      <x:c r="DI83" s="4" t="n">
+        <x:v>7160</x:v>
+      </x:c>
+      <x:c r="DJ83" s="4" t="n">
+        <x:v>7448</x:v>
+      </x:c>
+      <x:c r="DK83" s="4" t="n">
+        <x:v>7562</x:v>
+      </x:c>
+      <x:c r="DL83" s="4" t="n">
+        <x:v>6825</x:v>
+      </x:c>
+      <x:c r="DM83" s="4" t="n">
+        <x:v>6605</x:v>
+      </x:c>
+      <x:c r="DN83" s="4" t="n">
+        <x:v>7216</x:v>
+      </x:c>
+      <x:c r="DO83" s="4" t="n">
+        <x:v>6995</x:v>
+      </x:c>
+      <x:c r="DP83" s="4" t="n">
+        <x:v>7513</x:v>
+      </x:c>
+      <x:c r="DQ83" s="4" t="n">
+        <x:v>7829</x:v>
+      </x:c>
+      <x:c r="DR83" s="4" t="n">
+        <x:v>6927</x:v>
+      </x:c>
+      <x:c r="DS83" s="4" t="n">
+        <x:v>8039</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:110">
+    <x:row r="84" spans="1:123">
       <x:c r="C84" s="3" t="s">
-        <x:v>192</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D84" s="4" t="n">
         <x:v>3773</x:v>
@@ -27868,18 +31056,57 @@
         <x:v>11460</x:v>
       </x:c>
       <x:c r="DD84" s="4" t="n">
-        <x:v>11701</x:v>
+        <x:v>11699</x:v>
       </x:c>
       <x:c r="DE84" s="4" t="n">
-        <x:v>12056</x:v>
+        <x:v>12058</x:v>
       </x:c>
       <x:c r="DF84" s="4" t="n">
-        <x:v>12056</x:v>
+        <x:v>12021</x:v>
+      </x:c>
+      <x:c r="DG84" s="4" t="n">
+        <x:v>12009</x:v>
+      </x:c>
+      <x:c r="DH84" s="4" t="n">
+        <x:v>11906</x:v>
+      </x:c>
+      <x:c r="DI84" s="4" t="n">
+        <x:v>12326</x:v>
+      </x:c>
+      <x:c r="DJ84" s="4" t="n">
+        <x:v>12433</x:v>
+      </x:c>
+      <x:c r="DK84" s="4" t="n">
+        <x:v>12375</x:v>
+      </x:c>
+      <x:c r="DL84" s="4" t="n">
+        <x:v>12380</x:v>
+      </x:c>
+      <x:c r="DM84" s="4" t="n">
+        <x:v>12589</x:v>
+      </x:c>
+      <x:c r="DN84" s="4" t="n">
+        <x:v>12910</x:v>
+      </x:c>
+      <x:c r="DO84" s="4" t="n">
+        <x:v>13169</x:v>
+      </x:c>
+      <x:c r="DP84" s="4" t="n">
+        <x:v>13685</x:v>
+      </x:c>
+      <x:c r="DQ84" s="4" t="n">
+        <x:v>13753</x:v>
+      </x:c>
+      <x:c r="DR84" s="4" t="n">
+        <x:v>13726</x:v>
+      </x:c>
+      <x:c r="DS84" s="4" t="n">
+        <x:v>13671</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:110">
+    <x:row r="85" spans="1:123">
       <x:c r="C85" s="3" t="s">
-        <x:v>193</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D85" s="4" t="n">
         <x:v>4006</x:v>
@@ -28194,18 +31421,57 @@
         <x:v>13474</x:v>
       </x:c>
       <x:c r="DD85" s="4" t="n">
-        <x:v>13770</x:v>
+        <x:v>13759</x:v>
       </x:c>
       <x:c r="DE85" s="4" t="n">
-        <x:v>14215</x:v>
+        <x:v>14220</x:v>
       </x:c>
       <x:c r="DF85" s="4" t="n">
-        <x:v>14282</x:v>
+        <x:v>14289</x:v>
+      </x:c>
+      <x:c r="DG85" s="4" t="n">
+        <x:v>14108</x:v>
+      </x:c>
+      <x:c r="DH85" s="4" t="n">
+        <x:v>14104</x:v>
+      </x:c>
+      <x:c r="DI85" s="4" t="n">
+        <x:v>14490</x:v>
+      </x:c>
+      <x:c r="DJ85" s="4" t="n">
+        <x:v>14742</x:v>
+      </x:c>
+      <x:c r="DK85" s="4" t="n">
+        <x:v>14598</x:v>
+      </x:c>
+      <x:c r="DL85" s="4" t="n">
+        <x:v>14643</x:v>
+      </x:c>
+      <x:c r="DM85" s="4" t="n">
+        <x:v>14986</x:v>
+      </x:c>
+      <x:c r="DN85" s="4" t="n">
+        <x:v>15332</x:v>
+      </x:c>
+      <x:c r="DO85" s="4" t="n">
+        <x:v>15638</x:v>
+      </x:c>
+      <x:c r="DP85" s="4" t="n">
+        <x:v>16400</x:v>
+      </x:c>
+      <x:c r="DQ85" s="4" t="n">
+        <x:v>16433</x:v>
+      </x:c>
+      <x:c r="DR85" s="4" t="n">
+        <x:v>16318</x:v>
+      </x:c>
+      <x:c r="DS85" s="4" t="n">
+        <x:v>16384</x:v>
       </x:c>
     </x:row>
-    <x:row r="86" spans="1:110">
+    <x:row r="86" spans="1:123">
       <x:c r="C86" s="3" t="s">
-        <x:v>194</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D86" s="4" t="n">
         <x:v>3652</x:v>
@@ -28520,18 +31786,57 @@
         <x:v>10972</x:v>
       </x:c>
       <x:c r="DD86" s="4" t="n">
-        <x:v>11608</x:v>
+        <x:v>11478</x:v>
       </x:c>
       <x:c r="DE86" s="4" t="n">
-        <x:v>11927</x:v>
+        <x:v>11622</x:v>
       </x:c>
       <x:c r="DF86" s="4" t="n">
-        <x:v>13265</x:v>
+        <x:v>12787</x:v>
+      </x:c>
+      <x:c r="DG86" s="4" t="n">
+        <x:v>12463</x:v>
+      </x:c>
+      <x:c r="DH86" s="4" t="n">
+        <x:v>11976</x:v>
+      </x:c>
+      <x:c r="DI86" s="4" t="n">
+        <x:v>12516</x:v>
+      </x:c>
+      <x:c r="DJ86" s="4" t="n">
+        <x:v>12578</x:v>
+      </x:c>
+      <x:c r="DK86" s="4" t="n">
+        <x:v>11522</x:v>
+      </x:c>
+      <x:c r="DL86" s="4" t="n">
+        <x:v>13244</x:v>
+      </x:c>
+      <x:c r="DM86" s="4" t="n">
+        <x:v>12775</x:v>
+      </x:c>
+      <x:c r="DN86" s="4" t="n">
+        <x:v>13425</x:v>
+      </x:c>
+      <x:c r="DO86" s="4" t="n">
+        <x:v>12907</x:v>
+      </x:c>
+      <x:c r="DP86" s="4" t="n">
+        <x:v>13390</x:v>
+      </x:c>
+      <x:c r="DQ86" s="4" t="n">
+        <x:v>11810</x:v>
+      </x:c>
+      <x:c r="DR86" s="4" t="n">
+        <x:v>12828</x:v>
+      </x:c>
+      <x:c r="DS86" s="4" t="n">
+        <x:v>12801</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:110">
+    <x:row r="87" spans="1:123">
       <x:c r="C87" s="3" t="s">
-        <x:v>195</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D87" s="4" t="n">
         <x:v>3286</x:v>
@@ -28846,18 +32151,57 @@
         <x:v>9161</x:v>
       </x:c>
       <x:c r="DD87" s="4" t="n">
-        <x:v>8007</x:v>
+        <x:v>8006</x:v>
       </x:c>
       <x:c r="DE87" s="4" t="n">
-        <x:v>9262</x:v>
+        <x:v>9303</x:v>
       </x:c>
       <x:c r="DF87" s="4" t="n">
-        <x:v>8694</x:v>
+        <x:v>9037</x:v>
+      </x:c>
+      <x:c r="DG87" s="4" t="n">
+        <x:v>8526</x:v>
+      </x:c>
+      <x:c r="DH87" s="4" t="n">
+        <x:v>9000</x:v>
+      </x:c>
+      <x:c r="DI87" s="4" t="n">
+        <x:v>9026</x:v>
+      </x:c>
+      <x:c r="DJ87" s="4" t="n">
+        <x:v>8802</x:v>
+      </x:c>
+      <x:c r="DK87" s="4" t="n">
+        <x:v>9193</x:v>
+      </x:c>
+      <x:c r="DL87" s="4" t="n">
+        <x:v>9260</x:v>
+      </x:c>
+      <x:c r="DM87" s="4" t="n">
+        <x:v>8692</x:v>
+      </x:c>
+      <x:c r="DN87" s="4" t="n">
+        <x:v>8495</x:v>
+      </x:c>
+      <x:c r="DO87" s="4" t="n">
+        <x:v>8873</x:v>
+      </x:c>
+      <x:c r="DP87" s="4" t="n">
+        <x:v>10084</x:v>
+      </x:c>
+      <x:c r="DQ87" s="4" t="n">
+        <x:v>9771</x:v>
+      </x:c>
+      <x:c r="DR87" s="4" t="n">
+        <x:v>9943</x:v>
+      </x:c>
+      <x:c r="DS87" s="4" t="n">
+        <x:v>10134</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:110">
+    <x:row r="88" spans="1:123">
       <x:c r="C88" s="3" t="s">
-        <x:v>196</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D88" s="4" t="n">
         <x:v>3439</x:v>
@@ -29172,18 +32516,57 @@
         <x:v>11473</x:v>
       </x:c>
       <x:c r="DD88" s="4" t="n">
-        <x:v>11507</x:v>
+        <x:v>11487</x:v>
       </x:c>
       <x:c r="DE88" s="4" t="n">
-        <x:v>11920</x:v>
+        <x:v>11901</x:v>
       </x:c>
       <x:c r="DF88" s="4" t="n">
-        <x:v>11645</x:v>
+        <x:v>11851</x:v>
+      </x:c>
+      <x:c r="DG88" s="4" t="n">
+        <x:v>11608</x:v>
+      </x:c>
+      <x:c r="DH88" s="4" t="n">
+        <x:v>11401</x:v>
+      </x:c>
+      <x:c r="DI88" s="4" t="n">
+        <x:v>11743</x:v>
+      </x:c>
+      <x:c r="DJ88" s="4" t="n">
+        <x:v>11225</x:v>
+      </x:c>
+      <x:c r="DK88" s="4" t="n">
+        <x:v>12402</x:v>
+      </x:c>
+      <x:c r="DL88" s="4" t="n">
+        <x:v>11951</x:v>
+      </x:c>
+      <x:c r="DM88" s="4" t="n">
+        <x:v>12489</x:v>
+      </x:c>
+      <x:c r="DN88" s="4" t="n">
+        <x:v>12389</x:v>
+      </x:c>
+      <x:c r="DO88" s="4" t="n">
+        <x:v>12634</x:v>
+      </x:c>
+      <x:c r="DP88" s="4" t="n">
+        <x:v>12815</x:v>
+      </x:c>
+      <x:c r="DQ88" s="4" t="n">
+        <x:v>13110</x:v>
+      </x:c>
+      <x:c r="DR88" s="4" t="n">
+        <x:v>12712</x:v>
+      </x:c>
+      <x:c r="DS88" s="4" t="n">
+        <x:v>13020</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:110">
+    <x:row r="89" spans="1:123">
       <x:c r="C89" s="3" t="s">
-        <x:v>197</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D89" s="4" t="n">
         <x:v>2989</x:v>
@@ -29498,18 +32881,57 @@
         <x:v>6388</x:v>
       </x:c>
       <x:c r="DD89" s="4" t="n">
-        <x:v>6899</x:v>
+        <x:v>6897</x:v>
       </x:c>
       <x:c r="DE89" s="4" t="n">
-        <x:v>6848</x:v>
+        <x:v>6850</x:v>
       </x:c>
       <x:c r="DF89" s="4" t="n">
-        <x:v>6516</x:v>
+        <x:v>6686</x:v>
+      </x:c>
+      <x:c r="DG89" s="4" t="n">
+        <x:v>7361</x:v>
+      </x:c>
+      <x:c r="DH89" s="4" t="n">
+        <x:v>6533</x:v>
+      </x:c>
+      <x:c r="DI89" s="4" t="n">
+        <x:v>6934</x:v>
+      </x:c>
+      <x:c r="DJ89" s="4" t="n">
+        <x:v>7537</x:v>
+      </x:c>
+      <x:c r="DK89" s="4" t="n">
+        <x:v>6392</x:v>
+      </x:c>
+      <x:c r="DL89" s="4" t="n">
+        <x:v>7323</x:v>
+      </x:c>
+      <x:c r="DM89" s="4" t="n">
+        <x:v>6849</x:v>
+      </x:c>
+      <x:c r="DN89" s="4" t="n">
+        <x:v>6663</x:v>
+      </x:c>
+      <x:c r="DO89" s="4" t="n">
+        <x:v>7187</x:v>
+      </x:c>
+      <x:c r="DP89" s="4" t="n">
+        <x:v>7920</x:v>
+      </x:c>
+      <x:c r="DQ89" s="4" t="n">
+        <x:v>7476</x:v>
+      </x:c>
+      <x:c r="DR89" s="4" t="n">
+        <x:v>8166</x:v>
+      </x:c>
+      <x:c r="DS89" s="4" t="n">
+        <x:v>6962</x:v>
       </x:c>
     </x:row>
-    <x:row r="90" spans="1:110">
+    <x:row r="90" spans="1:123">
       <x:c r="C90" s="3" t="s">
-        <x:v>198</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D90" s="4" t="n">
         <x:v>3753</x:v>
@@ -29824,18 +33246,57 @@
         <x:v>12642</x:v>
       </x:c>
       <x:c r="DD90" s="4" t="n">
-        <x:v>12478</x:v>
+        <x:v>12472</x:v>
       </x:c>
       <x:c r="DE90" s="4" t="n">
-        <x:v>13274</x:v>
+        <x:v>12956</x:v>
       </x:c>
       <x:c r="DF90" s="4" t="n">
-        <x:v>13198</x:v>
+        <x:v>12408</x:v>
+      </x:c>
+      <x:c r="DG90" s="4" t="n">
+        <x:v>13437</x:v>
+      </x:c>
+      <x:c r="DH90" s="4" t="n">
+        <x:v>13035</x:v>
+      </x:c>
+      <x:c r="DI90" s="4" t="n">
+        <x:v>12920</x:v>
+      </x:c>
+      <x:c r="DJ90" s="4" t="n">
+        <x:v>13823</x:v>
+      </x:c>
+      <x:c r="DK90" s="4" t="n">
+        <x:v>12792</x:v>
+      </x:c>
+      <x:c r="DL90" s="4" t="n">
+        <x:v>13245</x:v>
+      </x:c>
+      <x:c r="DM90" s="4" t="n">
+        <x:v>13809</x:v>
+      </x:c>
+      <x:c r="DN90" s="4" t="n">
+        <x:v>14003</x:v>
+      </x:c>
+      <x:c r="DO90" s="4" t="n">
+        <x:v>13638</x:v>
+      </x:c>
+      <x:c r="DP90" s="4" t="n">
+        <x:v>15334</x:v>
+      </x:c>
+      <x:c r="DQ90" s="4" t="n">
+        <x:v>14644</x:v>
+      </x:c>
+      <x:c r="DR90" s="4" t="n">
+        <x:v>12942</x:v>
+      </x:c>
+      <x:c r="DS90" s="4" t="n">
+        <x:v>14460</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:110">
+    <x:row r="91" spans="1:123">
       <x:c r="C91" s="3" t="s">
-        <x:v>199</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D91" s="4" t="n">
         <x:v>3480</x:v>
@@ -30150,18 +33611,57 @@
         <x:v>9525</x:v>
       </x:c>
       <x:c r="DD91" s="4" t="n">
-        <x:v>9896</x:v>
+        <x:v>9962</x:v>
       </x:c>
       <x:c r="DE91" s="4" t="n">
-        <x:v>9896</x:v>
+        <x:v>9968</x:v>
       </x:c>
       <x:c r="DF91" s="4" t="n">
-        <x:v>10220</x:v>
+        <x:v>10413</x:v>
+      </x:c>
+      <x:c r="DG91" s="4" t="n">
+        <x:v>10501</x:v>
+      </x:c>
+      <x:c r="DH91" s="4" t="n">
+        <x:v>10206</x:v>
+      </x:c>
+      <x:c r="DI91" s="4" t="n">
+        <x:v>10713</x:v>
+      </x:c>
+      <x:c r="DJ91" s="4" t="n">
+        <x:v>10243</x:v>
+      </x:c>
+      <x:c r="DK91" s="4" t="n">
+        <x:v>10161</x:v>
+      </x:c>
+      <x:c r="DL91" s="4" t="n">
+        <x:v>9938</x:v>
+      </x:c>
+      <x:c r="DM91" s="4" t="n">
+        <x:v>10838</x:v>
+      </x:c>
+      <x:c r="DN91" s="4" t="n">
+        <x:v>10251</x:v>
+      </x:c>
+      <x:c r="DO91" s="4" t="n">
+        <x:v>10380</x:v>
+      </x:c>
+      <x:c r="DP91" s="4" t="n">
+        <x:v>11016</x:v>
+      </x:c>
+      <x:c r="DQ91" s="4" t="n">
+        <x:v>11170</x:v>
+      </x:c>
+      <x:c r="DR91" s="4" t="n">
+        <x:v>11479</x:v>
+      </x:c>
+      <x:c r="DS91" s="4" t="n">
+        <x:v>11071</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:110">
+    <x:row r="92" spans="1:123">
       <x:c r="C92" s="3" t="s">
-        <x:v>200</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D92" s="4" t="n">
         <x:v>2169</x:v>
@@ -30320,7 +33820,7 @@
         <x:v>4707</x:v>
       </x:c>
       <x:c r="BD92" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BE92" s="4" t="n">
         <x:v>9250</x:v>
@@ -30335,7 +33835,7 @@
         <x:v>4900</x:v>
       </x:c>
       <x:c r="BI92" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BJ92" s="4" t="n">
         <x:v>7110</x:v>
@@ -30365,7 +33865,7 @@
         <x:v>8401</x:v>
       </x:c>
       <x:c r="BS92" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BT92" s="4" t="n">
         <x:v>8532</x:v>
@@ -30410,7 +33910,7 @@
         <x:v>6775</x:v>
       </x:c>
       <x:c r="CH92" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CI92" s="4" t="n">
         <x:v>6123</x:v>
@@ -30419,7 +33919,7 @@
         <x:v>6598</x:v>
       </x:c>
       <x:c r="CK92" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CL92" s="4" t="n">
         <x:v>4467</x:v>
@@ -30428,7 +33928,7 @@
         <x:v>5275</x:v>
       </x:c>
       <x:c r="CN92" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CO92" s="4" t="n">
         <x:v>4803</x:v>
@@ -30479,15 +33979,54 @@
         <x:v>7168</x:v>
       </x:c>
       <x:c r="DE92" s="4" t="n">
-        <x:v>7275</x:v>
+        <x:v>7425</x:v>
       </x:c>
       <x:c r="DF92" s="4" t="n">
-        <x:v>7281</x:v>
+        <x:v>7417</x:v>
+      </x:c>
+      <x:c r="DG92" s="4" t="n">
+        <x:v>6258</x:v>
+      </x:c>
+      <x:c r="DH92" s="4" t="n">
+        <x:v>8279</x:v>
+      </x:c>
+      <x:c r="DI92" s="4" t="n">
+        <x:v>6816</x:v>
+      </x:c>
+      <x:c r="DJ92" s="4" t="n">
+        <x:v>7234</x:v>
+      </x:c>
+      <x:c r="DK92" s="4" t="n">
+        <x:v>6445</x:v>
+      </x:c>
+      <x:c r="DL92" s="4" t="n">
+        <x:v>6982</x:v>
+      </x:c>
+      <x:c r="DM92" s="4" t="n">
+        <x:v>7812</x:v>
+      </x:c>
+      <x:c r="DN92" s="4" t="n">
+        <x:v>7367</x:v>
+      </x:c>
+      <x:c r="DO92" s="4" t="n">
+        <x:v>7333</x:v>
+      </x:c>
+      <x:c r="DP92" s="4" t="n">
+        <x:v>7781</x:v>
+      </x:c>
+      <x:c r="DQ92" s="4" t="n">
+        <x:v>10458</x:v>
+      </x:c>
+      <x:c r="DR92" s="4" t="n">
+        <x:v>9337</x:v>
+      </x:c>
+      <x:c r="DS92" s="4" t="n">
+        <x:v>10621</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:110">
+    <x:row r="93" spans="1:123">
       <x:c r="C93" s="3" t="s">
-        <x:v>201</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D93" s="4" t="n">
         <x:v>3828</x:v>
@@ -30802,18 +34341,57 @@
         <x:v>14238</x:v>
       </x:c>
       <x:c r="DD93" s="4" t="n">
-        <x:v>12999</x:v>
+        <x:v>12995</x:v>
       </x:c>
       <x:c r="DE93" s="4" t="n">
-        <x:v>13284</x:v>
+        <x:v>13190</x:v>
       </x:c>
       <x:c r="DF93" s="4" t="n">
-        <x:v>13498</x:v>
+        <x:v>13629</x:v>
+      </x:c>
+      <x:c r="DG93" s="4" t="n">
+        <x:v>13480</x:v>
+      </x:c>
+      <x:c r="DH93" s="4" t="n">
+        <x:v>13477</x:v>
+      </x:c>
+      <x:c r="DI93" s="4" t="n">
+        <x:v>13835</x:v>
+      </x:c>
+      <x:c r="DJ93" s="4" t="n">
+        <x:v>14429</x:v>
+      </x:c>
+      <x:c r="DK93" s="4" t="n">
+        <x:v>14127</x:v>
+      </x:c>
+      <x:c r="DL93" s="4" t="n">
+        <x:v>14011</x:v>
+      </x:c>
+      <x:c r="DM93" s="4" t="n">
+        <x:v>14652</x:v>
+      </x:c>
+      <x:c r="DN93" s="4" t="n">
+        <x:v>15202</x:v>
+      </x:c>
+      <x:c r="DO93" s="4" t="n">
+        <x:v>15326</x:v>
+      </x:c>
+      <x:c r="DP93" s="4" t="n">
+        <x:v>15237</x:v>
+      </x:c>
+      <x:c r="DQ93" s="4" t="n">
+        <x:v>15892</x:v>
+      </x:c>
+      <x:c r="DR93" s="4" t="n">
+        <x:v>14734</x:v>
+      </x:c>
+      <x:c r="DS93" s="4" t="n">
+        <x:v>14734</x:v>
       </x:c>
     </x:row>
-    <x:row r="94" spans="1:110">
+    <x:row r="94" spans="1:123">
       <x:c r="C94" s="3" t="s">
-        <x:v>202</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D94" s="4" t="n">
         <x:v>4499</x:v>
@@ -31128,18 +34706,57 @@
         <x:v>14935</x:v>
       </x:c>
       <x:c r="DD94" s="4" t="n">
-        <x:v>15951</x:v>
+        <x:v>15978</x:v>
       </x:c>
       <x:c r="DE94" s="4" t="n">
-        <x:v>15189</x:v>
+        <x:v>15045</x:v>
       </x:c>
       <x:c r="DF94" s="4" t="n">
-        <x:v>16862</x:v>
+        <x:v>16293</x:v>
+      </x:c>
+      <x:c r="DG94" s="4" t="n">
+        <x:v>15265</x:v>
+      </x:c>
+      <x:c r="DH94" s="4" t="n">
+        <x:v>16112</x:v>
+      </x:c>
+      <x:c r="DI94" s="4" t="n">
+        <x:v>17118</x:v>
+      </x:c>
+      <x:c r="DJ94" s="4" t="n">
+        <x:v>17416</x:v>
+      </x:c>
+      <x:c r="DK94" s="4" t="n">
+        <x:v>16640</x:v>
+      </x:c>
+      <x:c r="DL94" s="4" t="n">
+        <x:v>16470</x:v>
+      </x:c>
+      <x:c r="DM94" s="4" t="n">
+        <x:v>17419</x:v>
+      </x:c>
+      <x:c r="DN94" s="4" t="n">
+        <x:v>17093</x:v>
+      </x:c>
+      <x:c r="DO94" s="4" t="n">
+        <x:v>17109</x:v>
+      </x:c>
+      <x:c r="DP94" s="4" t="n">
+        <x:v>18394</x:v>
+      </x:c>
+      <x:c r="DQ94" s="4" t="n">
+        <x:v>18835</x:v>
+      </x:c>
+      <x:c r="DR94" s="4" t="n">
+        <x:v>18468</x:v>
+      </x:c>
+      <x:c r="DS94" s="4" t="n">
+        <x:v>19350</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:110">
+    <x:row r="95" spans="1:123">
       <x:c r="C95" s="3" t="s">
-        <x:v>203</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D95" s="4" t="n">
         <x:v>3471</x:v>
@@ -31454,18 +35071,57 @@
         <x:v>9262</x:v>
       </x:c>
       <x:c r="DD95" s="4" t="n">
-        <x:v>11022</x:v>
+        <x:v>11031</x:v>
       </x:c>
       <x:c r="DE95" s="4" t="n">
-        <x:v>10735</x:v>
+        <x:v>10726</x:v>
       </x:c>
       <x:c r="DF95" s="4" t="n">
-        <x:v>10568</x:v>
+        <x:v>10777</x:v>
+      </x:c>
+      <x:c r="DG95" s="4" t="n">
+        <x:v>10288</x:v>
+      </x:c>
+      <x:c r="DH95" s="4" t="n">
+        <x:v>9512</x:v>
+      </x:c>
+      <x:c r="DI95" s="4" t="n">
+        <x:v>11187</x:v>
+      </x:c>
+      <x:c r="DJ95" s="4" t="n">
+        <x:v>11057</x:v>
+      </x:c>
+      <x:c r="DK95" s="4" t="n">
+        <x:v>10874</x:v>
+      </x:c>
+      <x:c r="DL95" s="4" t="n">
+        <x:v>11422</x:v>
+      </x:c>
+      <x:c r="DM95" s="4" t="n">
+        <x:v>11080</x:v>
+      </x:c>
+      <x:c r="DN95" s="4" t="n">
+        <x:v>12001</x:v>
+      </x:c>
+      <x:c r="DO95" s="4" t="n">
+        <x:v>12257</x:v>
+      </x:c>
+      <x:c r="DP95" s="4" t="n">
+        <x:v>13176</x:v>
+      </x:c>
+      <x:c r="DQ95" s="4" t="n">
+        <x:v>13255</x:v>
+      </x:c>
+      <x:c r="DR95" s="4" t="n">
+        <x:v>12148</x:v>
+      </x:c>
+      <x:c r="DS95" s="4" t="n">
+        <x:v>12544</x:v>
       </x:c>
     </x:row>
-    <x:row r="96" spans="1:110">
+    <x:row r="96" spans="1:123">
       <x:c r="C96" s="3" t="s">
-        <x:v>204</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D96" s="4" t="n">
         <x:v>5398</x:v>
@@ -31780,18 +35436,57 @@
         <x:v>20358</x:v>
       </x:c>
       <x:c r="DD96" s="4" t="n">
-        <x:v>21111</x:v>
+        <x:v>21076</x:v>
       </x:c>
       <x:c r="DE96" s="4" t="n">
-        <x:v>22312</x:v>
+        <x:v>22495</x:v>
       </x:c>
       <x:c r="DF96" s="4" t="n">
-        <x:v>21864</x:v>
+        <x:v>21827</x:v>
+      </x:c>
+      <x:c r="DG96" s="4" t="n">
+        <x:v>21717</x:v>
+      </x:c>
+      <x:c r="DH96" s="4" t="n">
+        <x:v>21951</x:v>
+      </x:c>
+      <x:c r="DI96" s="4" t="n">
+        <x:v>21981</x:v>
+      </x:c>
+      <x:c r="DJ96" s="4" t="n">
+        <x:v>22847</x:v>
+      </x:c>
+      <x:c r="DK96" s="4" t="n">
+        <x:v>22831</x:v>
+      </x:c>
+      <x:c r="DL96" s="4" t="n">
+        <x:v>22481</x:v>
+      </x:c>
+      <x:c r="DM96" s="4" t="n">
+        <x:v>22935</x:v>
+      </x:c>
+      <x:c r="DN96" s="4" t="n">
+        <x:v>24120</x:v>
+      </x:c>
+      <x:c r="DO96" s="4" t="n">
+        <x:v>24965</x:v>
+      </x:c>
+      <x:c r="DP96" s="4" t="n">
+        <x:v>26084</x:v>
+      </x:c>
+      <x:c r="DQ96" s="4" t="n">
+        <x:v>26162</x:v>
+      </x:c>
+      <x:c r="DR96" s="4" t="n">
+        <x:v>26423</x:v>
+      </x:c>
+      <x:c r="DS96" s="4" t="n">
+        <x:v>26345</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:110">
+    <x:row r="97" spans="1:123">
       <x:c r="C97" s="3" t="s">
-        <x:v>205</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D97" s="4" t="n">
         <x:v>3515</x:v>
@@ -32106,18 +35801,57 @@
         <x:v>8224</x:v>
       </x:c>
       <x:c r="DD97" s="4" t="n">
-        <x:v>8364</x:v>
+        <x:v>8377</x:v>
       </x:c>
       <x:c r="DE97" s="4" t="n">
-        <x:v>8553</x:v>
+        <x:v>8572</x:v>
       </x:c>
       <x:c r="DF97" s="4" t="n">
-        <x:v>8438</x:v>
+        <x:v>8362</x:v>
+      </x:c>
+      <x:c r="DG97" s="4" t="n">
+        <x:v>8624</x:v>
+      </x:c>
+      <x:c r="DH97" s="4" t="n">
+        <x:v>8339</x:v>
+      </x:c>
+      <x:c r="DI97" s="4" t="n">
+        <x:v>8814</x:v>
+      </x:c>
+      <x:c r="DJ97" s="4" t="n">
+        <x:v>8687</x:v>
+      </x:c>
+      <x:c r="DK97" s="4" t="n">
+        <x:v>8769</x:v>
+      </x:c>
+      <x:c r="DL97" s="4" t="n">
+        <x:v>8694</x:v>
+      </x:c>
+      <x:c r="DM97" s="4" t="n">
+        <x:v>8684</x:v>
+      </x:c>
+      <x:c r="DN97" s="4" t="n">
+        <x:v>8965</x:v>
+      </x:c>
+      <x:c r="DO97" s="4" t="n">
+        <x:v>9146</x:v>
+      </x:c>
+      <x:c r="DP97" s="4" t="n">
+        <x:v>9261</x:v>
+      </x:c>
+      <x:c r="DQ97" s="4" t="n">
+        <x:v>9363</x:v>
+      </x:c>
+      <x:c r="DR97" s="4" t="n">
+        <x:v>9493</x:v>
+      </x:c>
+      <x:c r="DS97" s="4" t="n">
+        <x:v>9252</x:v>
       </x:c>
     </x:row>
-    <x:row r="98" spans="1:110">
+    <x:row r="98" spans="1:123">
       <x:c r="C98" s="3" t="s">
-        <x:v>206</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D98" s="4" t="n">
         <x:v>3689</x:v>
@@ -32432,18 +36166,57 @@
         <x:v>9399</x:v>
       </x:c>
       <x:c r="DD98" s="4" t="n">
-        <x:v>9841</x:v>
+        <x:v>9971</x:v>
       </x:c>
       <x:c r="DE98" s="4" t="n">
-        <x:v>10189</x:v>
+        <x:v>10500</x:v>
       </x:c>
       <x:c r="DF98" s="4" t="n">
-        <x:v>9540</x:v>
+        <x:v>9809</x:v>
+      </x:c>
+      <x:c r="DG98" s="4" t="n">
+        <x:v>10460</x:v>
+      </x:c>
+      <x:c r="DH98" s="4" t="n">
+        <x:v>9760</x:v>
+      </x:c>
+      <x:c r="DI98" s="4" t="n">
+        <x:v>10123</x:v>
+      </x:c>
+      <x:c r="DJ98" s="4" t="n">
+        <x:v>10589</x:v>
+      </x:c>
+      <x:c r="DK98" s="4" t="n">
+        <x:v>10745</x:v>
+      </x:c>
+      <x:c r="DL98" s="4" t="n">
+        <x:v>10390</x:v>
+      </x:c>
+      <x:c r="DM98" s="4" t="n">
+        <x:v>9931</x:v>
+      </x:c>
+      <x:c r="DN98" s="4" t="n">
+        <x:v>10520</x:v>
+      </x:c>
+      <x:c r="DO98" s="4" t="n">
+        <x:v>10636</x:v>
+      </x:c>
+      <x:c r="DP98" s="4" t="n">
+        <x:v>11478</x:v>
+      </x:c>
+      <x:c r="DQ98" s="4" t="n">
+        <x:v>11019</x:v>
+      </x:c>
+      <x:c r="DR98" s="4" t="n">
+        <x:v>11053</x:v>
+      </x:c>
+      <x:c r="DS98" s="4" t="n">
+        <x:v>10353</x:v>
       </x:c>
     </x:row>
-    <x:row r="99" spans="1:110">
+    <x:row r="99" spans="1:123">
       <x:c r="C99" s="3" t="s">
-        <x:v>207</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D99" s="4" t="n">
         <x:v>3978</x:v>
@@ -32758,18 +36531,57 @@
         <x:v>9574</x:v>
       </x:c>
       <x:c r="DD99" s="4" t="n">
-        <x:v>10110</x:v>
+        <x:v>10094</x:v>
       </x:c>
       <x:c r="DE99" s="4" t="n">
-        <x:v>10072</x:v>
+        <x:v>9927</x:v>
       </x:c>
       <x:c r="DF99" s="4" t="n">
-        <x:v>10168</x:v>
+        <x:v>9989</x:v>
+      </x:c>
+      <x:c r="DG99" s="4" t="n">
+        <x:v>9535</x:v>
+      </x:c>
+      <x:c r="DH99" s="4" t="n">
+        <x:v>9760</x:v>
+      </x:c>
+      <x:c r="DI99" s="4" t="n">
+        <x:v>10361</x:v>
+      </x:c>
+      <x:c r="DJ99" s="4" t="n">
+        <x:v>9944</x:v>
+      </x:c>
+      <x:c r="DK99" s="4" t="n">
+        <x:v>10478</x:v>
+      </x:c>
+      <x:c r="DL99" s="4" t="n">
+        <x:v>9695</x:v>
+      </x:c>
+      <x:c r="DM99" s="4" t="n">
+        <x:v>11086</x:v>
+      </x:c>
+      <x:c r="DN99" s="4" t="n">
+        <x:v>11188</x:v>
+      </x:c>
+      <x:c r="DO99" s="4" t="n">
+        <x:v>12056</x:v>
+      </x:c>
+      <x:c r="DP99" s="4" t="n">
+        <x:v>11052</x:v>
+      </x:c>
+      <x:c r="DQ99" s="4" t="n">
+        <x:v>11328</x:v>
+      </x:c>
+      <x:c r="DR99" s="4" t="n">
+        <x:v>11571</x:v>
+      </x:c>
+      <x:c r="DS99" s="4" t="n">
+        <x:v>11527</x:v>
       </x:c>
     </x:row>
-    <x:row r="100" spans="1:110">
+    <x:row r="100" spans="1:123">
       <x:c r="C100" s="3" t="s">
-        <x:v>208</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D100" s="4" t="n">
         <x:v>3698</x:v>
@@ -33084,18 +36896,57 @@
         <x:v>8384</x:v>
       </x:c>
       <x:c r="DD100" s="4" t="n">
-        <x:v>8049</x:v>
+        <x:v>8002</x:v>
       </x:c>
       <x:c r="DE100" s="4" t="n">
-        <x:v>9030</x:v>
+        <x:v>8940</x:v>
       </x:c>
       <x:c r="DF100" s="4" t="n">
-        <x:v>9180</x:v>
+        <x:v>9435</x:v>
+      </x:c>
+      <x:c r="DG100" s="4" t="n">
+        <x:v>8507</x:v>
+      </x:c>
+      <x:c r="DH100" s="4" t="n">
+        <x:v>9021</x:v>
+      </x:c>
+      <x:c r="DI100" s="4" t="n">
+        <x:v>9117</x:v>
+      </x:c>
+      <x:c r="DJ100" s="4" t="n">
+        <x:v>9223</x:v>
+      </x:c>
+      <x:c r="DK100" s="4" t="n">
+        <x:v>8642</x:v>
+      </x:c>
+      <x:c r="DL100" s="4" t="n">
+        <x:v>8740</x:v>
+      </x:c>
+      <x:c r="DM100" s="4" t="n">
+        <x:v>9157</x:v>
+      </x:c>
+      <x:c r="DN100" s="4" t="n">
+        <x:v>8868</x:v>
+      </x:c>
+      <x:c r="DO100" s="4" t="n">
+        <x:v>9010</x:v>
+      </x:c>
+      <x:c r="DP100" s="4" t="n">
+        <x:v>10184</x:v>
+      </x:c>
+      <x:c r="DQ100" s="4" t="n">
+        <x:v>10031</x:v>
+      </x:c>
+      <x:c r="DR100" s="4" t="n">
+        <x:v>9583</x:v>
+      </x:c>
+      <x:c r="DS100" s="4" t="n">
+        <x:v>9644</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:110">
+    <x:row r="101" spans="1:123">
       <x:c r="C101" s="3" t="s">
-        <x:v>209</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D101" s="4" t="n">
         <x:v>2505</x:v>
@@ -33410,18 +37261,57 @@
         <x:v>5038</x:v>
       </x:c>
       <x:c r="DD101" s="4" t="n">
-        <x:v>4942</x:v>
+        <x:v>4983</x:v>
       </x:c>
       <x:c r="DE101" s="4" t="n">
-        <x:v>5451</x:v>
+        <x:v>5453</x:v>
       </x:c>
       <x:c r="DF101" s="4" t="n">
-        <x:v>5587</x:v>
+        <x:v>4885</x:v>
+      </x:c>
+      <x:c r="DG101" s="4" t="n">
+        <x:v>5017</x:v>
+      </x:c>
+      <x:c r="DH101" s="4" t="n">
+        <x:v>5100</x:v>
+      </x:c>
+      <x:c r="DI101" s="4" t="n">
+        <x:v>5230</x:v>
+      </x:c>
+      <x:c r="DJ101" s="4" t="n">
+        <x:v>5265</x:v>
+      </x:c>
+      <x:c r="DK101" s="4" t="n">
+        <x:v>5104</x:v>
+      </x:c>
+      <x:c r="DL101" s="4" t="n">
+        <x:v>5789</x:v>
+      </x:c>
+      <x:c r="DM101" s="4" t="n">
+        <x:v>5142</x:v>
+      </x:c>
+      <x:c r="DN101" s="4" t="n">
+        <x:v>5170</x:v>
+      </x:c>
+      <x:c r="DO101" s="4" t="n">
+        <x:v>6003</x:v>
+      </x:c>
+      <x:c r="DP101" s="4" t="n">
+        <x:v>5645</x:v>
+      </x:c>
+      <x:c r="DQ101" s="4" t="n">
+        <x:v>5775</x:v>
+      </x:c>
+      <x:c r="DR101" s="4" t="n">
+        <x:v>6543</x:v>
+      </x:c>
+      <x:c r="DS101" s="4" t="n">
+        <x:v>6176</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:110">
+    <x:row r="102" spans="1:123">
       <x:c r="C102" s="3" t="s">
-        <x:v>210</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D102" s="4" t="n">
         <x:v>3209</x:v>
@@ -33736,18 +37626,57 @@
         <x:v>6341</x:v>
       </x:c>
       <x:c r="DD102" s="4" t="n">
-        <x:v>6664</x:v>
+        <x:v>6665</x:v>
       </x:c>
       <x:c r="DE102" s="4" t="n">
-        <x:v>6791</x:v>
+        <x:v>6688</x:v>
       </x:c>
       <x:c r="DF102" s="4" t="n">
-        <x:v>6531</x:v>
+        <x:v>6347</x:v>
+      </x:c>
+      <x:c r="DG102" s="4" t="n">
+        <x:v>7147</x:v>
+      </x:c>
+      <x:c r="DH102" s="4" t="n">
+        <x:v>7109</x:v>
+      </x:c>
+      <x:c r="DI102" s="4" t="n">
+        <x:v>6737</x:v>
+      </x:c>
+      <x:c r="DJ102" s="4" t="n">
+        <x:v>7109</x:v>
+      </x:c>
+      <x:c r="DK102" s="4" t="n">
+        <x:v>6676</x:v>
+      </x:c>
+      <x:c r="DL102" s="4" t="n">
+        <x:v>7165</x:v>
+      </x:c>
+      <x:c r="DM102" s="4" t="n">
+        <x:v>6495</x:v>
+      </x:c>
+      <x:c r="DN102" s="4" t="n">
+        <x:v>7314</x:v>
+      </x:c>
+      <x:c r="DO102" s="4" t="n">
+        <x:v>7295</x:v>
+      </x:c>
+      <x:c r="DP102" s="4" t="n">
+        <x:v>7250</x:v>
+      </x:c>
+      <x:c r="DQ102" s="4" t="n">
+        <x:v>7468</x:v>
+      </x:c>
+      <x:c r="DR102" s="4" t="n">
+        <x:v>7569</x:v>
+      </x:c>
+      <x:c r="DS102" s="4" t="n">
+        <x:v>7765</x:v>
       </x:c>
     </x:row>
-    <x:row r="103" spans="1:110">
+    <x:row r="103" spans="1:123">
       <x:c r="C103" s="3" t="s">
-        <x:v>211</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D103" s="4" t="n">
         <x:v>3169</x:v>
@@ -34062,18 +37991,57 @@
         <x:v>6603</x:v>
       </x:c>
       <x:c r="DD103" s="4" t="n">
-        <x:v>7052</x:v>
+        <x:v>7110</x:v>
       </x:c>
       <x:c r="DE103" s="4" t="n">
-        <x:v>6055</x:v>
+        <x:v>6036</x:v>
       </x:c>
       <x:c r="DF103" s="4" t="n">
-        <x:v>6577</x:v>
+        <x:v>6499</x:v>
+      </x:c>
+      <x:c r="DG103" s="4" t="n">
+        <x:v>6543</x:v>
+      </x:c>
+      <x:c r="DH103" s="4" t="n">
+        <x:v>5586</x:v>
+      </x:c>
+      <x:c r="DI103" s="4" t="n">
+        <x:v>6866</x:v>
+      </x:c>
+      <x:c r="DJ103" s="4" t="n">
+        <x:v>6312</x:v>
+      </x:c>
+      <x:c r="DK103" s="4" t="n">
+        <x:v>6057</x:v>
+      </x:c>
+      <x:c r="DL103" s="4" t="n">
+        <x:v>5731</x:v>
+      </x:c>
+      <x:c r="DM103" s="4" t="n">
+        <x:v>6018</x:v>
+      </x:c>
+      <x:c r="DN103" s="4" t="n">
+        <x:v>7008</x:v>
+      </x:c>
+      <x:c r="DO103" s="4" t="n">
+        <x:v>6484</x:v>
+      </x:c>
+      <x:c r="DP103" s="4" t="n">
+        <x:v>6614</x:v>
+      </x:c>
+      <x:c r="DQ103" s="4" t="n">
+        <x:v>6753</x:v>
+      </x:c>
+      <x:c r="DR103" s="4" t="n">
+        <x:v>6806</x:v>
+      </x:c>
+      <x:c r="DS103" s="4" t="n">
+        <x:v>6468</x:v>
       </x:c>
     </x:row>
-    <x:row r="104" spans="1:110">
+    <x:row r="104" spans="1:123">
       <x:c r="C104" s="3" t="s">
-        <x:v>212</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D104" s="4" t="n">
         <x:v>3380</x:v>
@@ -34388,18 +38356,57 @@
         <x:v>7192</x:v>
       </x:c>
       <x:c r="DD104" s="4" t="n">
-        <x:v>5538</x:v>
+        <x:v>5587</x:v>
       </x:c>
       <x:c r="DE104" s="4" t="n">
-        <x:v>7595</x:v>
+        <x:v>7766</x:v>
       </x:c>
       <x:c r="DF104" s="4" t="n">
-        <x:v>6480</x:v>
+        <x:v>6580</x:v>
+      </x:c>
+      <x:c r="DG104" s="4" t="n">
+        <x:v>6779</x:v>
+      </x:c>
+      <x:c r="DH104" s="4" t="n">
+        <x:v>6893</x:v>
+      </x:c>
+      <x:c r="DI104" s="4" t="n">
+        <x:v>7445</x:v>
+      </x:c>
+      <x:c r="DJ104" s="4" t="n">
+        <x:v>6539</x:v>
+      </x:c>
+      <x:c r="DK104" s="4" t="n">
+        <x:v>7219</x:v>
+      </x:c>
+      <x:c r="DL104" s="4" t="n">
+        <x:v>7737</x:v>
+      </x:c>
+      <x:c r="DM104" s="4" t="n">
+        <x:v>7632</x:v>
+      </x:c>
+      <x:c r="DN104" s="4" t="n">
+        <x:v>6418</x:v>
+      </x:c>
+      <x:c r="DO104" s="4" t="n">
+        <x:v>7020</x:v>
+      </x:c>
+      <x:c r="DP104" s="4" t="n">
+        <x:v>7880</x:v>
+      </x:c>
+      <x:c r="DQ104" s="4" t="n">
+        <x:v>7100</x:v>
+      </x:c>
+      <x:c r="DR104" s="4" t="n">
+        <x:v>7147</x:v>
+      </x:c>
+      <x:c r="DS104" s="4" t="n">
+        <x:v>7549</x:v>
       </x:c>
     </x:row>
-    <x:row r="105" spans="1:110">
+    <x:row r="105" spans="1:123">
       <x:c r="C105" s="3" t="s">
-        <x:v>213</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D105" s="4" t="n">
         <x:v>3721</x:v>
@@ -34714,18 +38721,57 @@
         <x:v>9581</x:v>
       </x:c>
       <x:c r="DD105" s="4" t="n">
-        <x:v>9638</x:v>
+        <x:v>9564</x:v>
       </x:c>
       <x:c r="DE105" s="4" t="n">
-        <x:v>9610</x:v>
+        <x:v>9596</x:v>
       </x:c>
       <x:c r="DF105" s="4" t="n">
-        <x:v>9638</x:v>
+        <x:v>9385</x:v>
+      </x:c>
+      <x:c r="DG105" s="4" t="n">
+        <x:v>10098</x:v>
+      </x:c>
+      <x:c r="DH105" s="4" t="n">
+        <x:v>9474</x:v>
+      </x:c>
+      <x:c r="DI105" s="4" t="n">
+        <x:v>10336</x:v>
+      </x:c>
+      <x:c r="DJ105" s="4" t="n">
+        <x:v>9833</x:v>
+      </x:c>
+      <x:c r="DK105" s="4" t="n">
+        <x:v>10296</x:v>
+      </x:c>
+      <x:c r="DL105" s="4" t="n">
+        <x:v>10210</x:v>
+      </x:c>
+      <x:c r="DM105" s="4" t="n">
+        <x:v>9985</x:v>
+      </x:c>
+      <x:c r="DN105" s="4" t="n">
+        <x:v>10074</x:v>
+      </x:c>
+      <x:c r="DO105" s="4" t="n">
+        <x:v>10118</x:v>
+      </x:c>
+      <x:c r="DP105" s="4" t="n">
+        <x:v>9898</x:v>
+      </x:c>
+      <x:c r="DQ105" s="4" t="n">
+        <x:v>10591</x:v>
+      </x:c>
+      <x:c r="DR105" s="4" t="n">
+        <x:v>10888</x:v>
+      </x:c>
+      <x:c r="DS105" s="4" t="n">
+        <x:v>10423</x:v>
       </x:c>
     </x:row>
-    <x:row r="106" spans="1:110">
+    <x:row r="106" spans="1:123">
       <x:c r="C106" s="3" t="s">
-        <x:v>214</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D106" s="4" t="n">
         <x:v>3199</x:v>
@@ -35040,18 +39086,57 @@
         <x:v>9440</x:v>
       </x:c>
       <x:c r="DD106" s="4" t="n">
-        <x:v>8930</x:v>
+        <x:v>8904</x:v>
       </x:c>
       <x:c r="DE106" s="4" t="n">
-        <x:v>9204</x:v>
+        <x:v>9236</x:v>
       </x:c>
       <x:c r="DF106" s="4" t="n">
-        <x:v>9289</x:v>
+        <x:v>9299</x:v>
+      </x:c>
+      <x:c r="DG106" s="4" t="n">
+        <x:v>8943</x:v>
+      </x:c>
+      <x:c r="DH106" s="4" t="n">
+        <x:v>9114</x:v>
+      </x:c>
+      <x:c r="DI106" s="4" t="n">
+        <x:v>9279</x:v>
+      </x:c>
+      <x:c r="DJ106" s="4" t="n">
+        <x:v>9393</x:v>
+      </x:c>
+      <x:c r="DK106" s="4" t="n">
+        <x:v>9462</x:v>
+      </x:c>
+      <x:c r="DL106" s="4" t="n">
+        <x:v>9479</x:v>
+      </x:c>
+      <x:c r="DM106" s="4" t="n">
+        <x:v>9712</x:v>
+      </x:c>
+      <x:c r="DN106" s="4" t="n">
+        <x:v>9451</x:v>
+      </x:c>
+      <x:c r="DO106" s="4" t="n">
+        <x:v>9574</x:v>
+      </x:c>
+      <x:c r="DP106" s="4" t="n">
+        <x:v>10078</x:v>
+      </x:c>
+      <x:c r="DQ106" s="4" t="n">
+        <x:v>9997</x:v>
+      </x:c>
+      <x:c r="DR106" s="4" t="n">
+        <x:v>10118</x:v>
+      </x:c>
+      <x:c r="DS106" s="4" t="n">
+        <x:v>9866</x:v>
       </x:c>
     </x:row>
-    <x:row r="107" spans="1:110">
+    <x:row r="107" spans="1:123">
       <x:c r="C107" s="3" t="s">
-        <x:v>215</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D107" s="4" t="n">
         <x:v>3199</x:v>
@@ -35366,18 +39451,57 @@
         <x:v>9440</x:v>
       </x:c>
       <x:c r="DD107" s="4" t="n">
-        <x:v>8930</x:v>
+        <x:v>8904</x:v>
       </x:c>
       <x:c r="DE107" s="4" t="n">
-        <x:v>9204</x:v>
+        <x:v>9236</x:v>
       </x:c>
       <x:c r="DF107" s="4" t="n">
-        <x:v>9289</x:v>
+        <x:v>9299</x:v>
+      </x:c>
+      <x:c r="DG107" s="4" t="n">
+        <x:v>8943</x:v>
+      </x:c>
+      <x:c r="DH107" s="4" t="n">
+        <x:v>9114</x:v>
+      </x:c>
+      <x:c r="DI107" s="4" t="n">
+        <x:v>9279</x:v>
+      </x:c>
+      <x:c r="DJ107" s="4" t="n">
+        <x:v>9393</x:v>
+      </x:c>
+      <x:c r="DK107" s="4" t="n">
+        <x:v>9462</x:v>
+      </x:c>
+      <x:c r="DL107" s="4" t="n">
+        <x:v>9479</x:v>
+      </x:c>
+      <x:c r="DM107" s="4" t="n">
+        <x:v>9712</x:v>
+      </x:c>
+      <x:c r="DN107" s="4" t="n">
+        <x:v>9451</x:v>
+      </x:c>
+      <x:c r="DO107" s="4" t="n">
+        <x:v>9574</x:v>
+      </x:c>
+      <x:c r="DP107" s="4" t="n">
+        <x:v>10078</x:v>
+      </x:c>
+      <x:c r="DQ107" s="4" t="n">
+        <x:v>9997</x:v>
+      </x:c>
+      <x:c r="DR107" s="4" t="n">
+        <x:v>10118</x:v>
+      </x:c>
+      <x:c r="DS107" s="4" t="n">
+        <x:v>9866</x:v>
       </x:c>
     </x:row>
-    <x:row r="108" spans="1:110">
+    <x:row r="108" spans="1:123">
       <x:c r="C108" s="3" t="s">
-        <x:v>216</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D108" s="4" t="n">
         <x:v>2677</x:v>
@@ -35692,18 +39816,57 @@
         <x:v>7156</x:v>
       </x:c>
       <x:c r="DD108" s="4" t="n">
-        <x:v>7328</x:v>
+        <x:v>7249</x:v>
       </x:c>
       <x:c r="DE108" s="4" t="n">
-        <x:v>7793</x:v>
+        <x:v>7766</x:v>
       </x:c>
       <x:c r="DF108" s="4" t="n">
-        <x:v>7550</x:v>
+        <x:v>7776</x:v>
+      </x:c>
+      <x:c r="DG108" s="4" t="n">
+        <x:v>7163</x:v>
+      </x:c>
+      <x:c r="DH108" s="4" t="n">
+        <x:v>7489</x:v>
+      </x:c>
+      <x:c r="DI108" s="4" t="n">
+        <x:v>7214</x:v>
+      </x:c>
+      <x:c r="DJ108" s="4" t="n">
+        <x:v>8523</x:v>
+      </x:c>
+      <x:c r="DK108" s="4" t="n">
+        <x:v>8228</x:v>
+      </x:c>
+      <x:c r="DL108" s="4" t="n">
+        <x:v>7601</x:v>
+      </x:c>
+      <x:c r="DM108" s="4" t="n">
+        <x:v>7220</x:v>
+      </x:c>
+      <x:c r="DN108" s="4" t="n">
+        <x:v>7618</x:v>
+      </x:c>
+      <x:c r="DO108" s="4" t="n">
+        <x:v>7624</x:v>
+      </x:c>
+      <x:c r="DP108" s="4" t="n">
+        <x:v>7815</x:v>
+      </x:c>
+      <x:c r="DQ108" s="4" t="n">
+        <x:v>7362</x:v>
+      </x:c>
+      <x:c r="DR108" s="4" t="n">
+        <x:v>8284</x:v>
+      </x:c>
+      <x:c r="DS108" s="4" t="n">
+        <x:v>7737</x:v>
       </x:c>
     </x:row>
-    <x:row r="109" spans="1:110">
+    <x:row r="109" spans="1:123">
       <x:c r="C109" s="3" t="s">
-        <x:v>217</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D109" s="4" t="n">
         <x:v>3640</x:v>
@@ -36018,18 +40181,57 @@
         <x:v>9216</x:v>
       </x:c>
       <x:c r="DD109" s="4" t="n">
-        <x:v>8792</x:v>
+        <x:v>8785</x:v>
       </x:c>
       <x:c r="DE109" s="4" t="n">
-        <x:v>8755</x:v>
+        <x:v>8874</x:v>
       </x:c>
       <x:c r="DF109" s="4" t="n">
-        <x:v>10248</x:v>
+        <x:v>10086</x:v>
+      </x:c>
+      <x:c r="DG109" s="4" t="n">
+        <x:v>8452</x:v>
+      </x:c>
+      <x:c r="DH109" s="4" t="n">
+        <x:v>8563</x:v>
+      </x:c>
+      <x:c r="DI109" s="4" t="n">
+        <x:v>8308</x:v>
+      </x:c>
+      <x:c r="DJ109" s="4" t="n">
+        <x:v>9305</x:v>
+      </x:c>
+      <x:c r="DK109" s="4" t="n">
+        <x:v>8644</x:v>
+      </x:c>
+      <x:c r="DL109" s="4" t="n">
+        <x:v>9570</x:v>
+      </x:c>
+      <x:c r="DM109" s="4" t="n">
+        <x:v>11308</x:v>
+      </x:c>
+      <x:c r="DN109" s="4" t="n">
+        <x:v>9923</x:v>
+      </x:c>
+      <x:c r="DO109" s="4" t="n">
+        <x:v>9228</x:v>
+      </x:c>
+      <x:c r="DP109" s="4" t="n">
+        <x:v>10663</x:v>
+      </x:c>
+      <x:c r="DQ109" s="4" t="n">
+        <x:v>10119</x:v>
+      </x:c>
+      <x:c r="DR109" s="4" t="n">
+        <x:v>10087</x:v>
+      </x:c>
+      <x:c r="DS109" s="4" t="n">
+        <x:v>9351</x:v>
       </x:c>
     </x:row>
-    <x:row r="110" spans="1:110">
+    <x:row r="110" spans="1:123">
       <x:c r="C110" s="3" t="s">
-        <x:v>218</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D110" s="4" t="n">
         <x:v>3305</x:v>
@@ -36344,18 +40546,57 @@
         <x:v>7577</x:v>
       </x:c>
       <x:c r="DD110" s="4" t="n">
-        <x:v>7175</x:v>
+        <x:v>7215</x:v>
       </x:c>
       <x:c r="DE110" s="4" t="n">
-        <x:v>7319</x:v>
+        <x:v>7287</x:v>
       </x:c>
       <x:c r="DF110" s="4" t="n">
-        <x:v>7698</x:v>
+        <x:v>7648</x:v>
+      </x:c>
+      <x:c r="DG110" s="4" t="n">
+        <x:v>8213</x:v>
+      </x:c>
+      <x:c r="DH110" s="4" t="n">
+        <x:v>7411</x:v>
+      </x:c>
+      <x:c r="DI110" s="4" t="n">
+        <x:v>7863</x:v>
+      </x:c>
+      <x:c r="DJ110" s="4" t="n">
+        <x:v>7470</x:v>
+      </x:c>
+      <x:c r="DK110" s="4" t="n">
+        <x:v>7760</x:v>
+      </x:c>
+      <x:c r="DL110" s="4" t="n">
+        <x:v>8093</x:v>
+      </x:c>
+      <x:c r="DM110" s="4" t="n">
+        <x:v>7258</x:v>
+      </x:c>
+      <x:c r="DN110" s="4" t="n">
+        <x:v>8105</x:v>
+      </x:c>
+      <x:c r="DO110" s="4" t="n">
+        <x:v>7309</x:v>
+      </x:c>
+      <x:c r="DP110" s="4" t="n">
+        <x:v>7666</x:v>
+      </x:c>
+      <x:c r="DQ110" s="4" t="n">
+        <x:v>8440</x:v>
+      </x:c>
+      <x:c r="DR110" s="4" t="n">
+        <x:v>8785</x:v>
+      </x:c>
+      <x:c r="DS110" s="4" t="n">
+        <x:v>8279</x:v>
       </x:c>
     </x:row>
-    <x:row r="111" spans="1:110">
+    <x:row r="111" spans="1:123">
       <x:c r="C111" s="3" t="s">
-        <x:v>219</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D111" s="4" t="n">
         <x:v>2825</x:v>
@@ -36670,21 +40911,60 @@
         <x:v>7948</x:v>
       </x:c>
       <x:c r="DD111" s="4" t="n">
-        <x:v>7280</x:v>
+        <x:v>7326</x:v>
       </x:c>
       <x:c r="DE111" s="4" t="n">
-        <x:v>8067</x:v>
+        <x:v>8170</x:v>
       </x:c>
       <x:c r="DF111" s="4" t="n">
-        <x:v>7408</x:v>
+        <x:v>7785</x:v>
+      </x:c>
+      <x:c r="DG111" s="4" t="n">
+        <x:v>7264</x:v>
+      </x:c>
+      <x:c r="DH111" s="4" t="n">
+        <x:v>7972</x:v>
+      </x:c>
+      <x:c r="DI111" s="4" t="n">
+        <x:v>7721</x:v>
+      </x:c>
+      <x:c r="DJ111" s="4" t="n">
+        <x:v>7182</x:v>
+      </x:c>
+      <x:c r="DK111" s="4" t="n">
+        <x:v>7069</x:v>
+      </x:c>
+      <x:c r="DL111" s="4" t="n">
+        <x:v>8037</x:v>
+      </x:c>
+      <x:c r="DM111" s="4" t="n">
+        <x:v>8813</x:v>
+      </x:c>
+      <x:c r="DN111" s="4" t="n">
+        <x:v>7688</x:v>
+      </x:c>
+      <x:c r="DO111" s="4" t="n">
+        <x:v>8660</x:v>
+      </x:c>
+      <x:c r="DP111" s="4" t="n">
+        <x:v>9261</x:v>
+      </x:c>
+      <x:c r="DQ111" s="4" t="n">
+        <x:v>7900</x:v>
+      </x:c>
+      <x:c r="DR111" s="4" t="n">
+        <x:v>8390</x:v>
+      </x:c>
+      <x:c r="DS111" s="4" t="n">
+        <x:v>7640</x:v>
       </x:c>
     </x:row>
-    <x:row r="112" spans="1:110">
+    <x:row r="112" spans="1:123">
       <x:c r="C112" s="3" t="s">
-        <x:v>220</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E112" s="4" t="n">
         <x:v>2885</x:v>
@@ -36723,7 +41003,7 @@
         <x:v>2570</x:v>
       </x:c>
       <x:c r="Q112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="R112" s="4" t="n">
         <x:v>2626</x:v>
@@ -36801,7 +41081,7 @@
         <x:v>4435</x:v>
       </x:c>
       <x:c r="AQ112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="AR112" s="4" t="n">
         <x:v>3090</x:v>
@@ -36834,7 +41114,7 @@
         <x:v>5914</x:v>
       </x:c>
       <x:c r="BB112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BC112" s="4" t="n">
         <x:v>4702</x:v>
@@ -36852,19 +41132,19 @@
         <x:v>5844</x:v>
       </x:c>
       <x:c r="BH112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BI112" s="4" t="n">
         <x:v>6641</x:v>
       </x:c>
       <x:c r="BJ112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BK112" s="4" t="n">
         <x:v>7424</x:v>
       </x:c>
       <x:c r="BL112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BM112" s="4" t="n">
         <x:v>7374</x:v>
@@ -36873,67 +41153,67 @@
         <x:v>7075</x:v>
       </x:c>
       <x:c r="BO112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BP112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BQ112" s="4" t="n">
         <x:v>6997</x:v>
       </x:c>
       <x:c r="BR112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BS112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BT112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BU112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BV112" s="4" t="n">
         <x:v>7296</x:v>
       </x:c>
       <x:c r="BW112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BX112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BY112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="BZ112" s="4" t="n">
         <x:v>6419</x:v>
       </x:c>
       <x:c r="CA112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CB112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CC112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CD112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CE112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CF112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CG112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CH112" s="4" t="n">
         <x:v>8110</x:v>
       </x:c>
       <x:c r="CI112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CJ112" s="4" t="n">
         <x:v>5791</x:v>
@@ -36942,37 +41222,37 @@
         <x:v>6291</x:v>
       </x:c>
       <x:c r="CL112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CM112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CN112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CO112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CP112" s="4" t="n">
         <x:v>5749</x:v>
       </x:c>
       <x:c r="CQ112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CR112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CS112" s="4" t="n">
         <x:v>6718</x:v>
       </x:c>
       <x:c r="CT112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CU112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CV112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="CW112" s="4" t="n">
         <x:v>4019</x:v>
@@ -36984,10 +41264,10 @@
         <x:v>5934</x:v>
       </x:c>
       <x:c r="CZ112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="DA112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="DB112" s="4" t="n">
         <x:v>6520</x:v>
@@ -36996,18 +41276,57 @@
         <x:v>6661</x:v>
       </x:c>
       <x:c r="DD112" s="4" t="n">
-        <x:v>6375</x:v>
+        <x:v>6373</x:v>
       </x:c>
       <x:c r="DE112" s="5" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="DF112" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="DF112" s="4" t="n">
+        <x:v>10209</x:v>
+      </x:c>
+      <x:c r="DG112" s="4" t="n">
+        <x:v>6146</x:v>
+      </x:c>
+      <x:c r="DH112" s="4" t="n">
+        <x:v>5449</x:v>
+      </x:c>
+      <x:c r="DI112" s="4" t="n">
+        <x:v>7808</x:v>
+      </x:c>
+      <x:c r="DJ112" s="4" t="n">
+        <x:v>5778</x:v>
+      </x:c>
+      <x:c r="DK112" s="4" t="n">
+        <x:v>5646</x:v>
+      </x:c>
+      <x:c r="DL112" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="DM112" s="4" t="n">
+        <x:v>7673</x:v>
+      </x:c>
+      <x:c r="DN112" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="DO112" s="4" t="n">
+        <x:v>6663</x:v>
+      </x:c>
+      <x:c r="DP112" s="4" t="n">
+        <x:v>5887</x:v>
+      </x:c>
+      <x:c r="DQ112" s="4" t="n">
+        <x:v>8766</x:v>
+      </x:c>
+      <x:c r="DR112" s="4" t="n">
+        <x:v>5634</x:v>
+      </x:c>
+      <x:c r="DS112" s="5" t="s">
+        <x:v>129</x:v>
       </x:c>
     </x:row>
-    <x:row r="113" spans="1:110">
+    <x:row r="113" spans="1:123">
       <x:c r="C113" s="3" t="s">
-        <x:v>221</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D113" s="4" t="n">
         <x:v>2758</x:v>
@@ -37322,18 +41641,57 @@
         <x:v>7439</x:v>
       </x:c>
       <x:c r="DD113" s="4" t="n">
-        <x:v>7134</x:v>
+        <x:v>7159</x:v>
       </x:c>
       <x:c r="DE113" s="4" t="n">
-        <x:v>7766</x:v>
+        <x:v>7808</x:v>
       </x:c>
       <x:c r="DF113" s="4" t="n">
-        <x:v>6829</x:v>
+        <x:v>7222</x:v>
+      </x:c>
+      <x:c r="DG113" s="4" t="n">
+        <x:v>7316</x:v>
+      </x:c>
+      <x:c r="DH113" s="4" t="n">
+        <x:v>6978</x:v>
+      </x:c>
+      <x:c r="DI113" s="4" t="n">
+        <x:v>7639</x:v>
+      </x:c>
+      <x:c r="DJ113" s="4" t="n">
+        <x:v>8080</x:v>
+      </x:c>
+      <x:c r="DK113" s="4" t="n">
+        <x:v>7653</x:v>
+      </x:c>
+      <x:c r="DL113" s="4" t="n">
+        <x:v>6816</x:v>
+      </x:c>
+      <x:c r="DM113" s="4" t="n">
+        <x:v>7640</x:v>
+      </x:c>
+      <x:c r="DN113" s="4" t="n">
+        <x:v>7667</x:v>
+      </x:c>
+      <x:c r="DO113" s="4" t="n">
+        <x:v>7771</x:v>
+      </x:c>
+      <x:c r="DP113" s="4" t="n">
+        <x:v>7873</x:v>
+      </x:c>
+      <x:c r="DQ113" s="4" t="n">
+        <x:v>7747</x:v>
+      </x:c>
+      <x:c r="DR113" s="4" t="n">
+        <x:v>8282</x:v>
+      </x:c>
+      <x:c r="DS113" s="4" t="n">
+        <x:v>8526</x:v>
       </x:c>
     </x:row>
-    <x:row r="114" spans="1:110">
+    <x:row r="114" spans="1:123">
       <x:c r="C114" s="3" t="s">
-        <x:v>222</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D114" s="4" t="n">
         <x:v>2706</x:v>
@@ -37648,18 +42006,57 @@
         <x:v>5778</x:v>
       </x:c>
       <x:c r="DD114" s="4" t="n">
-        <x:v>5015</x:v>
+        <x:v>5018</x:v>
       </x:c>
       <x:c r="DE114" s="4" t="n">
-        <x:v>4651</x:v>
+        <x:v>4656</x:v>
       </x:c>
       <x:c r="DF114" s="4" t="n">
-        <x:v>5154</x:v>
+        <x:v>5431</x:v>
+      </x:c>
+      <x:c r="DG114" s="4" t="n">
+        <x:v>4950</x:v>
+      </x:c>
+      <x:c r="DH114" s="4" t="n">
+        <x:v>5511</x:v>
+      </x:c>
+      <x:c r="DI114" s="4" t="n">
+        <x:v>4893</x:v>
+      </x:c>
+      <x:c r="DJ114" s="4" t="n">
+        <x:v>5501</x:v>
+      </x:c>
+      <x:c r="DK114" s="4" t="n">
+        <x:v>4972</x:v>
+      </x:c>
+      <x:c r="DL114" s="4" t="n">
+        <x:v>4911</x:v>
+      </x:c>
+      <x:c r="DM114" s="4" t="n">
+        <x:v>5584</x:v>
+      </x:c>
+      <x:c r="DN114" s="4" t="n">
+        <x:v>4757</x:v>
+      </x:c>
+      <x:c r="DO114" s="4" t="n">
+        <x:v>5758</x:v>
+      </x:c>
+      <x:c r="DP114" s="4" t="n">
+        <x:v>5106</x:v>
+      </x:c>
+      <x:c r="DQ114" s="4" t="n">
+        <x:v>5132</x:v>
+      </x:c>
+      <x:c r="DR114" s="4" t="n">
+        <x:v>6316</x:v>
+      </x:c>
+      <x:c r="DS114" s="4" t="n">
+        <x:v>5269</x:v>
       </x:c>
     </x:row>
-    <x:row r="115" spans="1:110">
+    <x:row r="115" spans="1:123">
       <x:c r="C115" s="3" t="s">
-        <x:v>223</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D115" s="4" t="n">
         <x:v>3040</x:v>
@@ -37974,18 +42371,57 @@
         <x:v>9333</x:v>
       </x:c>
       <x:c r="DD115" s="4" t="n">
-        <x:v>9202</x:v>
+        <x:v>8931</x:v>
       </x:c>
       <x:c r="DE115" s="4" t="n">
-        <x:v>9604</x:v>
+        <x:v>9795</x:v>
       </x:c>
       <x:c r="DF115" s="4" t="n">
-        <x:v>9501</x:v>
+        <x:v>9192</x:v>
+      </x:c>
+      <x:c r="DG115" s="4" t="n">
+        <x:v>9416</x:v>
+      </x:c>
+      <x:c r="DH115" s="4" t="n">
+        <x:v>10170</x:v>
+      </x:c>
+      <x:c r="DI115" s="4" t="n">
+        <x:v>9951</x:v>
+      </x:c>
+      <x:c r="DJ115" s="4" t="n">
+        <x:v>9669</x:v>
+      </x:c>
+      <x:c r="DK115" s="4" t="n">
+        <x:v>10810</x:v>
+      </x:c>
+      <x:c r="DL115" s="4" t="n">
+        <x:v>10539</x:v>
+      </x:c>
+      <x:c r="DM115" s="4" t="n">
+        <x:v>9784</x:v>
+      </x:c>
+      <x:c r="DN115" s="4" t="n">
+        <x:v>9887</x:v>
+      </x:c>
+      <x:c r="DO115" s="4" t="n">
+        <x:v>10406</x:v>
+      </x:c>
+      <x:c r="DP115" s="4" t="n">
+        <x:v>11561</x:v>
+      </x:c>
+      <x:c r="DQ115" s="4" t="n">
+        <x:v>11341</x:v>
+      </x:c>
+      <x:c r="DR115" s="4" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="DS115" s="4" t="n">
+        <x:v>10833</x:v>
       </x:c>
     </x:row>
-    <x:row r="116" spans="1:110">
+    <x:row r="116" spans="1:123">
       <x:c r="C116" s="3" t="s">
-        <x:v>224</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="D116" s="4" t="n">
         <x:v>2750</x:v>
@@ -38300,18 +42736,57 @@
         <x:v>7142</x:v>
       </x:c>
       <x:c r="DD116" s="4" t="n">
-        <x:v>6185</x:v>
+        <x:v>6149</x:v>
       </x:c>
       <x:c r="DE116" s="4" t="n">
-        <x:v>6799</x:v>
+        <x:v>6810</x:v>
       </x:c>
       <x:c r="DF116" s="4" t="n">
-        <x:v>6663</x:v>
+        <x:v>6730</x:v>
+      </x:c>
+      <x:c r="DG116" s="4" t="n">
+        <x:v>5896</x:v>
+      </x:c>
+      <x:c r="DH116" s="4" t="n">
+        <x:v>6587</x:v>
+      </x:c>
+      <x:c r="DI116" s="4" t="n">
+        <x:v>7029</x:v>
+      </x:c>
+      <x:c r="DJ116" s="4" t="n">
+        <x:v>6657</x:v>
+      </x:c>
+      <x:c r="DK116" s="4" t="n">
+        <x:v>7045</x:v>
+      </x:c>
+      <x:c r="DL116" s="4" t="n">
+        <x:v>6862</x:v>
+      </x:c>
+      <x:c r="DM116" s="4" t="n">
+        <x:v>7502</x:v>
+      </x:c>
+      <x:c r="DN116" s="4" t="n">
+        <x:v>6710</x:v>
+      </x:c>
+      <x:c r="DO116" s="4" t="n">
+        <x:v>7353</x:v>
+      </x:c>
+      <x:c r="DP116" s="4" t="n">
+        <x:v>7187</x:v>
+      </x:c>
+      <x:c r="DQ116" s="4" t="n">
+        <x:v>7611</x:v>
+      </x:c>
+      <x:c r="DR116" s="4" t="n">
+        <x:v>7395</x:v>
+      </x:c>
+      <x:c r="DS116" s="4" t="n">
+        <x:v>7252</x:v>
       </x:c>
     </x:row>
-    <x:row r="117" spans="1:110">
+    <x:row r="117" spans="1:123">
       <x:c r="C117" s="3" t="s">
-        <x:v>225</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D117" s="4" t="n">
         <x:v>2802</x:v>
@@ -38626,18 +43101,57 @@
         <x:v>6756</x:v>
       </x:c>
       <x:c r="DD117" s="4" t="n">
-        <x:v>6141</x:v>
+        <x:v>6143</x:v>
       </x:c>
       <x:c r="DE117" s="4" t="n">
-        <x:v>6391</x:v>
+        <x:v>6457</x:v>
       </x:c>
       <x:c r="DF117" s="4" t="n">
-        <x:v>5837</x:v>
+        <x:v>5760</x:v>
+      </x:c>
+      <x:c r="DG117" s="4" t="n">
+        <x:v>6382</x:v>
+      </x:c>
+      <x:c r="DH117" s="4" t="n">
+        <x:v>6352</x:v>
+      </x:c>
+      <x:c r="DI117" s="4" t="n">
+        <x:v>6938</x:v>
+      </x:c>
+      <x:c r="DJ117" s="4" t="n">
+        <x:v>6676</x:v>
+      </x:c>
+      <x:c r="DK117" s="4" t="n">
+        <x:v>6732</x:v>
+      </x:c>
+      <x:c r="DL117" s="4" t="n">
+        <x:v>7253</x:v>
+      </x:c>
+      <x:c r="DM117" s="4" t="n">
+        <x:v>6898</x:v>
+      </x:c>
+      <x:c r="DN117" s="4" t="n">
+        <x:v>6634</x:v>
+      </x:c>
+      <x:c r="DO117" s="4" t="n">
+        <x:v>6749</x:v>
+      </x:c>
+      <x:c r="DP117" s="4" t="n">
+        <x:v>7554</x:v>
+      </x:c>
+      <x:c r="DQ117" s="4" t="n">
+        <x:v>6746</x:v>
+      </x:c>
+      <x:c r="DR117" s="4" t="n">
+        <x:v>7494</x:v>
+      </x:c>
+      <x:c r="DS117" s="4" t="n">
+        <x:v>7350</x:v>
       </x:c>
     </x:row>
-    <x:row r="118" spans="1:110">
+    <x:row r="118" spans="1:123">
       <x:c r="C118" s="3" t="s">
-        <x:v>226</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="D118" s="4" t="n">
         <x:v>3764</x:v>
@@ -38952,18 +43466,52 @@
         <x:v>14653</x:v>
       </x:c>
       <x:c r="DD118" s="4" t="n">
-        <x:v>13979</x:v>
+        <x:v>13927</x:v>
       </x:c>
       <x:c r="DE118" s="4" t="n">
-        <x:v>14082</x:v>
+        <x:v>14073</x:v>
       </x:c>
       <x:c r="DF118" s="4" t="n">
-        <x:v>14169</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="120" spans="1:110">
-      <x:c r="A120" s="6" t="s">
-        <x:v>227</x:v>
+        <x:v>14022</x:v>
+      </x:c>
+      <x:c r="DG118" s="4" t="n">
+        <x:v>13657</x:v>
+      </x:c>
+      <x:c r="DH118" s="4" t="n">
+        <x:v>13939</x:v>
+      </x:c>
+      <x:c r="DI118" s="4" t="n">
+        <x:v>14201</x:v>
+      </x:c>
+      <x:c r="DJ118" s="4" t="n">
+        <x:v>14281</x:v>
+      </x:c>
+      <x:c r="DK118" s="4" t="n">
+        <x:v>14660</x:v>
+      </x:c>
+      <x:c r="DL118" s="4" t="n">
+        <x:v>14197</x:v>
+      </x:c>
+      <x:c r="DM118" s="4" t="n">
+        <x:v>14193</x:v>
+      </x:c>
+      <x:c r="DN118" s="4" t="n">
+        <x:v>14150</x:v>
+      </x:c>
+      <x:c r="DO118" s="4" t="n">
+        <x:v>14433</x:v>
+      </x:c>
+      <x:c r="DP118" s="4" t="n">
+        <x:v>15001</x:v>
+      </x:c>
+      <x:c r="DQ118" s="4" t="n">
+        <x:v>15226</x:v>
+      </x:c>
+      <x:c r="DR118" s="4" t="n">
+        <x:v>14956</x:v>
+      </x:c>
+      <x:c r="DS118" s="4" t="n">
+        <x:v>14911</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
